--- a/data-raw/excel-spreadsheets/table_data.xlsx
+++ b/data-raw/excel-spreadsheets/table_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\Documents\GitHub\CNAIM\data-raw\excel-spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CF7A3AB-124C-44BE-9BAC-CDD87FBF52EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D80A705E-B21F-4FF0-822A-9F168EF402C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" firstSheet="205" activeTab="219" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25582,8 +25582,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-D000-000000000000}">
   <dimension ref="A1:H61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="I56" sqref="I56"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26501,7 +26501,7 @@
         <v>10272</v>
       </c>
       <c r="H35">
-        <v>6959</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">

--- a/data-raw/excel-spreadsheets/table_data.xlsx
+++ b/data-raw/excel-spreadsheets/table_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\Documents\GitHub\CNAIM\data-raw\excel-spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D80A705E-B21F-4FF0-822A-9F168EF402C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97577F23-C057-42F4-B163-FE07A8E84DF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" firstSheet="205" activeTab="219" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" firstSheet="16" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -14342,8 +14342,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E64" sqref="E64"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15062,7 +15062,7 @@
         <v>19</v>
       </c>
       <c r="B36">
-        <v>6959</v>
+        <v>8000</v>
       </c>
       <c r="C36">
         <v>4823</v>
@@ -25582,7 +25582,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-D000-000000000000}">
   <dimension ref="A1:H61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>

--- a/data-raw/excel-spreadsheets/table_data.xlsx
+++ b/data-raw/excel-spreadsheets/table_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mi unidad\COLCIENCIAS\2021\san andres\INICIO PROYECTO\Insumos Plataforma\R\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andres\Documents\GitHub\CNAIM\data-raw\excel-spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00EA68A9-73CD-4ED8-9F8C-5E0D94D80583}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4089753E-BE1C-49C5-ADB0-51F54517F8AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="870" firstSheet="210" activeTab="210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="870" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -3606,7 +3606,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3663,9 +3663,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
@@ -4058,7 +4056,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B63"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView topLeftCell="A37" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
@@ -14442,8 +14440,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="L58" sqref="L58"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15662,7 +15660,7 @@
         <v>1020</v>
       </c>
       <c r="B61" s="26">
-        <v>134796</v>
+        <v>130000</v>
       </c>
       <c r="C61" s="26">
         <v>23502</v>
@@ -23737,7 +23735,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-C700-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
@@ -28004,19 +28002,19 @@
       <c r="A49" s="28" t="s">
         <v>1020</v>
       </c>
-      <c r="B49" s="32" t="s">
+      <c r="B49" s="26" t="s">
         <v>757</v>
       </c>
-      <c r="C49" s="32">
-        <v>10</v>
-      </c>
-      <c r="D49" s="32">
+      <c r="C49" s="26">
+        <v>10</v>
+      </c>
+      <c r="D49" s="26">
         <v>20</v>
       </c>
-      <c r="E49" s="32" t="s">
+      <c r="E49" s="26" t="s">
         <v>758</v>
       </c>
-      <c r="F49" s="33">
+      <c r="F49" s="32">
         <v>1.1000000000000001</v>
       </c>
     </row>
@@ -28024,17 +28022,17 @@
       <c r="A50" s="28" t="s">
         <v>1020</v>
       </c>
-      <c r="B50" s="32" t="s">
+      <c r="B50" s="26" t="s">
         <v>757</v>
       </c>
-      <c r="C50" s="32">
+      <c r="C50" s="26">
         <v>20</v>
       </c>
-      <c r="D50" s="34"/>
-      <c r="E50" s="32" t="s">
+      <c r="D50" s="5"/>
+      <c r="E50" s="26" t="s">
         <v>758</v>
       </c>
-      <c r="F50" s="33">
+      <c r="F50" s="32">
         <v>1.25</v>
       </c>
     </row>
@@ -28042,19 +28040,19 @@
       <c r="A51" s="28" t="s">
         <v>1020</v>
       </c>
-      <c r="B51" s="32" t="s">
+      <c r="B51" s="26" t="s">
         <v>759</v>
       </c>
-      <c r="C51" s="34">
+      <c r="C51" s="5">
         <v>0</v>
       </c>
-      <c r="D51" s="32">
-        <v>10</v>
-      </c>
-      <c r="E51" s="32" t="s">
+      <c r="D51" s="26">
+        <v>10</v>
+      </c>
+      <c r="E51" s="26" t="s">
         <v>758</v>
       </c>
-      <c r="F51" s="33">
+      <c r="F51" s="32">
         <v>0.9</v>
       </c>
     </row>
@@ -28062,19 +28060,19 @@
       <c r="A52" s="28" t="s">
         <v>1020</v>
       </c>
-      <c r="B52" s="32" t="s">
+      <c r="B52" s="26" t="s">
         <v>759</v>
       </c>
-      <c r="C52" s="32">
-        <v>10</v>
-      </c>
-      <c r="D52" s="32">
+      <c r="C52" s="26">
+        <v>10</v>
+      </c>
+      <c r="D52" s="26">
         <v>20</v>
       </c>
-      <c r="E52" s="32" t="s">
+      <c r="E52" s="26" t="s">
         <v>758</v>
       </c>
-      <c r="F52" s="33">
+      <c r="F52" s="32">
         <v>1</v>
       </c>
     </row>
@@ -28082,17 +28080,17 @@
       <c r="A53" s="28" t="s">
         <v>1020</v>
       </c>
-      <c r="B53" s="35" t="s">
+      <c r="B53" s="33" t="s">
         <v>759</v>
       </c>
-      <c r="C53" s="35">
+      <c r="C53" s="33">
         <v>20</v>
       </c>
-      <c r="D53" s="36"/>
-      <c r="E53" s="35" t="s">
+      <c r="D53" s="34"/>
+      <c r="E53" s="33" t="s">
         <v>758</v>
       </c>
-      <c r="F53" s="37">
+      <c r="F53" s="35">
         <v>1.1000000000000001</v>
       </c>
     </row>
@@ -34581,7 +34579,7 @@
       <c r="J39" s="26">
         <v>55</v>
       </c>
-      <c r="K39" s="38">
+      <c r="K39" s="36">
         <v>28940</v>
       </c>
     </row>
@@ -51397,10 +51395,10 @@
       <c r="C49" s="15"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="39" t="s">
+      <c r="A50" s="37" t="s">
         <v>1020</v>
       </c>
-      <c r="B50" s="40" t="s">
+      <c r="B50" s="38" t="s">
         <v>406</v>
       </c>
       <c r="C50" s="15"/>

--- a/data-raw/excel-spreadsheets/table_data.xlsx
+++ b/data-raw/excel-spreadsheets/table_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andres\Documents\GitHub\CNAIM\data-raw\excel-spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4089753E-BE1C-49C5-ADB0-51F54517F8AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4668498D-B997-408B-8B89-C6D35F88AEA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="870" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="870" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -12747,8 +12747,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12785,7 +12785,7 @@
         <v>177</v>
       </c>
       <c r="C2">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="D2">
         <v>1.5</v>
@@ -14440,7 +14440,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView topLeftCell="A37" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>

--- a/data-raw/excel-spreadsheets/table_data.xlsx
+++ b/data-raw/excel-spreadsheets/table_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andres\Documents\GitHub\CNAIM\data-raw\excel-spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4668498D-B997-408B-8B89-C6D35F88AEA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DDC23D1-72D6-4047-8ECC-4D8DAF101F3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="870" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12748,7 +12748,7 @@
   <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C3" sqref="C2:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12785,7 +12785,7 @@
         <v>177</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="D2">
         <v>1.5</v>

--- a/data-raw/excel-spreadsheets/table_data.xlsx
+++ b/data-raw/excel-spreadsheets/table_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andres\Documents\GitHub\CNAIM\data-raw\excel-spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DDC23D1-72D6-4047-8ECC-4D8DAF101F3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35E9AA89-7386-484D-BE20-74E5A860038A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="870" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="870" firstSheet="152" activeTab="176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -277,7 +277,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6227" uniqueCount="1021">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6243" uniqueCount="1029">
   <si>
     <t>Health Index Asset Category</t>
   </si>
@@ -3408,6 +3408,30 @@
   </si>
   <si>
     <t>Transformador 34kV (GM)</t>
+  </si>
+  <si>
+    <t>Baja</t>
+  </si>
+  <si>
+    <t>Media</t>
+  </si>
+  <si>
+    <t>Alta (No Confirmada)</t>
+  </si>
+  <si>
+    <t>Alta (Confirmada)</t>
+  </si>
+  <si>
+    <t>Niveles bajos o insignificantes de descarga parcial que indican que no se han identificado problemas (por ejemplo, una condición verde con un TEV o &lt;10% de la recomendación del fabricante</t>
+  </si>
+  <si>
+    <t>Se registraron algunos niveles moderados de descarga parcial (por ejemplo, el resultado «ámbar» del dispositivo de medición TEV o entre el 10 % y el 30 % de la recomendación del fabricante)</t>
+  </si>
+  <si>
+    <t>Alta descarga parcial. Se confirma el origen de la descarga parcial como posible fuente de falla</t>
+  </si>
+  <si>
+    <t>Altos niveles de descarga parcial que indican un posible defecto en el equipo, que requiere una investigación más profunda (por ejemplo, resultado 'rojo' del dispositivo de medición TEV o por encima de la recomendación del fabricante)</t>
   </si>
 </sst>
 </file>
@@ -12747,7 +12771,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="C3" sqref="C2:C3"/>
     </sheetView>
   </sheetViews>
@@ -16270,10 +16294,10 @@
 
 <file path=xl/worksheets/sheet175.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{652604AC-9724-4E2F-B57A-A5B2C1D69F60}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G6"/>
+      <selection activeCell="A7" sqref="A7:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16382,6 +16406,74 @@
       </c>
       <c r="E6">
         <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>10</v>
+      </c>
+      <c r="E7">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C8">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D8">
+        <v>10</v>
+      </c>
+      <c r="E8">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C9">
+        <v>1.3</v>
+      </c>
+      <c r="D9">
+        <v>10</v>
+      </c>
+      <c r="E9">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C10">
+        <v>1.5</v>
+      </c>
+      <c r="D10">
+        <v>10</v>
+      </c>
+      <c r="E10">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -16498,16 +16590,16 @@
 
 <file path=xl/worksheets/sheet177.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BC7F947-C936-4E31-A7FF-D33109281856}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.28515625" customWidth="1"/>
+    <col min="2" max="2" width="99" customWidth="1"/>
     <col min="3" max="3" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
@@ -16613,6 +16705,74 @@
       </c>
       <c r="E6">
         <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>10</v>
+      </c>
+      <c r="E7">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C8">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D8">
+        <v>10</v>
+      </c>
+      <c r="E8">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C9">
+        <v>1.3</v>
+      </c>
+      <c r="D9">
+        <v>10</v>
+      </c>
+      <c r="E9">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C10">
+        <v>1.5</v>
+      </c>
+      <c r="D10">
+        <v>10</v>
+      </c>
+      <c r="E10">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/excel-spreadsheets/table_data.xlsx
+++ b/data-raw/excel-spreadsheets/table_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andres\Documents\GitHub\CNAIM\data-raw\excel-spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35E9AA89-7386-484D-BE20-74E5A860038A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1D49F91-8FDC-480E-BF4E-83ECF24372C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="870" firstSheet="152" activeTab="176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="870" firstSheet="152" activeTab="175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -277,7 +277,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6243" uniqueCount="1029">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6247" uniqueCount="1033">
   <si>
     <t>Health Index Asset Category</t>
   </si>
@@ -3432,6 +3432,18 @@
   </si>
   <si>
     <t>Altos niveles de descarga parcial que indican un posible defecto en el equipo, que requiere una investigación más profunda (por ejemplo, resultado 'rojo' del dispositivo de medición TEV o por encima de la recomendación del fabricante)</t>
+  </si>
+  <si>
+    <t>Moderadamente alta</t>
+  </si>
+  <si>
+    <t>Ligeramente por encima de la temperatura normal esperada para la carga del transformador</t>
+  </si>
+  <si>
+    <t>Muy alta</t>
+  </si>
+  <si>
+    <t>Temperatura significativamente superior a la esperada normalmente para la carga del transformador</t>
   </si>
 </sst>
 </file>
@@ -16483,10 +16495,10 @@
 
 <file path=xl/worksheets/sheet176.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48C59C9D-4F8B-4B9C-B950-40B825C296D0}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16583,6 +16595,40 @@
         <v>0.5</v>
       </c>
     </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C6">
+        <v>1.2</v>
+      </c>
+      <c r="D6">
+        <v>10</v>
+      </c>
+      <c r="E6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C7">
+        <v>1.4</v>
+      </c>
+      <c r="D7">
+        <v>10</v>
+      </c>
+      <c r="E7">
+        <v>5.5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -16592,7 +16638,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BC7F947-C936-4E31-A7FF-D33109281856}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>

--- a/data-raw/excel-spreadsheets/table_data.xlsx
+++ b/data-raw/excel-spreadsheets/table_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andres\Documents\GitHub\CNAIM\data-raw\excel-spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1D49F91-8FDC-480E-BF4E-83ECF24372C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{638BF634-3405-44AA-A679-A4A57D11A4FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="870" firstSheet="152" activeTab="175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="870" firstSheet="84" activeTab="86" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -277,7 +277,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6247" uniqueCount="1033">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6265" uniqueCount="1045">
   <si>
     <t>Health Index Asset Category</t>
   </si>
@@ -3444,6 +3444,42 @@
   </si>
   <si>
     <t>Temperatura significativamente superior a la esperada normalmente para la carga del transformador</t>
+  </si>
+  <si>
+    <t>Deterioro superficial/leve</t>
+  </si>
+  <si>
+    <t>Cierto deterioro</t>
+  </si>
+  <si>
+    <t>Deterioro sustancial</t>
+  </si>
+  <si>
+    <t>El transformador puede presentar signos de envejecimiento o marcas (por ejemplo, arañazos a nivel de la superficie, musgo o líquenes que se pueden cepillar). Esto no tiene ningún impacto material en la probabilidad de fallo del activo. Puede haber evidencia de una pequeña fuga, pero no presenta un impacto significativo en la probabilidad general de falla del activo, por ejemplo: - Hay una pequeña fuga activa de un subcomponente (por ejemplo, un dispositivo de alivio de presión), pero esto se puede abordar mediante la intervención del subcomponente. - La fuga: se limita a la mancha del activo o del suelo alrededor del activo.</t>
+  </si>
+  <si>
+    <t>El activo muestra un nivel de deterioro, como manchas de corrosión superficial o fugas menores de aceite. El nivel de degradación puede afectar el funcionamiento del activo si no se atiende (por ejemplo, grandes parches de óxido en la carpintería metálica); y/o hay evidencia de una pequeña fuga de aceite activo (por ejemplo, gotas o supuración).</t>
+  </si>
+  <si>
+    <t>Hay evidencia de corrosión importante o una fuga de aceite activa e irreparable significativa (por ejemplo, charcos de aceite acumulados en el suelo o en el zócalo).</t>
+  </si>
+  <si>
+    <t>El activo (o un subcomponente) puede presentar signos de envejecimiento, manchas menores o marcas (por ejemplo, arañazos a nivel de la superficie, musgo o líquenes que se pueden cepillar). Esto no tiene ningún impacto material en la probabilidad de fallo del activo.</t>
+  </si>
+  <si>
+    <t>Áreas localizadas de corrosión superficial o evidencia de fugas de aceite no asociadas con las aletas del transformador (por ejemplo, colectores y tuberías, bridas, acoplamientos, válvulas asociados)</t>
+  </si>
+  <si>
+    <t>Corrosión generalizada, pérdida de área de sección transversal o adelgazamiento o evidencia de fugas de aceite de las aletas del radiador.</t>
+  </si>
+  <si>
+    <t>El componente del activo es apto para el servicio continuo. Hay poco deterioro</t>
+  </si>
+  <si>
+    <t>Corrosión menor o evidencia de una fuga de aceite histórica (por ejemplo, manchas) o daños menores (por ejemplo, pequeñas astillas o grietas). Bujes con altos niveles de contaminación con evidencia asociada de descarga o seguimiento localizado</t>
+  </si>
+  <si>
+    <t>Grietas visibles, cobertizos rotos, daños, degradación de la superficie, actividad de descarga generalizada/significativa y/o fuga de aceite activa (por ejemplo, gotas, charcos de aceite).</t>
   </si>
 </sst>
 </file>
@@ -16497,7 +16533,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48C59C9D-4F8B-4B9C-B950-40B825C296D0}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
@@ -59104,10 +59140,10 @@
 
 <file path=xl/worksheets/sheet85.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-5400-000000000000}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A5"/>
+      <selection activeCell="A6" sqref="A6:A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -59205,6 +59241,57 @@
         <v>0.5</v>
       </c>
     </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>10</v>
+      </c>
+      <c r="E6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C7">
+        <v>1.4</v>
+      </c>
+      <c r="D7">
+        <v>10</v>
+      </c>
+      <c r="E7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C8">
+        <v>1.8</v>
+      </c>
+      <c r="D8">
+        <v>10</v>
+      </c>
+      <c r="E8">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -59213,10 +59300,10 @@
 
 <file path=xl/worksheets/sheet86.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-5500-000000000000}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A5"/>
+      <selection activeCell="A6" sqref="A6:A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -59314,6 +59401,57 @@
         <v>0.5</v>
       </c>
     </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>10</v>
+      </c>
+      <c r="E6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C7">
+        <v>1.2</v>
+      </c>
+      <c r="D7">
+        <v>10</v>
+      </c>
+      <c r="E7">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C8">
+        <v>1.4</v>
+      </c>
+      <c r="D8">
+        <v>10</v>
+      </c>
+      <c r="E8">
+        <v>5.5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -59322,10 +59460,10 @@
 
 <file path=xl/worksheets/sheet87.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-5600-000000000000}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A5"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -59421,6 +59559,57 @@
       </c>
       <c r="E5">
         <v>0.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>10</v>
+      </c>
+      <c r="E6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C7">
+        <v>1.2</v>
+      </c>
+      <c r="D7">
+        <v>10</v>
+      </c>
+      <c r="E7">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C8">
+        <v>1.4</v>
+      </c>
+      <c r="D8">
+        <v>10</v>
+      </c>
+      <c r="E8">
+        <v>5.5</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/excel-spreadsheets/table_data.xlsx
+++ b/data-raw/excel-spreadsheets/table_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andres\Documents\GitHub\CNAIM\data-raw\excel-spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{638BF634-3405-44AA-A679-A4A57D11A4FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA3D0A41-34B6-4A09-984D-B0EC67CEC98F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="870" firstSheet="84" activeTab="86" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="870" firstSheet="84" activeTab="88" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -277,7 +277,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6265" uniqueCount="1045">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6279" uniqueCount="1053">
   <si>
     <t>Health Index Asset Category</t>
   </si>
@@ -3480,6 +3480,30 @@
   </si>
   <si>
     <t>Grietas visibles, cobertizos rotos, daños, degradación de la superficie, actividad de descarga generalizada/significativa y/o fuga de aceite activa (por ejemplo, gotas, charcos de aceite).</t>
+  </si>
+  <si>
+    <t>El componente del activos presenta cierto deterioro, pero es apto para continuar con el servicio. No hay signos evidentes de corrosión o hay pocos signos evidentes.</t>
+  </si>
+  <si>
+    <t>El componente del activo muestra un nivel de deterioro, como manchas de corrosión superficiales. El nivel de degradación puede afectar el funcionamiento del activo si no se atiende (por ejemplo, grandes parches de óxido en la carpintería metálica).</t>
+  </si>
+  <si>
+    <t>Hay evidencia de corrosión importante o daños que afectan la integridad estructural.</t>
+  </si>
+  <si>
+    <t>Sin deterioro</t>
+  </si>
+  <si>
+    <t>No hay signos de deterioro, como corrosión, manchas, marcas, fugas de compuestos, descargas, etc.</t>
+  </si>
+  <si>
+    <t>La caja de cables puede presentar pequeñas manchas o marcas exteriores (por ejemplo, arañazos a nivel de la superficie, musgo o líquenes que se pueden cepillar), pero no debe ser evidente ningún daño o corrosión. No hay evidencia de fugas, descargas, signos de calentamiento o deterioro del aislamiento.</t>
+  </si>
+  <si>
+    <t>Corrosión menor (p. ej., manchas de corrosión en la superficie) o deterioro (p. ej., rotura menor de la pintura pero sin pérdida de galvanizado).</t>
+  </si>
+  <si>
+    <t>Evidencia de corrosión y perforación significativas (por ejemplo, agujeros). Ruptura severa de la pintura con cierta pérdida de galvanizado. Fugas importantes de compuestos. Evidencia de descarga, signos de calentamiento, deterioro/daño del aislamiento.</t>
   </si>
 </sst>
 </file>
@@ -59462,8 +59486,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-5600-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -59620,10 +59644,10 @@
 
 <file path=xl/worksheets/sheet88.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-5700-000000000000}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A5"/>
+      <selection activeCell="A6" sqref="A6:A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -59721,6 +59745,57 @@
         <v>0.5</v>
       </c>
     </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>10</v>
+      </c>
+      <c r="E6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C7">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D7">
+        <v>10</v>
+      </c>
+      <c r="E7">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C8">
+        <v>1.2</v>
+      </c>
+      <c r="D8">
+        <v>10</v>
+      </c>
+      <c r="E8">
+        <v>0.5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -59729,10 +59804,10 @@
 
 <file path=xl/worksheets/sheet89.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-5800-000000000000}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -59844,6 +59919,74 @@
         <v>10</v>
       </c>
       <c r="E6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>10</v>
+      </c>
+      <c r="E7">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>10</v>
+      </c>
+      <c r="E8">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C9">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D9">
+        <v>10</v>
+      </c>
+      <c r="E9">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C10">
+        <v>1.3</v>
+      </c>
+      <c r="D10">
+        <v>10</v>
+      </c>
+      <c r="E10">
         <v>0.5</v>
       </c>
     </row>

--- a/data-raw/excel-spreadsheets/table_data.xlsx
+++ b/data-raw/excel-spreadsheets/table_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andres\Documents\GitHub\CNAIM\data-raw\excel-spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA3D0A41-34B6-4A09-984D-B0EC67CEC98F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC97C0B5-480E-43FB-94D8-2228F0A56543}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="870" firstSheet="84" activeTab="88" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" tabRatio="870" firstSheet="84" activeTab="93" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -277,7 +277,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6279" uniqueCount="1053">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6315" uniqueCount="1063">
   <si>
     <t>Health Index Asset Category</t>
   </si>
@@ -3504,6 +3504,36 @@
   </si>
   <si>
     <t>Evidencia de corrosión y perforación significativas (por ejemplo, agujeros). Ruptura severa de la pintura con cierta pérdida de galvanizado. Fugas importantes de compuestos. Evidencia de descarga, signos de calentamiento, deterioro/daño del aislamiento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">por ejemplo, corrosión leve o evidencia de fugas de compuestos (cuando corresponda) </t>
+  </si>
+  <si>
+    <t>por ejemplo, corrosión importante o evidencia de fugas de aceite de bajo nivel (si corresponde)</t>
+  </si>
+  <si>
+    <t>por ejemplo, corrosión leve o evidencia de fugas de aceite de bajo nivel (si corresponde)</t>
+  </si>
+  <si>
+    <t>por ejemplo, defectos observados o potenciales en el mecanismo, aislamiento interno, etc.</t>
+  </si>
+  <si>
+    <t>No hay signos de deterioro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El componente del activo es apto para el servicio continuo. Hay poco deterioro </t>
+  </si>
+  <si>
+    <t>por ejemplo, corrosión o desgaste leve de los componentes</t>
+  </si>
+  <si>
+    <t>por ejemplo, corrosión importante o desgaste excesivo en componentes y rodamientos</t>
+  </si>
+  <si>
+    <t>por ejemplo, corrosión importante o deshilachado de trenzas</t>
+  </si>
+  <si>
+    <t>por ejemplo, corrosión o desgaste leves</t>
   </si>
 </sst>
 </file>
@@ -59806,8 +59836,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-5800-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -60174,10 +60204,10 @@
 
 <file path=xl/worksheets/sheet90.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-5900-000000000000}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A5"/>
+      <selection activeCell="A6" sqref="A6:A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -60275,6 +60305,57 @@
         <v>0.5</v>
       </c>
     </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>10</v>
+      </c>
+      <c r="E6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C7">
+        <v>1.4</v>
+      </c>
+      <c r="D7">
+        <v>10</v>
+      </c>
+      <c r="E7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C8">
+        <v>1.8</v>
+      </c>
+      <c r="D8">
+        <v>10</v>
+      </c>
+      <c r="E8">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -60283,10 +60364,10 @@
 
 <file path=xl/worksheets/sheet91.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-5A00-000000000000}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -60384,6 +60465,57 @@
         <v>0.5</v>
       </c>
     </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>10</v>
+      </c>
+      <c r="E6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C7">
+        <v>1.2</v>
+      </c>
+      <c r="D7">
+        <v>10</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C8">
+        <v>1.4</v>
+      </c>
+      <c r="D8">
+        <v>10</v>
+      </c>
+      <c r="E8">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -60392,10 +60524,10 @@
 
 <file path=xl/worksheets/sheet92.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-5B00-000000000000}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B6"/>
+      <selection activeCell="A7" sqref="A7:B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -60510,6 +60642,74 @@
         <v>0.5</v>
       </c>
     </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C7">
+        <v>0.9</v>
+      </c>
+      <c r="D7">
+        <v>10</v>
+      </c>
+      <c r="E7">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>10</v>
+      </c>
+      <c r="E8">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C9">
+        <v>1.2</v>
+      </c>
+      <c r="D9">
+        <v>10</v>
+      </c>
+      <c r="E9">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C10">
+        <v>1.4</v>
+      </c>
+      <c r="D10">
+        <v>10</v>
+      </c>
+      <c r="E10">
+        <v>0.5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -60518,10 +60718,10 @@
 
 <file path=xl/worksheets/sheet93.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-5C00-000000000000}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A6"/>
+      <selection activeCell="A7" sqref="A7:A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -60636,6 +60836,74 @@
         <v>0.5</v>
       </c>
     </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C7">
+        <v>0.95</v>
+      </c>
+      <c r="D7">
+        <v>10</v>
+      </c>
+      <c r="E7">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>10</v>
+      </c>
+      <c r="E8">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C9">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D9">
+        <v>10</v>
+      </c>
+      <c r="E9">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C10">
+        <v>1.3</v>
+      </c>
+      <c r="D10">
+        <v>10</v>
+      </c>
+      <c r="E10">
+        <v>0.5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -60644,10 +60912,10 @@
 
 <file path=xl/worksheets/sheet94.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-5D00-000000000000}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -60759,6 +61027,74 @@
         <v>10</v>
       </c>
       <c r="E6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C7">
+        <v>0.95</v>
+      </c>
+      <c r="D7">
+        <v>10</v>
+      </c>
+      <c r="E7">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>10</v>
+      </c>
+      <c r="E8">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C9">
+        <v>1.05</v>
+      </c>
+      <c r="D9">
+        <v>10</v>
+      </c>
+      <c r="E9">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C10">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D10">
+        <v>10</v>
+      </c>
+      <c r="E10">
         <v>0.5</v>
       </c>
     </row>

--- a/data-raw/excel-spreadsheets/table_data.xlsx
+++ b/data-raw/excel-spreadsheets/table_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andres\Documents\GitHub\CNAIM\data-raw\excel-spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC97C0B5-480E-43FB-94D8-2228F0A56543}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1935ECD2-0D62-4073-93E6-A23170CFEA77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" tabRatio="870" firstSheet="84" activeTab="93" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30345" yWindow="1935" windowWidth="21600" windowHeight="11385" tabRatio="870" firstSheet="84" activeTab="90" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -60207,7 +60207,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:A8"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -60366,8 +60366,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-5A00-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -60914,7 +60914,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-5D00-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>

--- a/data-raw/excel-spreadsheets/table_data.xlsx
+++ b/data-raw/excel-spreadsheets/table_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andres\Documents\GitHub\CNAIM\data-raw\excel-spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1935ECD2-0D62-4073-93E6-A23170CFEA77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D04362EA-7269-4BFE-8B53-00B9692F79BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30345" yWindow="1935" windowWidth="21600" windowHeight="11385" tabRatio="870" firstSheet="84" activeTab="90" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3515,9 +3515,6 @@
     <t>por ejemplo, corrosión leve o evidencia de fugas de aceite de bajo nivel (si corresponde)</t>
   </si>
   <si>
-    <t>por ejemplo, defectos observados o potenciales en el mecanismo, aislamiento interno, etc.</t>
-  </si>
-  <si>
     <t>No hay signos de deterioro</t>
   </si>
   <si>
@@ -3534,6 +3531,9 @@
   </si>
   <si>
     <t>por ejemplo, corrosión o desgaste leves</t>
+  </si>
+  <si>
+    <t>p. ejemplo, defectos observados o potenciales en el mecanismo, aislamiento interno, etc.</t>
   </si>
 </sst>
 </file>
@@ -60207,7 +60207,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -60367,7 +60367,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -60504,7 +60504,7 @@
         <v>1035</v>
       </c>
       <c r="B8" t="s">
-        <v>1056</v>
+        <v>1062</v>
       </c>
       <c r="C8">
         <v>1.4</v>
@@ -60647,7 +60647,7 @@
         <v>1048</v>
       </c>
       <c r="B7" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="C7">
         <v>0.9</v>
@@ -60664,7 +60664,7 @@
         <v>1033</v>
       </c>
       <c r="B8" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -60681,7 +60681,7 @@
         <v>1034</v>
       </c>
       <c r="B9" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="C9">
         <v>1.2</v>
@@ -60698,7 +60698,7 @@
         <v>1035</v>
       </c>
       <c r="B10" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="C10">
         <v>1.4</v>
@@ -60841,7 +60841,7 @@
         <v>1048</v>
       </c>
       <c r="B7" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="C7">
         <v>0.95</v>
@@ -60858,7 +60858,7 @@
         <v>1033</v>
       </c>
       <c r="B8" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -60875,7 +60875,7 @@
         <v>1034</v>
       </c>
       <c r="B9" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="C9">
         <v>1.1000000000000001</v>
@@ -60892,7 +60892,7 @@
         <v>1035</v>
       </c>
       <c r="B10" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="C10">
         <v>1.3</v>
@@ -61035,7 +61035,7 @@
         <v>1048</v>
       </c>
       <c r="B7" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="C7">
         <v>0.95</v>
@@ -61052,7 +61052,7 @@
         <v>1033</v>
       </c>
       <c r="B8" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -61069,7 +61069,7 @@
         <v>1034</v>
       </c>
       <c r="B9" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="C9">
         <v>1.05</v>
@@ -61086,7 +61086,7 @@
         <v>1035</v>
       </c>
       <c r="B10" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="C10">
         <v>1.1000000000000001</v>

--- a/data-raw/excel-spreadsheets/table_data.xlsx
+++ b/data-raw/excel-spreadsheets/table_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andres\Documents\GitHub\CNAIM\data-raw\excel-spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D04362EA-7269-4BFE-8B53-00B9692F79BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E2DE74B-1959-4FC4-AD6D-951461FC5F5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30345" yWindow="1935" windowWidth="21600" windowHeight="11385" tabRatio="870" firstSheet="84" activeTab="90" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30345" yWindow="1935" windowWidth="21600" windowHeight="11385" tabRatio="870" firstSheet="84" activeTab="89" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -60206,8 +60206,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-5900-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -60366,8 +60366,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-5A00-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data-raw/excel-spreadsheets/table_data.xlsx
+++ b/data-raw/excel-spreadsheets/table_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andres\Documents\GitHub\CNAIM\data-raw\excel-spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E2DE74B-1959-4FC4-AD6D-951461FC5F5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3CD5E89-C4CF-46FD-9887-5E0B73AB0DC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30345" yWindow="1935" windowWidth="21600" windowHeight="11385" tabRatio="870" firstSheet="84" activeTab="89" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30690" yWindow="2280" windowWidth="21600" windowHeight="11385" tabRatio="870" firstSheet="20" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -277,7 +277,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6315" uniqueCount="1063">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6317" uniqueCount="1063">
   <si>
     <t>Health Index Asset Category</t>
   </si>
@@ -22431,10 +22431,10 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
-  <dimension ref="A1:C144"/>
+  <dimension ref="A1:C145"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A108" sqref="A108"/>
+    <sheetView tabSelected="1" topLeftCell="A97" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G113" sqref="G113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23538,8 +23538,8 @@
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>66</v>
+      <c r="A109" s="27" t="s">
+        <v>1020</v>
       </c>
       <c r="B109" t="s">
         <v>212</v>
@@ -23550,10 +23550,10 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B110" t="s">
-        <v>380</v>
+        <v>212</v>
       </c>
       <c r="C110">
         <v>60</v>
@@ -23564,10 +23564,10 @@
         <v>67</v>
       </c>
       <c r="B111" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C111">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
@@ -23575,21 +23575,21 @@
         <v>67</v>
       </c>
       <c r="B112" t="s">
-        <v>212</v>
+        <v>381</v>
       </c>
       <c r="C112">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B113" t="s">
-        <v>362</v>
+        <v>212</v>
       </c>
       <c r="C113">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
@@ -23597,10 +23597,10 @@
         <v>71</v>
       </c>
       <c r="B114" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C114">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
@@ -23608,10 +23608,10 @@
         <v>71</v>
       </c>
       <c r="B115" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C115">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
@@ -23619,10 +23619,10 @@
         <v>71</v>
       </c>
       <c r="B116" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C116">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
@@ -23630,10 +23630,10 @@
         <v>71</v>
       </c>
       <c r="B117" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C117">
-        <v>70</v>
+        <v>50</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
@@ -23641,21 +23641,21 @@
         <v>71</v>
       </c>
       <c r="B118" t="s">
-        <v>141</v>
+        <v>366</v>
       </c>
       <c r="C118">
-        <v>50</v>
+        <v>70</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B119" t="s">
-        <v>367</v>
+        <v>141</v>
       </c>
       <c r="C119">
-        <v>80</v>
+        <v>50</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
@@ -23663,10 +23663,10 @@
         <v>73</v>
       </c>
       <c r="B120" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C120">
-        <v>95</v>
+        <v>80</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
@@ -23674,10 +23674,10 @@
         <v>73</v>
       </c>
       <c r="B121" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C121">
-        <v>60</v>
+        <v>95</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
@@ -23685,10 +23685,10 @@
         <v>73</v>
       </c>
       <c r="B122" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C122">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
@@ -23696,29 +23696,29 @@
         <v>73</v>
       </c>
       <c r="B123" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C123">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>69</v>
+        <v>73</v>
+      </c>
+      <c r="B124" t="s">
+        <v>371</v>
       </c>
       <c r="C124">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>75</v>
-      </c>
-      <c r="B125" t="s">
-        <v>372</v>
+        <v>69</v>
       </c>
       <c r="C125">
-        <v>100</v>
+        <v>40</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
@@ -23726,7 +23726,7 @@
         <v>75</v>
       </c>
       <c r="B126" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C126">
         <v>100</v>
@@ -23737,7 +23737,7 @@
         <v>75</v>
       </c>
       <c r="B127" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C127">
         <v>100</v>
@@ -23748,7 +23748,7 @@
         <v>75</v>
       </c>
       <c r="B128" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C128">
         <v>100</v>
@@ -23756,13 +23756,13 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B129" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="C129">
-        <v>75</v>
+        <v>100</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
@@ -23770,7 +23770,7 @@
         <v>76</v>
       </c>
       <c r="B130" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C130">
         <v>75</v>
@@ -23781,10 +23781,10 @@
         <v>76</v>
       </c>
       <c r="B131" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C131">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
@@ -23792,7 +23792,7 @@
         <v>76</v>
       </c>
       <c r="B132" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C132">
         <v>80</v>
@@ -23800,13 +23800,13 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B133" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="C133">
-        <v>65</v>
+        <v>80</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
@@ -23814,10 +23814,10 @@
         <v>74</v>
       </c>
       <c r="B134" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C134">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
@@ -23825,10 +23825,10 @@
         <v>74</v>
       </c>
       <c r="B135" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C135">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
@@ -23836,7 +23836,7 @@
         <v>74</v>
       </c>
       <c r="B136" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C136">
         <v>75</v>
@@ -23844,15 +23844,18 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>53</v>
+        <v>74</v>
+      </c>
+      <c r="B137" t="s">
+        <v>375</v>
       </c>
       <c r="C137">
-        <v>60</v>
+        <v>75</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="C138">
         <v>60</v>
@@ -23860,37 +23863,34 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C139">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C140">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C141">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>83</v>
-      </c>
-      <c r="B142" t="s">
-        <v>380</v>
+        <v>81</v>
       </c>
       <c r="C142">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
@@ -23898,10 +23898,10 @@
         <v>83</v>
       </c>
       <c r="B143" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C143">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
@@ -23909,9 +23909,20 @@
         <v>83</v>
       </c>
       <c r="B144" t="s">
+        <v>381</v>
+      </c>
+      <c r="C144">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>83</v>
+      </c>
+      <c r="B145" t="s">
         <v>212</v>
       </c>
-      <c r="C144">
+      <c r="C145">
         <v>60</v>
       </c>
     </row>
@@ -60206,7 +60217,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-5900-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>

--- a/data-raw/excel-spreadsheets/table_data.xlsx
+++ b/data-raw/excel-spreadsheets/table_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andres\Documents\GitHub\CNAIM\data-raw\excel-spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3CD5E89-C4CF-46FD-9887-5E0B73AB0DC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{836CAC82-B773-48F2-A95F-E8F2436915C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30690" yWindow="2280" windowWidth="21600" windowHeight="11385" tabRatio="870" firstSheet="20" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="870" firstSheet="199" activeTab="220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -277,7 +277,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6317" uniqueCount="1063">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6326" uniqueCount="1064">
   <si>
     <t>Health Index Asset Category</t>
   </si>
@@ -3534,6 +3534,9 @@
   </si>
   <si>
     <t>p. ejemplo, defectos observados o potenciales en el mecanismo, aislamiento interno, etc.</t>
+  </si>
+  <si>
+    <t>34,5/13,8kV</t>
   </si>
 </sst>
 </file>
@@ -22433,7 +22436,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:C145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView topLeftCell="A97" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="G113" sqref="G113"/>
     </sheetView>
   </sheetViews>
@@ -27661,10 +27664,10 @@
 
 <file path=xl/worksheets/sheet221.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-D100-000000000000}">
-  <dimension ref="A1:F69"/>
+  <dimension ref="A1:F72"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48:A53"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="H48" sqref="H48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28402,61 +28405,61 @@
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>67</v>
-      </c>
-      <c r="B54" t="s">
-        <v>760</v>
+      <c r="A54" s="28" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B54" s="33" t="s">
+        <v>1063</v>
       </c>
       <c r="C54" s="5">
         <v>0</v>
       </c>
-      <c r="D54">
-        <v>10</v>
-      </c>
-      <c r="E54" t="s">
+      <c r="D54" s="26">
+        <v>10</v>
+      </c>
+      <c r="E54" s="26" t="s">
         <v>758</v>
       </c>
-      <c r="F54">
+      <c r="F54" s="32">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="28" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B55" s="33" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C55" s="26">
+        <v>10</v>
+      </c>
+      <c r="D55" s="26">
+        <v>20</v>
+      </c>
+      <c r="E55" s="26" t="s">
+        <v>758</v>
+      </c>
+      <c r="F55" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>67</v>
-      </c>
-      <c r="B55" t="s">
-        <v>760</v>
-      </c>
-      <c r="C55">
-        <v>10</v>
-      </c>
-      <c r="D55">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="28" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B56" s="33" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C56" s="33">
         <v>20</v>
       </c>
-      <c r="E55" t="s">
+      <c r="D56" s="34"/>
+      <c r="E56" s="33" t="s">
         <v>758</v>
       </c>
-      <c r="F55">
+      <c r="F56" s="35">
         <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>67</v>
-      </c>
-      <c r="B56" t="s">
-        <v>760</v>
-      </c>
-      <c r="C56">
-        <v>20</v>
-      </c>
-      <c r="D56" s="5"/>
-      <c r="E56" t="s">
-        <v>758</v>
-      </c>
-      <c r="F56">
-        <v>1.25</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -28464,7 +28467,7 @@
         <v>67</v>
       </c>
       <c r="B57" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="C57" s="5">
         <v>0</v>
@@ -28476,7 +28479,7 @@
         <v>758</v>
       </c>
       <c r="F57">
-        <v>0.9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -28484,7 +28487,7 @@
         <v>67</v>
       </c>
       <c r="B58" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="C58">
         <v>10</v>
@@ -28496,7 +28499,7 @@
         <v>758</v>
       </c>
       <c r="F58">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -28504,7 +28507,7 @@
         <v>67</v>
       </c>
       <c r="B59" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="C59">
         <v>20</v>
@@ -28514,65 +28517,65 @@
         <v>758</v>
       </c>
       <c r="F59">
-        <v>1.1000000000000001</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="B60" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C60" s="5">
         <v>0</v>
       </c>
       <c r="D60">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="F60">
-        <v>1.05</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="B61" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C61">
-        <v>60</v>
-      </c>
-      <c r="D61" s="5"/>
+        <v>10</v>
+      </c>
+      <c r="D61">
+        <v>20</v>
+      </c>
       <c r="E61" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="F61">
-        <v>1.1499999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="B62" t="s">
-        <v>764</v>
-      </c>
-      <c r="C62" s="5">
-        <v>0</v>
-      </c>
-      <c r="D62">
-        <v>60</v>
-      </c>
+        <v>761</v>
+      </c>
+      <c r="C62">
+        <v>20</v>
+      </c>
+      <c r="D62" s="5"/>
       <c r="E62" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="F62">
-        <v>0.9</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -28580,43 +28583,57 @@
         <v>83</v>
       </c>
       <c r="B63" t="s">
-        <v>764</v>
-      </c>
-      <c r="C63">
+        <v>762</v>
+      </c>
+      <c r="C63" s="5">
+        <v>0</v>
+      </c>
+      <c r="D63">
         <v>60</v>
       </c>
-      <c r="D63" s="5"/>
       <c r="E63" t="s">
         <v>763</v>
       </c>
       <c r="F63">
-        <v>1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="B64" t="s">
-        <v>765</v>
-      </c>
-      <c r="C64" s="5"/>
+        <v>762</v>
+      </c>
+      <c r="C64">
+        <v>60</v>
+      </c>
       <c r="D64" s="5"/>
+      <c r="E64" t="s">
+        <v>763</v>
+      </c>
       <c r="F64">
-        <v>1.1000000000000001</v>
+        <v>1.1499999999999999</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="B65" t="s">
-        <v>766</v>
-      </c>
-      <c r="C65" s="5"/>
-      <c r="D65" s="5"/>
+        <v>764</v>
+      </c>
+      <c r="C65" s="5">
+        <v>0</v>
+      </c>
+      <c r="D65">
+        <v>60</v>
+      </c>
+      <c r="E65" t="s">
+        <v>763</v>
+      </c>
       <c r="F65">
-        <v>1.1000000000000001</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -28624,38 +28641,43 @@
         <v>83</v>
       </c>
       <c r="B66" t="s">
-        <v>767</v>
-      </c>
-      <c r="C66" s="5"/>
+        <v>764</v>
+      </c>
+      <c r="C66">
+        <v>60</v>
+      </c>
       <c r="D66" s="5"/>
+      <c r="E66" t="s">
+        <v>763</v>
+      </c>
       <c r="F66">
-        <v>1.1000000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="B67" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="C67" s="5"/>
       <c r="D67" s="5"/>
       <c r="F67">
-        <v>0.85</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="C68" s="5"/>
       <c r="D68" s="5"/>
       <c r="F68">
-        <v>0.95</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -28663,11 +28685,50 @@
         <v>83</v>
       </c>
       <c r="B69" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="C69" s="5"/>
       <c r="D69" s="5"/>
       <c r="F69">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>83</v>
+      </c>
+      <c r="B70" t="s">
+        <v>768</v>
+      </c>
+      <c r="C70" s="5"/>
+      <c r="D70" s="5"/>
+      <c r="F70">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>83</v>
+      </c>
+      <c r="B71" t="s">
+        <v>769</v>
+      </c>
+      <c r="C71" s="5"/>
+      <c r="D71" s="5"/>
+      <c r="F71">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>83</v>
+      </c>
+      <c r="B72" t="s">
+        <v>770</v>
+      </c>
+      <c r="C72" s="5"/>
+      <c r="D72" s="5"/>
+      <c r="F72">
         <v>1.1000000000000001</v>
       </c>
     </row>

--- a/data-raw/excel-spreadsheets/table_data.xlsx
+++ b/data-raw/excel-spreadsheets/table_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andres\Documents\GitHub\CNAIM\data-raw\excel-spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{836CAC82-B773-48F2-A95F-E8F2436915C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95395C2D-E5D6-44D8-9E53-90689D6B20B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="870" firstSheet="199" activeTab="220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="870" firstSheet="16" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -14569,8 +14569,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B61" sqref="B61"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F60" sqref="F60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15789,7 +15789,7 @@
         <v>1020</v>
       </c>
       <c r="B61" s="26">
-        <v>130000</v>
+        <v>134796</v>
       </c>
       <c r="C61" s="26">
         <v>23502</v>
@@ -27666,7 +27666,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-D100-000000000000}">
   <dimension ref="A1:F72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView topLeftCell="A28" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="H48" sqref="H48"/>
     </sheetView>
   </sheetViews>

--- a/data-raw/excel-spreadsheets/table_data.xlsx
+++ b/data-raw/excel-spreadsheets/table_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andres\Documents\GitHub\CNAIM\data-raw\excel-spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95395C2D-E5D6-44D8-9E53-90689D6B20B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B8B08CB-FDAF-406C-949B-5AB5E598C07C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="870" firstSheet="16" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="870" firstSheet="210" activeTab="231" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -277,7 +277,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6326" uniqueCount="1064">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6335" uniqueCount="1064">
   <si>
     <t>Health Index Asset Category</t>
   </si>
@@ -14569,7 +14569,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView topLeftCell="A34" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="F60" sqref="F60"/>
     </sheetView>
   </sheetViews>
@@ -27667,7 +27667,7 @@
   <dimension ref="A1:F72"/>
   <sheetViews>
     <sheetView topLeftCell="A28" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H48" sqref="H48"/>
+      <selection activeCell="B54" sqref="B54:B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32158,10 +32158,10 @@
 
 <file path=xl/worksheets/sheet232.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-DB00-000000000000}">
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:A19"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32524,55 +32524,61 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>67</v>
-      </c>
-      <c r="B20" t="s">
-        <v>824</v>
+    <row r="20" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="26" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B20" s="33" t="s">
+        <v>1063</v>
       </c>
       <c r="C20" s="5">
         <v>0</v>
       </c>
-      <c r="D20">
-        <v>10</v>
-      </c>
-      <c r="E20" t="s">
+      <c r="D20" s="26">
+        <v>10</v>
+      </c>
+      <c r="E20" s="26" t="s">
         <v>822</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="26">
         <v>0.7</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>67</v>
-      </c>
-      <c r="C21">
-        <v>10</v>
-      </c>
-      <c r="D21">
+    <row r="21" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="26" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B21" s="33" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C21" s="26">
+        <v>10</v>
+      </c>
+      <c r="D21" s="26">
         <v>20</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="26" t="s">
         <v>822</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="26">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>67</v>
-      </c>
-      <c r="C22">
+    <row r="22" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="26" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B22" s="33" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C22" s="26">
         <v>20</v>
       </c>
       <c r="D22" s="5"/>
-      <c r="E22" t="s">
+      <c r="E22" s="26" t="s">
         <v>822</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="26">
         <v>1.6</v>
       </c>
     </row>
@@ -32581,7 +32587,7 @@
         <v>67</v>
       </c>
       <c r="B23" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C23" s="5">
         <v>0</v>
@@ -32600,9 +32606,6 @@
       <c r="A24" t="s">
         <v>67</v>
       </c>
-      <c r="B24" t="s">
-        <v>825</v>
-      </c>
       <c r="C24">
         <v>10</v>
       </c>
@@ -32620,9 +32623,6 @@
       <c r="A25" t="s">
         <v>67</v>
       </c>
-      <c r="B25" t="s">
-        <v>825</v>
-      </c>
       <c r="C25">
         <v>20</v>
       </c>
@@ -32636,37 +32636,39 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="B26" t="s">
-        <v>764</v>
+        <v>825</v>
       </c>
       <c r="C26" s="5">
         <v>0</v>
       </c>
       <c r="D26">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
       <c r="F26">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="B27" t="s">
-        <v>764</v>
+        <v>825</v>
       </c>
       <c r="C27">
-        <v>60</v>
-      </c>
-      <c r="D27" s="5"/>
+        <v>10</v>
+      </c>
+      <c r="D27">
+        <v>20</v>
+      </c>
       <c r="E27" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
       <c r="F27">
         <v>1</v>
@@ -32674,22 +32676,20 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="B28" t="s">
-        <v>764</v>
-      </c>
-      <c r="C28" s="5">
-        <v>0</v>
-      </c>
-      <c r="D28">
-        <v>60</v>
-      </c>
+        <v>825</v>
+      </c>
+      <c r="C28">
+        <v>20</v>
+      </c>
+      <c r="D28" s="5"/>
       <c r="E28" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
       <c r="F28">
-        <v>0.8</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -32699,41 +32699,55 @@
       <c r="B29" t="s">
         <v>764</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="5">
+        <v>0</v>
+      </c>
+      <c r="D29">
         <v>60</v>
       </c>
-      <c r="D29" s="5"/>
       <c r="E29" t="s">
         <v>826</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="B30" t="s">
-        <v>765</v>
-      </c>
-      <c r="C30" s="5"/>
+        <v>764</v>
+      </c>
+      <c r="C30">
+        <v>60</v>
+      </c>
       <c r="D30" s="5"/>
+      <c r="E30" t="s">
+        <v>826</v>
+      </c>
       <c r="F30">
-        <v>1.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="B31" t="s">
-        <v>766</v>
-      </c>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
+        <v>764</v>
+      </c>
+      <c r="C31" s="5">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>60</v>
+      </c>
+      <c r="E31" t="s">
+        <v>826</v>
+      </c>
       <c r="F31">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -32741,38 +32755,43 @@
         <v>83</v>
       </c>
       <c r="B32" t="s">
-        <v>767</v>
-      </c>
-      <c r="C32" s="5"/>
+        <v>764</v>
+      </c>
+      <c r="C32">
+        <v>60</v>
+      </c>
       <c r="D32" s="5"/>
+      <c r="E32" t="s">
+        <v>826</v>
+      </c>
       <c r="F32">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="B33" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
       <c r="F33">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="B34" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
       <c r="F34">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -32780,7 +32799,7 @@
         <v>83</v>
       </c>
       <c r="B35" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
@@ -32789,36 +32808,42 @@
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="23" t="s">
-        <v>960</v>
+      <c r="A36" t="s">
+        <v>83</v>
       </c>
       <c r="B36" t="s">
-        <v>961</v>
-      </c>
+        <v>768</v>
+      </c>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
       <c r="F36">
-        <v>1</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="23" t="s">
-        <v>960</v>
+      <c r="A37" t="s">
+        <v>83</v>
       </c>
       <c r="B37" t="s">
-        <v>962</v>
-      </c>
+        <v>769</v>
+      </c>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
       <c r="F37">
-        <v>1</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="23" t="s">
-        <v>960</v>
+      <c r="A38" t="s">
+        <v>83</v>
       </c>
       <c r="B38" t="s">
-        <v>963</v>
-      </c>
+        <v>770</v>
+      </c>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
       <c r="F38">
-        <v>2.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -32826,9 +32851,42 @@
         <v>960</v>
       </c>
       <c r="B39" t="s">
+        <v>961</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="23" t="s">
+        <v>960</v>
+      </c>
+      <c r="B40" t="s">
+        <v>962</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="23" t="s">
+        <v>960</v>
+      </c>
+      <c r="B41" t="s">
+        <v>963</v>
+      </c>
+      <c r="F41">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="23" t="s">
+        <v>960</v>
+      </c>
+      <c r="B42" t="s">
         <v>964</v>
       </c>
-      <c r="F39">
+      <c r="F42">
         <v>2.5</v>
       </c>
     </row>

--- a/data-raw/excel-spreadsheets/table_data.xlsx
+++ b/data-raw/excel-spreadsheets/table_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\CNAIM\data-raw\excel-spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA9BCACA-EB8B-4F5D-9936-FE5A4FD88240}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB5D2EEF-522B-4E6D-864B-2522E22F9693}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="870" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -277,7 +277,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6335" uniqueCount="1064">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6337" uniqueCount="1066">
   <si>
     <t>Health Index Asset Category</t>
   </si>
@@ -3537,6 +3537,12 @@
   </si>
   <si>
     <t>34,5/13,8kV</t>
+  </si>
+  <si>
+    <t>Generador Convencional</t>
+  </si>
+  <si>
+    <t>Grupo Electrógeno Diésel 13.8kV</t>
   </si>
 </sst>
 </file>
@@ -3643,7 +3649,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3659,6 +3665,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3735,7 +3747,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3801,6 +3813,7 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4183,10 +4196,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B63"/>
+  <dimension ref="A1:B64"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A46" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A64" sqref="A64:XFD64"/>
+      <selection activeCell="B64" sqref="A64:B64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4698,6 +4711,14 @@
       </c>
       <c r="B63" t="s">
         <v>83</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" s="39" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B64" s="39" t="s">
+        <v>1065</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/excel-spreadsheets/table_data.xlsx
+++ b/data-raw/excel-spreadsheets/table_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\CNAIM\data-raw\excel-spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB5D2EEF-522B-4E6D-864B-2522E22F9693}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB0C72FA-3684-4FE9-874B-3AD753400D63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="870" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="870" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -277,7 +277,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6337" uniqueCount="1066">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6339" uniqueCount="1066">
   <si>
     <t>Health Index Asset Category</t>
   </si>
@@ -4198,8 +4198,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B64" sqref="A64:B64"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B64" sqref="B64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -52129,10 +52129,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B43"/>
+  <dimension ref="A1:B44"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -52484,6 +52484,14 @@
       </c>
       <c r="B43" t="s">
         <v>141</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="39" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B44" s="39" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/excel-spreadsheets/table_data.xlsx
+++ b/data-raw/excel-spreadsheets/table_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\CNAIM\data-raw\excel-spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB0C72FA-3684-4FE9-874B-3AD753400D63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EC20BEC-3478-4C87-9A9B-2209179CB34E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="870" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -277,7 +277,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6339" uniqueCount="1066">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6339" uniqueCount="1067">
   <si>
     <t>Health Index Asset Category</t>
   </si>
@@ -3543,6 +3543,9 @@
   </si>
   <si>
     <t>Grupo Electrógeno Diésel 13.8kV</t>
+  </si>
+  <si>
+    <t>H</t>
   </si>
 </sst>
 </file>
@@ -52491,7 +52494,7 @@
         <v>1065</v>
       </c>
       <c r="B44" s="39" t="s">
-        <v>111</v>
+        <v>1066</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/excel-spreadsheets/table_data.xlsx
+++ b/data-raw/excel-spreadsheets/table_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\CNAIM\data-raw\excel-spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EC20BEC-3478-4C87-9A9B-2209179CB34E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAC860AA-81A2-494E-A822-0CC229761935}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="870" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -277,7 +277,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6339" uniqueCount="1067">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6339" uniqueCount="1066">
   <si>
     <t>Health Index Asset Category</t>
   </si>
@@ -3543,9 +3543,6 @@
   </si>
   <si>
     <t>Grupo Electrógeno Diésel 13.8kV</t>
-  </si>
-  <si>
-    <t>H</t>
   </si>
 </sst>
 </file>
@@ -52494,7 +52491,7 @@
         <v>1065</v>
       </c>
       <c r="B44" s="39" t="s">
-        <v>1066</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/excel-spreadsheets/table_data.xlsx
+++ b/data-raw/excel-spreadsheets/table_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\CNAIM\data-raw\excel-spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAC860AA-81A2-494E-A822-0CC229761935}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B3E0831-2C14-4376-8A40-91BA139BC156}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="870" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="870" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -277,7 +277,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6339" uniqueCount="1066">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6342" uniqueCount="1066">
   <si>
     <t>Health Index Asset Category</t>
   </si>
@@ -4198,7 +4198,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B64"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="B64" sqref="B64"/>
     </sheetView>
   </sheetViews>
@@ -7966,8 +7966,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView topLeftCell="A28" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9548,8 +9548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+    <sheetView topLeftCell="A16" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11323,7 +11323,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -12897,7 +12897,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView topLeftCell="A22" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="C3" sqref="C2:C3"/>
     </sheetView>
   </sheetViews>
@@ -52131,7 +52131,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView topLeftCell="A28" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
@@ -57356,7 +57356,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -60187,15 +60187,15 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="C15" sqref="B15:C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.33203125" customWidth="1"/>
+    <col min="1" max="1" width="28.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="49.33203125" customWidth="1"/>
     <col min="3" max="3" width="30.6640625" customWidth="1"/>
     <col min="4" max="1025" width="8.88671875" customWidth="1"/>
@@ -60352,6 +60352,17 @@
         <v>187</v>
       </c>
       <c r="C14" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="39" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B15" s="39" t="s">
+        <v>174</v>
+      </c>
+      <c r="C15" s="39" t="s">
         <v>177</v>
       </c>
     </row>

--- a/data-raw/excel-spreadsheets/table_data.xlsx
+++ b/data-raw/excel-spreadsheets/table_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\CNAIM\data-raw\excel-spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B3E0831-2C14-4376-8A40-91BA139BC156}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C44AA4C6-33E9-43BC-B92B-69274FCBAD08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="870" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="870" activeTab="26" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -277,7 +277,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6342" uniqueCount="1066">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6381" uniqueCount="1079">
   <si>
     <t>Health Index Asset Category</t>
   </si>
@@ -3539,10 +3539,49 @@
     <t>34,5/13,8kV</t>
   </si>
   <si>
-    <t>Generador Convencional</t>
-  </si>
-  <si>
     <t>Grupo Electrógeno Diésel 13.8kV</t>
+  </si>
+  <si>
+    <t>Generadores</t>
+  </si>
+  <si>
+    <t>HV Generador Diésel</t>
+  </si>
+  <si>
+    <t>Motor</t>
+  </si>
+  <si>
+    <t>Alternador</t>
+  </si>
+  <si>
+    <t>1. Cubierta de acero, 2. Condición de los rodamientos, 3. Condición del sistema de combustible, 4. Condición del sistema de enfriamiento, 5. Condición del sistema de lubricación, 6. Condición del sistema de inducción de aire, 7. Condición de las culatas de cilíndros, 8. Condición del filtro</t>
+  </si>
+  <si>
+    <t>1. Envolvente, 2. Condición del aislamiento, 3. Condición de los cables y de la caja de terminales, 4. Condición del rotor, 5. Condición del estator</t>
+  </si>
+  <si>
+    <t>1. Rendimiento, 2. RPM, 3. Consumo, 4. Freno</t>
+  </si>
+  <si>
+    <t>1. Resistencia de aislamiento, 2. Descarga parcial, 3. Secuencia de fases, 4. Vibraciones, 5. Pérdidas, 6. Temperatura del arrollamiento, 7. Xd, Xq, X0, X1, X2, 8. Factor de potencia</t>
+  </si>
+  <si>
+    <t>Garantizar el suministro eléctrico como fuente de generación principal, soportando carga continua y variaciones de demanda.</t>
+  </si>
+  <si>
+    <t>Avería mecánica mayor (rotura de bloque, pistones, cigüeñal). Falla en el alternador (enrollado, rotor, estator). Falla en subsistemas (refrigeración, lubricación, combustible, aire/turbo). Sobrecalentamiento persistente.</t>
+  </si>
+  <si>
+    <t>Pérdida súbita e irreversible de la capacidad de generación. Ejemplos: destrucción completa del motor o alternador por rotura catastrófica; incendio grave; daño irreparable de componentes clave que imposibilite restaurar la operación.</t>
+  </si>
+  <si>
+    <t>Degradación avanzada que reduce significativamente la potencia o confiabilidad. Ejemplos: aumento sostenido de temperatura por falla de sistema de refrigeración; fugas considerables de combustible; turbo ineficiente que reduce la potencia disponible.</t>
+  </si>
+  <si>
+    <t>Síntomas iniciales de falla que pueden evolucionar a eventos graves si no se corrigen. Ejemplos: ruido anormal en rodamientos, vibraciones leves en el motor, fugas pequeñas de aceite o combustible, disparos esporádicos por protección.</t>
+  </si>
+  <si>
+    <t>Fallas que no estén relacionadas con la condición intrínseca del generador, p. ej.: intervención de terceros, errores de operación no atribuibles al estado del activo, sabotaje o daños por desastres naturales que excedan las condiciones normales de operación.</t>
   </si>
 </sst>
 </file>
@@ -3553,7 +3592,7 @@
     <numFmt numFmtId="164" formatCode="0.000000000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -3647,6 +3686,13 @@
       <color rgb="FF000000"/>
       <name val="Aptos"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -3747,7 +3793,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3784,9 +3830,6 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -3814,6 +3857,21 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4196,9 +4254,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <tabColor theme="7"/>
+  </sheetPr>
   <dimension ref="A1:B64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView topLeftCell="A49" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="B64" sqref="B64"/>
     </sheetView>
   </sheetViews>
@@ -4610,10 +4671,10 @@
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" s="26" t="s">
+      <c r="A51" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="B51" s="26" t="s">
+      <c r="B51" s="25" t="s">
         <v>1020</v>
       </c>
     </row>
@@ -4714,11 +4775,11 @@
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A64" s="39" t="s">
+      <c r="A64" s="38" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B64" s="38" t="s">
         <v>1064</v>
-      </c>
-      <c r="B64" s="39" t="s">
-        <v>1065</v>
       </c>
     </row>
   </sheetData>
@@ -5047,19 +5108,19 @@
       </c>
     </row>
     <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="22" t="s">
         <v>868</v>
       </c>
       <c r="B2" t="s">
         <v>450</v>
       </c>
-      <c r="C2" s="23">
+      <c r="C2" s="22">
         <v>0.9</v>
       </c>
-      <c r="D2" s="23">
-        <v>10</v>
-      </c>
-      <c r="E2" s="23">
+      <c r="D2" s="22">
+        <v>10</v>
+      </c>
+      <c r="E2" s="22">
         <v>0.5</v>
       </c>
     </row>
@@ -5173,7 +5234,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="22" t="s">
         <v>868</v>
       </c>
       <c r="B2" t="s">
@@ -5299,7 +5360,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="22" t="s">
         <v>868</v>
       </c>
       <c r="B2" t="s">
@@ -7964,10 +8025,13 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <dimension ref="A1:C34"/>
+  <sheetPr>
+    <tabColor theme="7"/>
+  </sheetPr>
+  <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView topLeftCell="A28" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="A35" sqref="A35:B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8350,6 +8414,28 @@
       </c>
       <c r="C34" t="s">
         <v>237</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="38" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B35" s="38" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C35" s="38" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="38" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B36" s="38" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C36" s="38" t="s">
+        <v>1070</v>
       </c>
     </row>
   </sheetData>
@@ -9546,10 +9632,13 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <dimension ref="A1:E34"/>
+  <sheetPr>
+    <tabColor theme="7"/>
+  </sheetPr>
+  <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView topLeftCell="A25" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35:B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10137,6 +10226,40 @@
       </c>
       <c r="E34" s="8">
         <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="38" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B35" s="38" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C35" s="38">
+        <v>1.5</v>
+      </c>
+      <c r="D35" s="38">
+        <v>1.5</v>
+      </c>
+      <c r="E35" s="38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="38" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B36" s="38" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C36" s="38">
+        <v>1.5</v>
+      </c>
+      <c r="D36" s="38">
+        <v>1.5</v>
+      </c>
+      <c r="E36" s="38">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -11321,10 +11444,13 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
-  <dimension ref="A1:C34"/>
+  <sheetPr>
+    <tabColor theme="7"/>
+  </sheetPr>
+  <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView topLeftCell="A19" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B35" sqref="A35:B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11707,6 +11833,28 @@
       </c>
       <c r="C34" t="s">
         <v>253</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="38" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B35" s="38" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C35" s="38" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="38" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B36" s="38" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C36" s="38" t="s">
+        <v>1072</v>
       </c>
     </row>
   </sheetData>
@@ -12895,15 +13043,18 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
-  <dimension ref="A1:E34"/>
+  <sheetPr>
+    <tabColor theme="7"/>
+  </sheetPr>
+  <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView topLeftCell="A22" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C3" sqref="C2:C3"/>
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" customWidth="1"/>
+    <col min="1" max="1" width="29.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.88671875" customWidth="1"/>
     <col min="3" max="4" width="8.88671875" customWidth="1"/>
     <col min="5" max="5" width="30.33203125" customWidth="1"/>
@@ -13486,6 +13637,40 @@
       </c>
       <c r="E34" s="8" t="s">
         <v>177</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="38" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B35" s="38" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C35" s="38">
+        <v>1.5</v>
+      </c>
+      <c r="D35" s="38">
+        <v>1.5</v>
+      </c>
+      <c r="E35" s="38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="38" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B36" s="38" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C36" s="38">
+        <v>1.5</v>
+      </c>
+      <c r="D36" s="38">
+        <v>1.5</v>
+      </c>
+      <c r="E36" s="38">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -14588,10 +14773,13 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
-  <dimension ref="A1:F63"/>
+  <sheetPr>
+    <tabColor theme="7"/>
+  </sheetPr>
+  <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F60" sqref="F60"/>
+    <sheetView topLeftCell="A49" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B64" sqref="B64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15789,7 +15977,7 @@
       <c r="A60" t="s">
         <v>66</v>
       </c>
-      <c r="B60">
+      <c r="B60" s="41">
         <v>134796</v>
       </c>
       <c r="C60">
@@ -15806,22 +15994,22 @@
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A61" s="26" t="s">
+      <c r="A61" s="25" t="s">
         <v>1020</v>
       </c>
-      <c r="B61" s="26">
+      <c r="B61" s="40">
         <v>134796</v>
       </c>
-      <c r="C61" s="26">
+      <c r="C61" s="25">
         <v>23502</v>
       </c>
-      <c r="D61" s="26">
+      <c r="D61" s="25">
         <v>17048</v>
       </c>
-      <c r="E61" s="26">
+      <c r="E61" s="25">
         <v>28940</v>
       </c>
-      <c r="F61" s="26">
+      <c r="F61" s="25">
         <v>157188</v>
       </c>
     </row>
@@ -15865,9 +16053,29 @@
         <v>564721</v>
       </c>
     </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64" s="38" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B64" s="38">
+        <v>87698</v>
+      </c>
+      <c r="C64" s="38">
+        <v>23502</v>
+      </c>
+      <c r="D64" s="38">
+        <v>17048</v>
+      </c>
+      <c r="E64" s="38">
+        <v>28940</v>
+      </c>
+      <c r="F64" s="38">
+        <v>157188</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -17175,9 +17383,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
-    </sheetView>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -19801,10 +20007,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C26"/>
+  <sheetPr>
+    <tabColor theme="7"/>
+  </sheetPr>
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView topLeftCell="A16" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20088,6 +20297,15 @@
         <v>70</v>
       </c>
     </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="39" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B27" s="39"/>
+      <c r="C27" s="39" t="s">
+        <v>1066</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -20096,15 +20314,23 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
-  <dimension ref="A1:G18"/>
+  <sheetPr>
+    <tabColor theme="7"/>
+  </sheetPr>
+  <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView topLeftCell="A7" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="6" width="8.88671875" customWidth="1"/>
+    <col min="1" max="1" width="20.109375" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" customWidth="1"/>
+    <col min="6" max="6" width="15.21875" customWidth="1"/>
     <col min="7" max="7" width="130.6640625" customWidth="1"/>
     <col min="8" max="1025" width="8.88671875" customWidth="1"/>
   </cols>
@@ -20521,6 +20747,29 @@
       </c>
       <c r="G18" t="s">
         <v>354</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="38" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B19" s="38" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C19" s="38" t="s">
+        <v>1074</v>
+      </c>
+      <c r="D19" s="38" t="s">
+        <v>1075</v>
+      </c>
+      <c r="E19" s="38" t="s">
+        <v>1076</v>
+      </c>
+      <c r="F19" s="38" t="s">
+        <v>1077</v>
+      </c>
+      <c r="G19" s="38" t="s">
+        <v>1078</v>
       </c>
     </row>
   </sheetData>
@@ -22455,10 +22704,13 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
-  <dimension ref="A1:C145"/>
+  <sheetPr>
+    <tabColor theme="7"/>
+  </sheetPr>
+  <dimension ref="A1:C147"/>
   <sheetViews>
-    <sheetView topLeftCell="A97" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G113" sqref="G113"/>
+    <sheetView topLeftCell="A136" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A147" sqref="A147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -23540,29 +23792,29 @@
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A107" s="27" t="s">
+      <c r="A107" s="26" t="s">
         <v>1020</v>
       </c>
-      <c r="B107" s="26" t="s">
+      <c r="B107" s="25" t="s">
         <v>380</v>
       </c>
-      <c r="C107" s="26">
+      <c r="C107" s="25">
         <v>60</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A108" s="27" t="s">
+      <c r="A108" s="26" t="s">
         <v>1020</v>
       </c>
-      <c r="B108" s="26" t="s">
+      <c r="B108" s="25" t="s">
         <v>381</v>
       </c>
-      <c r="C108" s="26">
+      <c r="C108" s="25">
         <v>50</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A109" s="27" t="s">
+      <c r="A109" s="26" t="s">
         <v>1020</v>
       </c>
       <c r="B109" t="s">
@@ -23948,6 +24200,28 @@
       </c>
       <c r="C145">
         <v>60</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A146" s="38" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B146" s="38" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C146" s="38">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A147" s="38" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B147" s="38" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C147" s="38">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -25734,10 +26008,13 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
-  <dimension ref="A1:D21"/>
+  <sheetPr>
+    <tabColor theme="7"/>
+  </sheetPr>
+  <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView topLeftCell="A9" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -26040,6 +26317,20 @@
         <v>1.087</v>
       </c>
       <c r="D21" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="38" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B22" s="38">
+        <v>4.5400000000000003E-2</v>
+      </c>
+      <c r="C22" s="38">
+        <v>1.087</v>
+      </c>
+      <c r="D22" s="42">
         <v>4</v>
       </c>
     </row>
@@ -27599,29 +27890,29 @@
         <v>87698</v>
       </c>
     </row>
-    <row r="60" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="26" t="s">
+    <row r="60" spans="1:8" s="25" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="25" t="s">
         <v>1020</v>
       </c>
-      <c r="B60" s="26">
+      <c r="B60" s="25">
         <v>45</v>
       </c>
-      <c r="C60" s="26">
+      <c r="C60" s="25">
         <v>50</v>
       </c>
-      <c r="D60" s="26">
+      <c r="D60" s="25">
         <v>5</v>
       </c>
-      <c r="E60" s="26">
+      <c r="E60" s="25">
         <v>39863</v>
       </c>
-      <c r="F60" s="26">
+      <c r="F60" s="25">
         <v>99657</v>
       </c>
-      <c r="G60" s="26">
+      <c r="G60" s="25">
         <v>398629</v>
       </c>
-      <c r="H60" s="26">
+      <c r="H60" s="25">
         <v>87698</v>
       </c>
     </row>
@@ -28310,176 +28601,176 @@
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A48" s="28" t="s">
+      <c r="A48" s="27" t="s">
         <v>1020</v>
       </c>
-      <c r="B48" s="29" t="s">
+      <c r="B48" s="28" t="s">
         <v>757</v>
       </c>
-      <c r="C48" s="30">
+      <c r="C48" s="29">
         <v>0</v>
       </c>
-      <c r="D48" s="29">
-        <v>10</v>
-      </c>
-      <c r="E48" s="29" t="s">
+      <c r="D48" s="28">
+        <v>10</v>
+      </c>
+      <c r="E48" s="28" t="s">
         <v>758</v>
       </c>
-      <c r="F48" s="31">
+      <c r="F48" s="30">
         <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" s="28" t="s">
+      <c r="A49" s="27" t="s">
         <v>1020</v>
       </c>
-      <c r="B49" s="26" t="s">
+      <c r="B49" s="25" t="s">
         <v>757</v>
       </c>
-      <c r="C49" s="26">
-        <v>10</v>
-      </c>
-      <c r="D49" s="26">
+      <c r="C49" s="25">
+        <v>10</v>
+      </c>
+      <c r="D49" s="25">
         <v>20</v>
       </c>
-      <c r="E49" s="26" t="s">
+      <c r="E49" s="25" t="s">
         <v>758</v>
       </c>
-      <c r="F49" s="32">
+      <c r="F49" s="31">
         <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" s="28" t="s">
+      <c r="A50" s="27" t="s">
         <v>1020</v>
       </c>
-      <c r="B50" s="26" t="s">
+      <c r="B50" s="25" t="s">
         <v>757</v>
       </c>
-      <c r="C50" s="26">
+      <c r="C50" s="25">
         <v>20</v>
       </c>
       <c r="D50" s="5"/>
-      <c r="E50" s="26" t="s">
+      <c r="E50" s="25" t="s">
         <v>758</v>
       </c>
-      <c r="F50" s="32">
+      <c r="F50" s="31">
         <v>1.25</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51" s="28" t="s">
+      <c r="A51" s="27" t="s">
         <v>1020</v>
       </c>
-      <c r="B51" s="26" t="s">
+      <c r="B51" s="25" t="s">
         <v>759</v>
       </c>
       <c r="C51" s="5">
         <v>0</v>
       </c>
-      <c r="D51" s="26">
-        <v>10</v>
-      </c>
-      <c r="E51" s="26" t="s">
+      <c r="D51" s="25">
+        <v>10</v>
+      </c>
+      <c r="E51" s="25" t="s">
         <v>758</v>
       </c>
-      <c r="F51" s="32">
+      <c r="F51" s="31">
         <v>0.9</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A52" s="28" t="s">
+      <c r="A52" s="27" t="s">
         <v>1020</v>
       </c>
-      <c r="B52" s="26" t="s">
+      <c r="B52" s="25" t="s">
         <v>759</v>
       </c>
-      <c r="C52" s="26">
-        <v>10</v>
-      </c>
-      <c r="D52" s="26">
+      <c r="C52" s="25">
+        <v>10</v>
+      </c>
+      <c r="D52" s="25">
         <v>20</v>
       </c>
-      <c r="E52" s="26" t="s">
+      <c r="E52" s="25" t="s">
         <v>758</v>
       </c>
-      <c r="F52" s="32">
+      <c r="F52" s="31">
         <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A53" s="28" t="s">
+      <c r="A53" s="27" t="s">
         <v>1020</v>
       </c>
-      <c r="B53" s="33" t="s">
+      <c r="B53" s="32" t="s">
         <v>759</v>
       </c>
-      <c r="C53" s="33">
+      <c r="C53" s="32">
         <v>20</v>
       </c>
-      <c r="D53" s="34"/>
-      <c r="E53" s="33" t="s">
+      <c r="D53" s="33"/>
+      <c r="E53" s="32" t="s">
         <v>758</v>
       </c>
-      <c r="F53" s="35">
+      <c r="F53" s="34">
         <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A54" s="28" t="s">
+      <c r="A54" s="27" t="s">
         <v>1020</v>
       </c>
-      <c r="B54" s="33" t="s">
+      <c r="B54" s="32" t="s">
         <v>1063</v>
       </c>
       <c r="C54" s="5">
         <v>0</v>
       </c>
-      <c r="D54" s="26">
-        <v>10</v>
-      </c>
-      <c r="E54" s="26" t="s">
+      <c r="D54" s="25">
+        <v>10</v>
+      </c>
+      <c r="E54" s="25" t="s">
         <v>758</v>
       </c>
-      <c r="F54" s="32">
+      <c r="F54" s="31">
         <v>0.9</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A55" s="28" t="s">
+      <c r="A55" s="27" t="s">
         <v>1020</v>
       </c>
-      <c r="B55" s="33" t="s">
+      <c r="B55" s="32" t="s">
         <v>1063</v>
       </c>
-      <c r="C55" s="26">
-        <v>10</v>
-      </c>
-      <c r="D55" s="26">
+      <c r="C55" s="25">
+        <v>10</v>
+      </c>
+      <c r="D55" s="25">
         <v>20</v>
       </c>
-      <c r="E55" s="26" t="s">
+      <c r="E55" s="25" t="s">
         <v>758</v>
       </c>
-      <c r="F55" s="32">
+      <c r="F55" s="31">
         <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A56" s="28" t="s">
+      <c r="A56" s="27" t="s">
         <v>1020</v>
       </c>
-      <c r="B56" s="33" t="s">
+      <c r="B56" s="32" t="s">
         <v>1063</v>
       </c>
-      <c r="C56" s="33">
+      <c r="C56" s="32">
         <v>20</v>
       </c>
-      <c r="D56" s="34"/>
-      <c r="E56" s="33" t="s">
+      <c r="D56" s="33"/>
+      <c r="E56" s="32" t="s">
         <v>758</v>
       </c>
-      <c r="F56" s="35">
+      <c r="F56" s="34">
         <v>1.1000000000000001</v>
       </c>
     </row>
@@ -29067,7 +29358,7 @@
       <c r="A2" t="s">
         <v>784</v>
       </c>
-      <c r="B2" s="18">
+      <c r="B2" s="17">
         <v>9130</v>
       </c>
     </row>
@@ -29075,7 +29366,7 @@
       <c r="A3" t="s">
         <v>785</v>
       </c>
-      <c r="B3" s="18">
+      <c r="B3" s="17">
         <v>1810495</v>
       </c>
     </row>
@@ -29083,7 +29374,7 @@
       <c r="A4" t="s">
         <v>786</v>
       </c>
-      <c r="B4" s="18">
+      <c r="B4" s="17">
         <v>1810495</v>
       </c>
     </row>
@@ -29161,7 +29452,7 @@
       <c r="D1" s="1" t="s">
         <v>781</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="20" t="s">
         <v>955</v>
       </c>
     </row>
@@ -29730,7 +30021,7 @@
       <c r="A35" t="s">
         <v>19</v>
       </c>
-      <c r="B35" s="17">
+      <c r="B35" s="16">
         <v>2.6027400000000001E-5</v>
       </c>
       <c r="C35">
@@ -29747,7 +30038,7 @@
       <c r="A36" t="s">
         <v>22</v>
       </c>
-      <c r="B36" s="17">
+      <c r="B36" s="16">
         <v>2.6027400000000001E-5</v>
       </c>
       <c r="C36">
@@ -29764,7 +30055,7 @@
       <c r="A37" t="s">
         <v>20</v>
       </c>
-      <c r="B37" s="17">
+      <c r="B37" s="16">
         <v>2.6027400000000001E-5</v>
       </c>
       <c r="C37">
@@ -29781,7 +30072,7 @@
       <c r="A38" t="s">
         <v>21</v>
       </c>
-      <c r="B38" s="17">
+      <c r="B38" s="16">
         <v>2.6027400000000001E-5</v>
       </c>
       <c r="C38">
@@ -29815,7 +30106,7 @@
       <c r="A40" t="s">
         <v>23</v>
       </c>
-      <c r="B40" s="17">
+      <c r="B40" s="16">
         <v>2.6027400000000001E-5</v>
       </c>
       <c r="C40">
@@ -29832,7 +30123,7 @@
       <c r="A41" t="s">
         <v>25</v>
       </c>
-      <c r="B41" s="17">
+      <c r="B41" s="16">
         <v>2.6027400000000001E-5</v>
       </c>
       <c r="C41">
@@ -29849,7 +30140,7 @@
       <c r="A42" t="s">
         <v>24</v>
       </c>
-      <c r="B42" s="17">
+      <c r="B42" s="16">
         <v>2.6027400000000001E-5</v>
       </c>
       <c r="C42">
@@ -30104,7 +30395,7 @@
       <c r="A57" t="s">
         <v>27</v>
       </c>
-      <c r="B57" s="17">
+      <c r="B57" s="16">
         <v>2.6027400000000001E-5</v>
       </c>
       <c r="C57">
@@ -30121,7 +30412,7 @@
       <c r="A58" t="s">
         <v>28</v>
       </c>
-      <c r="B58" s="17">
+      <c r="B58" s="16">
         <v>2.6027400000000001E-5</v>
       </c>
       <c r="C58">
@@ -30151,20 +30442,20 @@
         <v>23502</v>
       </c>
     </row>
-    <row r="60" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="26" t="s">
+    <row r="60" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="25" t="s">
         <v>1020</v>
       </c>
-      <c r="B60" s="26">
+      <c r="B60" s="25">
         <v>2.6027400000000001E-4</v>
       </c>
-      <c r="C60" s="26">
+      <c r="C60" s="25">
         <v>1.15E-4</v>
       </c>
-      <c r="D60" s="26">
+      <c r="D60" s="25">
         <v>1.9606160000000001E-3</v>
       </c>
-      <c r="E60" s="26">
+      <c r="E60" s="25">
         <v>23502</v>
       </c>
     </row>
@@ -30311,7 +30602,7 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="35.44140625" customWidth="1"/>
-    <col min="2" max="2" width="27.44140625" style="19" customWidth="1"/>
+    <col min="2" max="2" width="27.44140625" style="18" customWidth="1"/>
     <col min="3" max="1025" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -30319,7 +30610,7 @@
       <c r="A1" s="1" t="s">
         <v>795</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="19" t="s">
         <v>796</v>
       </c>
     </row>
@@ -30327,7 +30618,7 @@
       <c r="A2" t="s">
         <v>420</v>
       </c>
-      <c r="B2" s="19">
+      <c r="B2" s="18">
         <v>1</v>
       </c>
     </row>
@@ -30335,7 +30626,7 @@
       <c r="A3" t="s">
         <v>797</v>
       </c>
-      <c r="B3" s="19">
+      <c r="B3" s="18">
         <v>2</v>
       </c>
     </row>
@@ -30359,16 +30650,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="20" t="s">
         <v>956</v>
       </c>
-      <c r="B1" s="20"/>
+      <c r="B1" s="19"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>957</v>
       </c>
-      <c r="B2" s="19">
+      <c r="B2" s="18">
         <v>0.5</v>
       </c>
     </row>
@@ -30376,7 +30667,7 @@
       <c r="A3" t="s">
         <v>958</v>
       </c>
-      <c r="B3" s="19">
+      <c r="B3" s="18">
         <v>1</v>
       </c>
     </row>
@@ -30395,16 +30686,19 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
-  <dimension ref="A1:K7"/>
+  <sheetPr>
+    <tabColor theme="7"/>
+  </sheetPr>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="6.88671875" style="11" customWidth="1"/>
-    <col min="3" max="3" width="29.109375" style="11" customWidth="1"/>
+    <col min="3" max="3" width="29.88671875" style="11" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.33203125" style="11" customWidth="1"/>
     <col min="5" max="5" width="12.109375" style="11" customWidth="1"/>
     <col min="6" max="6" width="12.33203125" style="11" customWidth="1"/>
@@ -30413,10 +30707,11 @@
     <col min="9" max="9" width="17.109375" style="11" customWidth="1"/>
     <col min="10" max="10" width="15.109375" style="11" customWidth="1"/>
     <col min="11" max="11" width="18" style="11" customWidth="1"/>
-    <col min="12" max="1025" width="8.88671875" customWidth="1"/>
+    <col min="12" max="12" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="1025" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>155</v>
       </c>
@@ -30450,8 +30745,11 @@
       <c r="K1" s="12" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L1" s="43" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="13">
         <v>0</v>
       </c>
@@ -30485,8 +30783,11 @@
       <c r="K2" s="11">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L2" s="44">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="14">
         <v>1</v>
       </c>
@@ -30520,8 +30821,11 @@
       <c r="K3" s="11">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L3" s="38">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="14">
         <v>5</v>
       </c>
@@ -30555,8 +30859,11 @@
       <c r="K4" s="11">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L4" s="38">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="14">
         <v>10</v>
       </c>
@@ -30590,8 +30897,11 @@
       <c r="K5" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L5" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="14">
         <v>20</v>
       </c>
@@ -30623,8 +30933,11 @@
       <c r="K6" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="L6" s="38">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
         <v>400</v>
       </c>
@@ -30656,6 +30969,9 @@
         <v>1</v>
       </c>
       <c r="K7" s="11">
+        <v>1</v>
+      </c>
+      <c r="L7" s="38">
         <v>1</v>
       </c>
     </row>
@@ -31052,7 +31368,7 @@
       <c r="P7">
         <v>1</v>
       </c>
-      <c r="Q7" s="18">
+      <c r="Q7" s="17">
         <v>5885</v>
       </c>
     </row>
@@ -31105,7 +31421,7 @@
       <c r="P8">
         <v>1</v>
       </c>
-      <c r="Q8" s="18">
+      <c r="Q8" s="17">
         <v>7410</v>
       </c>
     </row>
@@ -31264,7 +31580,7 @@
       <c r="P11">
         <v>5</v>
       </c>
-      <c r="Q11" s="18">
+      <c r="Q11" s="17">
         <v>1547</v>
       </c>
     </row>
@@ -31317,7 +31633,7 @@
       <c r="P12">
         <v>5</v>
       </c>
-      <c r="Q12" s="18">
+      <c r="Q12" s="17">
         <v>1486</v>
       </c>
     </row>
@@ -31370,7 +31686,7 @@
       <c r="P13">
         <v>10</v>
       </c>
-      <c r="Q13" s="18">
+      <c r="Q13" s="17">
         <v>4356</v>
       </c>
     </row>
@@ -31423,7 +31739,7 @@
       <c r="P14">
         <v>10</v>
       </c>
-      <c r="Q14" s="18">
+      <c r="Q14" s="17">
         <v>21756</v>
       </c>
     </row>
@@ -31476,7 +31792,7 @@
       <c r="P15">
         <v>10</v>
       </c>
-      <c r="Q15" s="18">
+      <c r="Q15" s="17">
         <v>3809</v>
       </c>
     </row>
@@ -31529,7 +31845,7 @@
       <c r="P16">
         <v>10</v>
       </c>
-      <c r="Q16" s="18">
+      <c r="Q16" s="17">
         <v>17048</v>
       </c>
     </row>
@@ -31582,7 +31898,7 @@
       <c r="P17">
         <v>10</v>
       </c>
-      <c r="Q17" s="18">
+      <c r="Q17" s="17">
         <v>35095</v>
       </c>
     </row>
@@ -31741,7 +32057,7 @@
       <c r="P20">
         <v>100</v>
       </c>
-      <c r="Q20" s="18">
+      <c r="Q20" s="17">
         <v>3600</v>
       </c>
     </row>
@@ -32429,177 +32745,177 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="26" t="s">
+    <row r="14" spans="1:6" s="25" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="25" t="s">
         <v>1020</v>
       </c>
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="25" t="s">
         <v>821</v>
       </c>
       <c r="C14" s="5">
         <v>0</v>
       </c>
-      <c r="D14" s="26">
-        <v>10</v>
-      </c>
-      <c r="E14" s="26" t="s">
+      <c r="D14" s="25">
+        <v>10</v>
+      </c>
+      <c r="E14" s="25" t="s">
         <v>822</v>
       </c>
-      <c r="F14" s="26">
+      <c r="F14" s="25">
         <v>0.7</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="26" t="s">
+    <row r="15" spans="1:6" s="25" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="25" t="s">
         <v>1020</v>
       </c>
-      <c r="B15" s="26" t="s">
+      <c r="B15" s="25" t="s">
         <v>821</v>
       </c>
-      <c r="C15" s="26">
-        <v>10</v>
-      </c>
-      <c r="D15" s="26">
+      <c r="C15" s="25">
+        <v>10</v>
+      </c>
+      <c r="D15" s="25">
         <v>20</v>
       </c>
-      <c r="E15" s="26" t="s">
+      <c r="E15" s="25" t="s">
         <v>822</v>
       </c>
-      <c r="F15" s="26">
+      <c r="F15" s="25">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="26" t="s">
+    <row r="16" spans="1:6" s="25" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="25" t="s">
         <v>1020</v>
       </c>
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="25" t="s">
         <v>821</v>
       </c>
-      <c r="C16" s="26">
+      <c r="C16" s="25">
         <v>20</v>
       </c>
       <c r="D16" s="5"/>
-      <c r="E16" s="26" t="s">
+      <c r="E16" s="25" t="s">
         <v>822</v>
       </c>
-      <c r="F16" s="26">
+      <c r="F16" s="25">
         <v>1.6</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="26" t="s">
+    <row r="17" spans="1:6" s="25" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="25" t="s">
         <v>1020</v>
       </c>
-      <c r="B17" s="26" t="s">
+      <c r="B17" s="25" t="s">
         <v>823</v>
       </c>
       <c r="C17" s="5">
         <v>0</v>
       </c>
-      <c r="D17" s="26">
-        <v>10</v>
-      </c>
-      <c r="E17" s="26" t="s">
+      <c r="D17" s="25">
+        <v>10</v>
+      </c>
+      <c r="E17" s="25" t="s">
         <v>822</v>
       </c>
-      <c r="F17" s="26">
+      <c r="F17" s="25">
         <v>0.7</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="26" t="s">
+    <row r="18" spans="1:6" s="25" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="25" t="s">
         <v>1020</v>
       </c>
-      <c r="B18" s="26" t="s">
+      <c r="B18" s="25" t="s">
         <v>823</v>
       </c>
-      <c r="C18" s="26">
-        <v>10</v>
-      </c>
-      <c r="D18" s="26">
+      <c r="C18" s="25">
+        <v>10</v>
+      </c>
+      <c r="D18" s="25">
         <v>20</v>
       </c>
-      <c r="E18" s="26" t="s">
+      <c r="E18" s="25" t="s">
         <v>822</v>
       </c>
-      <c r="F18" s="26">
+      <c r="F18" s="25">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="26" t="s">
+    <row r="19" spans="1:6" s="25" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="25" t="s">
         <v>1020</v>
       </c>
-      <c r="B19" s="26" t="s">
+      <c r="B19" s="25" t="s">
         <v>823</v>
       </c>
-      <c r="C19" s="26">
+      <c r="C19" s="25">
         <v>20</v>
       </c>
       <c r="D19" s="5"/>
-      <c r="E19" s="26" t="s">
+      <c r="E19" s="25" t="s">
         <v>822</v>
       </c>
-      <c r="F19" s="26">
+      <c r="F19" s="25">
         <v>1.6</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="26" t="s">
+    <row r="20" spans="1:6" s="25" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="25" t="s">
         <v>1020</v>
       </c>
-      <c r="B20" s="33" t="s">
+      <c r="B20" s="32" t="s">
         <v>1063</v>
       </c>
       <c r="C20" s="5">
         <v>0</v>
       </c>
-      <c r="D20" s="26">
-        <v>10</v>
-      </c>
-      <c r="E20" s="26" t="s">
+      <c r="D20" s="25">
+        <v>10</v>
+      </c>
+      <c r="E20" s="25" t="s">
         <v>822</v>
       </c>
-      <c r="F20" s="26">
+      <c r="F20" s="25">
         <v>0.7</v>
       </c>
     </row>
-    <row r="21" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="26" t="s">
+    <row r="21" spans="1:6" s="25" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="25" t="s">
         <v>1020</v>
       </c>
-      <c r="B21" s="33" t="s">
+      <c r="B21" s="32" t="s">
         <v>1063</v>
       </c>
-      <c r="C21" s="26">
-        <v>10</v>
-      </c>
-      <c r="D21" s="26">
+      <c r="C21" s="25">
+        <v>10</v>
+      </c>
+      <c r="D21" s="25">
         <v>20</v>
       </c>
-      <c r="E21" s="26" t="s">
+      <c r="E21" s="25" t="s">
         <v>822</v>
       </c>
-      <c r="F21" s="26">
+      <c r="F21" s="25">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="26" t="s">
+    <row r="22" spans="1:6" s="25" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="25" t="s">
         <v>1020</v>
       </c>
-      <c r="B22" s="33" t="s">
+      <c r="B22" s="32" t="s">
         <v>1063</v>
       </c>
-      <c r="C22" s="26">
+      <c r="C22" s="25">
         <v>20</v>
       </c>
       <c r="D22" s="5"/>
-      <c r="E22" s="26" t="s">
+      <c r="E22" s="25" t="s">
         <v>822</v>
       </c>
-      <c r="F22" s="26">
+      <c r="F22" s="25">
         <v>1.6</v>
       </c>
     </row>
@@ -32868,7 +33184,7 @@
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="23" t="s">
+      <c r="A39" s="22" t="s">
         <v>960</v>
       </c>
       <c r="B39" t="s">
@@ -32879,7 +33195,7 @@
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="23" t="s">
+      <c r="A40" s="22" t="s">
         <v>960</v>
       </c>
       <c r="B40" t="s">
@@ -32890,7 +33206,7 @@
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="23" t="s">
+      <c r="A41" s="22" t="s">
         <v>960</v>
       </c>
       <c r="B41" t="s">
@@ -32901,7 +33217,7 @@
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="23" t="s">
+      <c r="A42" s="22" t="s">
         <v>960</v>
       </c>
       <c r="B42" t="s">
@@ -33284,7 +33600,7 @@
       <c r="G2">
         <v>10</v>
       </c>
-      <c r="H2" s="18">
+      <c r="H2" s="17">
         <v>542</v>
       </c>
     </row>
@@ -33310,7 +33626,7 @@
       <c r="G3">
         <v>10</v>
       </c>
-      <c r="H3" s="18">
+      <c r="H3" s="17">
         <v>1930</v>
       </c>
     </row>
@@ -33336,7 +33652,7 @@
       <c r="G4">
         <v>60</v>
       </c>
-      <c r="H4" s="18">
+      <c r="H4" s="17">
         <v>4343</v>
       </c>
     </row>
@@ -33362,7 +33678,7 @@
       <c r="G5">
         <v>60</v>
       </c>
-      <c r="H5" s="18">
+      <c r="H5" s="17">
         <v>11580</v>
       </c>
     </row>
@@ -33388,7 +33704,7 @@
       <c r="G6">
         <v>60</v>
       </c>
-      <c r="H6" s="18">
+      <c r="H6" s="17">
         <v>40530</v>
       </c>
     </row>
@@ -33414,7 +33730,7 @@
       <c r="G7">
         <v>100</v>
       </c>
-      <c r="H7" s="18">
+      <c r="H7" s="17">
         <v>11085</v>
       </c>
     </row>
@@ -33440,7 +33756,7 @@
       <c r="G8">
         <v>100</v>
       </c>
-      <c r="H8" s="18">
+      <c r="H8" s="17">
         <v>8243</v>
       </c>
     </row>
@@ -33466,7 +33782,7 @@
       <c r="G9">
         <v>100</v>
       </c>
-      <c r="H9" s="18">
+      <c r="H9" s="17">
         <v>2748</v>
       </c>
     </row>
@@ -33492,7 +33808,7 @@
       <c r="G10">
         <v>100</v>
       </c>
-      <c r="H10" s="18">
+      <c r="H10" s="17">
         <v>8243</v>
       </c>
     </row>
@@ -33518,7 +33834,7 @@
       <c r="G11">
         <v>100</v>
       </c>
-      <c r="H11" s="18">
+      <c r="H11" s="17">
         <v>190344</v>
       </c>
     </row>
@@ -33836,7 +34152,7 @@
       <c r="J5">
         <v>20</v>
       </c>
-      <c r="K5" s="18">
+      <c r="K5" s="17">
         <v>1663</v>
       </c>
     </row>
@@ -33871,7 +34187,7 @@
       <c r="J6">
         <v>20</v>
       </c>
-      <c r="K6" s="18">
+      <c r="K6" s="17">
         <v>4157</v>
       </c>
     </row>
@@ -34046,7 +34362,7 @@
       <c r="J11">
         <v>100</v>
       </c>
-      <c r="K11" s="18">
+      <c r="K11" s="17">
         <v>2667</v>
       </c>
     </row>
@@ -34081,7 +34397,7 @@
       <c r="J12">
         <v>100</v>
       </c>
-      <c r="K12" s="18">
+      <c r="K12" s="17">
         <v>6667</v>
       </c>
     </row>
@@ -34116,7 +34432,7 @@
       <c r="J13">
         <v>100</v>
       </c>
-      <c r="K13" s="18">
+      <c r="K13" s="17">
         <v>3530</v>
       </c>
     </row>
@@ -34221,7 +34537,7 @@
       <c r="J16">
         <v>100</v>
       </c>
-      <c r="K16" s="18">
+      <c r="K16" s="17">
         <v>7059</v>
       </c>
     </row>
@@ -34326,7 +34642,7 @@
       <c r="J19">
         <v>100</v>
       </c>
-      <c r="K19" s="18">
+      <c r="K19" s="17">
         <v>17648</v>
       </c>
     </row>
@@ -34431,7 +34747,7 @@
       <c r="J22">
         <v>100</v>
       </c>
-      <c r="K22" s="18">
+      <c r="K22" s="17">
         <v>3530</v>
       </c>
     </row>
@@ -34466,7 +34782,7 @@
       <c r="J23">
         <v>100</v>
       </c>
-      <c r="K23" s="18">
+      <c r="K23" s="17">
         <v>17648</v>
       </c>
     </row>
@@ -34501,7 +34817,7 @@
       <c r="J24">
         <v>55</v>
       </c>
-      <c r="K24" s="18">
+      <c r="K24" s="17">
         <v>29120</v>
       </c>
     </row>
@@ -34536,7 +34852,7 @@
       <c r="J25">
         <v>55</v>
       </c>
-      <c r="K25" s="18">
+      <c r="K25" s="17">
         <v>14740</v>
       </c>
     </row>
@@ -34571,7 +34887,7 @@
       <c r="J26">
         <v>55</v>
       </c>
-      <c r="K26" s="18">
+      <c r="K26" s="17">
         <v>29120</v>
       </c>
     </row>
@@ -34606,7 +34922,7 @@
       <c r="J27">
         <v>55</v>
       </c>
-      <c r="K27" s="18">
+      <c r="K27" s="17">
         <v>14740</v>
       </c>
     </row>
@@ -34641,7 +34957,7 @@
       <c r="J28">
         <v>55</v>
       </c>
-      <c r="K28" s="18">
+      <c r="K28" s="17">
         <v>14740</v>
       </c>
     </row>
@@ -34676,7 +34992,7 @@
       <c r="J29">
         <v>55</v>
       </c>
-      <c r="K29" s="18">
+      <c r="K29" s="17">
         <v>14740</v>
       </c>
     </row>
@@ -34711,7 +35027,7 @@
       <c r="J30">
         <v>55</v>
       </c>
-      <c r="K30" s="18">
+      <c r="K30" s="17">
         <v>29120</v>
       </c>
     </row>
@@ -34746,7 +35062,7 @@
       <c r="J31">
         <v>55</v>
       </c>
-      <c r="K31" s="18">
+      <c r="K31" s="17">
         <v>14740</v>
       </c>
     </row>
@@ -34781,7 +35097,7 @@
       <c r="J32">
         <v>55</v>
       </c>
-      <c r="K32" s="18">
+      <c r="K32" s="17">
         <v>29120</v>
       </c>
     </row>
@@ -34816,7 +35132,7 @@
       <c r="J33">
         <v>55</v>
       </c>
-      <c r="K33" s="18">
+      <c r="K33" s="17">
         <v>14740</v>
       </c>
     </row>
@@ -34851,7 +35167,7 @@
       <c r="J34">
         <v>55</v>
       </c>
-      <c r="K34" s="18">
+      <c r="K34" s="17">
         <v>153867</v>
       </c>
     </row>
@@ -34886,7 +35202,7 @@
       <c r="J35">
         <v>55</v>
       </c>
-      <c r="K35" s="18">
+      <c r="K35" s="17">
         <v>38826</v>
       </c>
     </row>
@@ -34921,7 +35237,7 @@
       <c r="J36">
         <v>55</v>
       </c>
-      <c r="K36" s="18">
+      <c r="K36" s="17">
         <v>153867</v>
       </c>
     </row>
@@ -34956,7 +35272,7 @@
       <c r="J37">
         <v>55</v>
       </c>
-      <c r="K37" s="18">
+      <c r="K37" s="17">
         <v>38826</v>
       </c>
     </row>
@@ -34991,42 +35307,42 @@
       <c r="J38">
         <v>55</v>
       </c>
-      <c r="K38" s="18">
+      <c r="K38" s="17">
         <v>28940</v>
       </c>
     </row>
-    <row r="39" spans="1:11" s="26" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="26" t="s">
+    <row r="39" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="25" t="s">
         <v>1020</v>
       </c>
-      <c r="B39" s="26">
+      <c r="B39" s="25">
         <v>15</v>
       </c>
-      <c r="C39" s="26">
+      <c r="C39" s="25">
         <v>100</v>
       </c>
-      <c r="D39" s="26">
+      <c r="D39" s="25">
         <v>100</v>
       </c>
-      <c r="E39" s="26">
+      <c r="E39" s="25">
         <v>80</v>
       </c>
-      <c r="F39" s="26">
+      <c r="F39" s="25">
         <v>0</v>
       </c>
-      <c r="G39" s="26">
+      <c r="G39" s="25">
         <v>2</v>
       </c>
-      <c r="H39" s="26">
+      <c r="H39" s="25">
         <v>400</v>
       </c>
-      <c r="I39" s="26">
+      <c r="I39" s="25">
         <v>0.05</v>
       </c>
-      <c r="J39" s="26">
+      <c r="J39" s="25">
         <v>55</v>
       </c>
-      <c r="K39" s="36">
+      <c r="K39" s="35">
         <v>28940</v>
       </c>
     </row>
@@ -35061,7 +35377,7 @@
       <c r="J40">
         <v>55</v>
       </c>
-      <c r="K40" s="18">
+      <c r="K40" s="17">
         <v>28940</v>
       </c>
     </row>
@@ -35096,7 +35412,7 @@
       <c r="J41">
         <v>55</v>
       </c>
-      <c r="K41" s="18">
+      <c r="K41" s="17">
         <v>230441</v>
       </c>
     </row>
@@ -35124,19 +35440,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="20" t="s">
         <v>966</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="20" t="s">
         <v>967</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="20" t="s">
         <v>968</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="20" t="s">
         <v>969</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="20" t="s">
         <v>970</v>
       </c>
     </row>
@@ -35956,20 +36272,20 @@
         <v>392968.9</v>
       </c>
     </row>
-    <row r="50" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="26" t="s">
+    <row r="50" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="25" t="s">
         <v>1020</v>
       </c>
-      <c r="B50" s="26">
+      <c r="B50" s="25">
         <v>110031.29</v>
       </c>
-      <c r="C50" s="26">
+      <c r="C50" s="25">
         <v>157187.56</v>
       </c>
-      <c r="D50" s="26">
+      <c r="D50" s="25">
         <v>235781.34</v>
       </c>
-      <c r="E50" s="26">
+      <c r="E50" s="25">
         <v>392968.9</v>
       </c>
     </row>
@@ -36218,22 +36534,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="20" t="s">
         <v>975</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="20" t="s">
         <v>976</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="20" t="s">
         <v>977</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="20" t="s">
         <v>978</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="20" t="s">
         <v>979</v>
       </c>
     </row>
@@ -37197,23 +37513,23 @@
         <v>9.7467999999999999E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="26" t="s">
+    <row r="50" spans="1:6" s="25" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="25" t="s">
         <v>1020</v>
       </c>
-      <c r="B50" s="26">
+      <c r="B50" s="25">
         <v>1.2939000000000001E-2</v>
       </c>
-      <c r="C50" s="26">
+      <c r="C50" s="25">
         <v>1.4855999999999999E-2</v>
       </c>
-      <c r="D50" s="26">
+      <c r="D50" s="25">
         <v>3.4062000000000002E-2</v>
       </c>
-      <c r="E50" s="26">
+      <c r="E50" s="25">
         <v>5.5164999999999999E-2</v>
       </c>
-      <c r="F50" s="26">
+      <c r="F50" s="25">
         <v>9.7467999999999999E-2</v>
       </c>
     </row>
@@ -37484,10 +37800,13 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
-  <dimension ref="A1:K6"/>
+  <sheetPr>
+    <tabColor theme="7"/>
+  </sheetPr>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -37502,10 +37821,11 @@
     <col min="9" max="9" width="17.109375" customWidth="1"/>
     <col min="10" max="10" width="15.109375" customWidth="1"/>
     <col min="11" max="11" width="18" customWidth="1"/>
-    <col min="12" max="1025" width="8.88671875" customWidth="1"/>
+    <col min="12" max="12" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="1025" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>155</v>
       </c>
@@ -37539,8 +37859,11 @@
       <c r="K1" s="1" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L1" s="43" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
         <v>0</v>
       </c>
@@ -37574,8 +37897,11 @@
       <c r="K2">
         <v>0.95</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L2" s="38">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>100</v>
       </c>
@@ -37609,8 +37935,11 @@
       <c r="K3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L3" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>200</v>
       </c>
@@ -37644,8 +37973,11 @@
       <c r="K4">
         <v>1.05</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L4" s="38">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>300</v>
       </c>
@@ -37677,8 +38009,11 @@
       <c r="K5">
         <v>1.1499999999999999</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L5" s="38">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>400</v>
       </c>
@@ -37710,6 +38045,9 @@
         <v>1</v>
       </c>
       <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6" s="38">
         <v>1</v>
       </c>
     </row>
@@ -37737,25 +38075,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="20" t="s">
         <v>164</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="20" t="s">
         <v>980</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="20" t="s">
         <v>981</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="20" t="s">
         <v>982</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="20" t="s">
         <v>983</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="20" t="s">
         <v>984</v>
       </c>
     </row>
@@ -42173,94 +42511,94 @@
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A194" s="26" t="s">
+      <c r="A194" s="25" t="s">
         <v>1020</v>
       </c>
-      <c r="B194" s="26" t="s">
+      <c r="B194" s="25" t="s">
         <v>165</v>
       </c>
-      <c r="C194" s="26">
+      <c r="C194" s="25">
         <v>1424</v>
       </c>
-      <c r="D194" s="26">
+      <c r="D194" s="25">
         <v>1635</v>
       </c>
-      <c r="E194" s="26">
+      <c r="E194" s="25">
         <v>3748</v>
       </c>
-      <c r="F194" s="26">
+      <c r="F194" s="25">
         <v>6070</v>
       </c>
-      <c r="G194" s="26">
+      <c r="G194" s="25">
         <v>10725</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A195" s="26" t="s">
+      <c r="A195" s="25" t="s">
         <v>1020</v>
       </c>
-      <c r="B195" s="26" t="s">
+      <c r="B195" s="25" t="s">
         <v>167</v>
       </c>
-      <c r="C195" s="26">
+      <c r="C195" s="25">
         <v>2034</v>
       </c>
-      <c r="D195" s="26">
+      <c r="D195" s="25">
         <v>2335</v>
       </c>
-      <c r="E195" s="26">
+      <c r="E195" s="25">
         <v>5354</v>
       </c>
-      <c r="F195" s="26">
+      <c r="F195" s="25">
         <v>8671</v>
       </c>
-      <c r="G195" s="26">
+      <c r="G195" s="25">
         <v>15321</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A196" s="26" t="s">
+      <c r="A196" s="25" t="s">
         <v>1020</v>
       </c>
-      <c r="B196" s="26" t="s">
+      <c r="B196" s="25" t="s">
         <v>168</v>
       </c>
-      <c r="C196" s="26">
+      <c r="C196" s="25">
         <v>3051</v>
       </c>
-      <c r="D196" s="26">
+      <c r="D196" s="25">
         <v>3503</v>
       </c>
-      <c r="E196" s="26">
+      <c r="E196" s="25">
         <v>8031</v>
       </c>
-      <c r="F196" s="26">
+      <c r="F196" s="25">
         <v>13007</v>
       </c>
-      <c r="G196" s="26">
+      <c r="G196" s="25">
         <v>22981</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A197" s="26" t="s">
+      <c r="A197" s="25" t="s">
         <v>1020</v>
       </c>
-      <c r="B197" s="26" t="s">
+      <c r="B197" s="25" t="s">
         <v>169</v>
       </c>
-      <c r="C197" s="26">
+      <c r="C197" s="25">
         <v>5085</v>
       </c>
-      <c r="D197" s="26">
+      <c r="D197" s="25">
         <v>5838</v>
       </c>
-      <c r="E197" s="26">
+      <c r="E197" s="25">
         <v>13385</v>
       </c>
-      <c r="F197" s="26">
+      <c r="F197" s="25">
         <v>21678</v>
       </c>
-      <c r="G197" s="26">
+      <c r="G197" s="25">
         <v>38302</v>
       </c>
     </row>
@@ -43481,13 +43819,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="20" t="s">
         <v>994</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="20" t="s">
         <v>995</v>
       </c>
     </row>
@@ -43918,13 +44256,13 @@
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" s="26" t="s">
+      <c r="A50" s="25" t="s">
         <v>1020</v>
       </c>
-      <c r="B50" s="26">
+      <c r="B50" s="25">
         <v>3.9964920000000001E-2</v>
       </c>
-      <c r="C50" s="26" t="s">
+      <c r="C50" s="25" t="s">
         <v>1000</v>
       </c>
     </row>
@@ -44074,22 +44412,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="20" t="s">
         <v>1001</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="20" t="s">
         <v>1002</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="20" t="s">
         <v>1003</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="20" t="s">
         <v>1004</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="20" t="s">
         <v>1005</v>
       </c>
     </row>
@@ -45054,22 +45392,22 @@
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" s="26" t="s">
+      <c r="A50" s="25" t="s">
         <v>1020</v>
       </c>
-      <c r="B50" s="26">
+      <c r="B50" s="25">
         <v>0.25109999999999999</v>
       </c>
-      <c r="C50" s="26">
+      <c r="C50" s="25">
         <v>0.90749999999999997</v>
       </c>
-      <c r="D50" s="26">
+      <c r="D50" s="25">
         <v>1.8915</v>
       </c>
-      <c r="E50" s="26">
+      <c r="E50" s="25">
         <v>3.1021000000000001</v>
       </c>
-      <c r="F50" s="26">
+      <c r="F50" s="25">
         <v>4.7271000000000001</v>
       </c>
     </row>
@@ -45358,25 +45696,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="20" t="s">
         <v>164</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="20" t="s">
         <v>1006</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="20" t="s">
         <v>1007</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="20" t="s">
         <v>1008</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="20" t="s">
         <v>1009</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="20" t="s">
         <v>1010</v>
       </c>
     </row>
@@ -49797,94 +50135,94 @@
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A194" s="26" t="s">
+      <c r="A194" s="25" t="s">
         <v>1020</v>
       </c>
-      <c r="B194" s="26" t="s">
+      <c r="B194" s="25" t="s">
         <v>165</v>
       </c>
-      <c r="C194" s="26">
+      <c r="C194" s="25">
         <v>27629</v>
       </c>
-      <c r="D194" s="26">
+      <c r="D194" s="25">
         <v>99853</v>
       </c>
-      <c r="E194" s="26">
+      <c r="E194" s="25">
         <v>208124</v>
       </c>
-      <c r="F194" s="26">
+      <c r="F194" s="25">
         <v>341328</v>
       </c>
-      <c r="G194" s="26">
+      <c r="G194" s="25">
         <v>520129</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A195" s="26" t="s">
+      <c r="A195" s="25" t="s">
         <v>1020</v>
       </c>
-      <c r="B195" s="26" t="s">
+      <c r="B195" s="25" t="s">
         <v>167</v>
       </c>
-      <c r="C195" s="26">
+      <c r="C195" s="25">
         <v>39470</v>
       </c>
-      <c r="D195" s="26">
+      <c r="D195" s="25">
         <v>142648</v>
       </c>
-      <c r="E195" s="26">
+      <c r="E195" s="25">
         <v>297320</v>
       </c>
-      <c r="F195" s="26">
+      <c r="F195" s="25">
         <v>487612</v>
       </c>
-      <c r="G195" s="26">
+      <c r="G195" s="25">
         <v>743041</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A196" s="26" t="s">
+      <c r="A196" s="25" t="s">
         <v>1020</v>
       </c>
-      <c r="B196" s="26" t="s">
+      <c r="B196" s="25" t="s">
         <v>168</v>
       </c>
-      <c r="C196" s="26">
+      <c r="C196" s="25">
         <v>59205</v>
       </c>
-      <c r="D196" s="26">
+      <c r="D196" s="25">
         <v>213972</v>
       </c>
-      <c r="E196" s="26">
+      <c r="E196" s="25">
         <v>445980</v>
       </c>
-      <c r="F196" s="26">
+      <c r="F196" s="25">
         <v>731417</v>
       </c>
-      <c r="G196" s="26">
+      <c r="G196" s="25">
         <v>1114562</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A197" s="26" t="s">
+      <c r="A197" s="25" t="s">
         <v>1020</v>
       </c>
-      <c r="B197" s="26" t="s">
+      <c r="B197" s="25" t="s">
         <v>169</v>
       </c>
-      <c r="C197" s="26">
+      <c r="C197" s="25">
         <v>98674</v>
       </c>
-      <c r="D197" s="26">
+      <c r="D197" s="25">
         <v>356619</v>
       </c>
-      <c r="E197" s="26">
+      <c r="E197" s="25">
         <v>743301</v>
       </c>
-      <c r="F197" s="26">
+      <c r="F197" s="25">
         <v>1219029</v>
       </c>
-      <c r="G197" s="26">
+      <c r="G197" s="25">
         <v>1857603</v>
       </c>
     </row>
@@ -51091,10 +51429,13 @@
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
-  <dimension ref="A1:I7"/>
+  <sheetPr>
+    <tabColor theme="7"/>
+  </sheetPr>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="J1" sqref="J1:J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -51108,10 +51449,11 @@
     <col min="7" max="7" width="17.109375" customWidth="1"/>
     <col min="8" max="8" width="15.109375" customWidth="1"/>
     <col min="9" max="9" width="18" customWidth="1"/>
-    <col min="10" max="1025" width="8.88671875" customWidth="1"/>
+    <col min="10" max="10" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="1025" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>402</v>
       </c>
@@ -51139,8 +51481,11 @@
       <c r="I1" s="1" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J1" s="43" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -51168,8 +51513,11 @@
       <c r="I2">
         <v>0.95</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J2" s="38">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -51197,8 +51545,11 @@
       <c r="I3">
         <v>0.95</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J3" s="38">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -51226,8 +51577,11 @@
       <c r="I4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J4" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -51255,8 +51609,11 @@
       <c r="I5">
         <v>1.05</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J5" s="38">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -51284,8 +51641,11 @@
       <c r="I6">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J6" s="38">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>400</v>
       </c>
@@ -51311,6 +51671,9 @@
         <v>1</v>
       </c>
       <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7" s="38">
         <v>1</v>
       </c>
     </row>
@@ -51322,10 +51685,13 @@
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
-  <dimension ref="A1:J2"/>
+  <sheetPr>
+    <tabColor theme="7"/>
+  </sheetPr>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="K1" sqref="K1:K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -51340,10 +51706,11 @@
     <col min="8" max="8" width="17.109375" customWidth="1"/>
     <col min="9" max="9" width="15.109375" customWidth="1"/>
     <col min="10" max="10" width="18" customWidth="1"/>
-    <col min="11" max="1025" width="8.88671875" customWidth="1"/>
+    <col min="11" max="11" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="1025" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>403</v>
       </c>
@@ -51374,8 +51741,11 @@
       <c r="J1" s="1" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K1" s="43" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>404</v>
       </c>
@@ -51405,6 +51775,9 @@
       </c>
       <c r="J2">
         <v>0</v>
+      </c>
+      <c r="K2" s="38">
+        <v>0.05</v>
       </c>
     </row>
   </sheetData>
@@ -51415,10 +51788,13 @@
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
+  <sheetPr>
+    <tabColor theme="7"/>
+  </sheetPr>
   <dimension ref="A1:C64"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50:B50"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B64" sqref="B64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -51653,323 +52029,327 @@
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="24" t="s">
+      <c r="A29" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="B29" s="25" t="s">
+      <c r="B29" s="24" t="s">
         <v>406</v>
       </c>
       <c r="C29" s="15"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="24" t="s">
+      <c r="A30" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="B30" s="25" t="s">
+      <c r="B30" s="24" t="s">
         <v>406</v>
       </c>
       <c r="C30" s="15"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="24" t="s">
+      <c r="A31" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="B31" s="25" t="s">
+      <c r="B31" s="24" t="s">
         <v>406</v>
       </c>
       <c r="C31" s="15"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="24" t="s">
+      <c r="A32" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="B32" s="25" t="s">
+      <c r="B32" s="24" t="s">
         <v>408</v>
       </c>
       <c r="C32" s="15"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="24" t="s">
+      <c r="A33" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="B33" s="25" t="s">
+      <c r="B33" s="24" t="s">
         <v>408</v>
       </c>
       <c r="C33" s="15"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="24" t="s">
+      <c r="A34" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="B34" s="25" t="s">
+      <c r="B34" s="24" t="s">
         <v>408</v>
       </c>
       <c r="C34" s="15"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="24" t="s">
+      <c r="A35" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="B35" s="25" t="s">
+      <c r="B35" s="24" t="s">
         <v>408</v>
       </c>
       <c r="C35" s="15"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="24" t="s">
+      <c r="A36" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="B36" s="25" t="s">
+      <c r="B36" s="24" t="s">
         <v>408</v>
       </c>
       <c r="C36" s="15"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="24" t="s">
+      <c r="A37" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="B37" s="25" t="s">
+      <c r="B37" s="24" t="s">
         <v>408</v>
       </c>
       <c r="C37" s="15"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="24" t="s">
+      <c r="A38" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="B38" s="25" t="s">
+      <c r="B38" s="24" t="s">
         <v>408</v>
       </c>
       <c r="C38" s="15"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="24" t="s">
+      <c r="A39" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="B39" s="25" t="s">
+      <c r="B39" s="24" t="s">
         <v>407</v>
       </c>
       <c r="C39" s="15"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="24" t="s">
+      <c r="A40" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="B40" s="25" t="s">
+      <c r="B40" s="24" t="s">
         <v>406</v>
       </c>
       <c r="C40" s="15"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="24" t="s">
+      <c r="A41" s="23" t="s">
         <v>376</v>
       </c>
-      <c r="B41" s="25" t="s">
+      <c r="B41" s="24" t="s">
         <v>407</v>
       </c>
       <c r="C41" s="15"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="24" t="s">
+      <c r="A42" s="23" t="s">
         <v>377</v>
       </c>
-      <c r="B42" s="25" t="s">
+      <c r="B42" s="24" t="s">
         <v>406</v>
       </c>
       <c r="C42" s="15"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="24" t="s">
+      <c r="A43" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="B43" s="25" t="s">
+      <c r="B43" s="24" t="s">
         <v>407</v>
       </c>
       <c r="C43" s="15"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="24" t="s">
+      <c r="A44" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="B44" s="25" t="s">
+      <c r="B44" s="24" t="s">
         <v>407</v>
       </c>
       <c r="C44" s="15"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="24" t="s">
+      <c r="A45" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="B45" s="25" t="s">
+      <c r="B45" s="24" t="s">
         <v>407</v>
       </c>
       <c r="C45" s="15"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="24" t="s">
+      <c r="A46" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="B46" s="25" t="s">
+      <c r="B46" s="24" t="s">
         <v>406</v>
       </c>
       <c r="C46" s="15"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="24" t="s">
+      <c r="A47" s="23" t="s">
         <v>378</v>
       </c>
-      <c r="B47" s="25" t="s">
+      <c r="B47" s="24" t="s">
         <v>407</v>
       </c>
       <c r="C47" s="15"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" s="24" t="s">
+      <c r="A48" s="23" t="s">
         <v>379</v>
       </c>
-      <c r="B48" s="25" t="s">
+      <c r="B48" s="24" t="s">
         <v>406</v>
       </c>
       <c r="C48" s="15"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" s="24" t="s">
+      <c r="A49" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="B49" s="25" t="s">
+      <c r="B49" s="24" t="s">
         <v>406</v>
       </c>
       <c r="C49" s="15"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" s="37" t="s">
+      <c r="A50" s="36" t="s">
         <v>1020</v>
       </c>
-      <c r="B50" s="38" t="s">
+      <c r="B50" s="37" t="s">
         <v>406</v>
       </c>
       <c r="C50" s="15"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" s="24" t="s">
+      <c r="A51" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="B51" s="25" t="s">
+      <c r="B51" s="24" t="s">
         <v>406</v>
       </c>
       <c r="C51" s="15"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" s="24" t="s">
+      <c r="A52" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="B52" s="25" t="s">
+      <c r="B52" s="24" t="s">
         <v>406</v>
       </c>
       <c r="C52" s="15"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" s="24" t="s">
+      <c r="A53" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="B53" s="25" t="s">
+      <c r="B53" s="24" t="s">
         <v>406</v>
       </c>
       <c r="C53" s="15"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" s="24" t="s">
+      <c r="A54" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="B54" s="25" t="s">
+      <c r="B54" s="24" t="s">
         <v>406</v>
       </c>
       <c r="C54" s="15"/>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55" s="24" t="s">
+      <c r="A55" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="B55" s="25" t="s">
+      <c r="B55" s="24" t="s">
         <v>408</v>
       </c>
       <c r="C55" s="15"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56" s="24" t="s">
+      <c r="A56" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="B56" s="25" t="s">
+      <c r="B56" s="24" t="s">
         <v>408</v>
       </c>
       <c r="C56" s="15"/>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" s="24" t="s">
+      <c r="A57" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="B57" s="25" t="s">
+      <c r="B57" s="24" t="s">
         <v>408</v>
       </c>
       <c r="C57" s="15"/>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58" s="24" t="s">
+      <c r="A58" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="B58" s="25" t="s">
+      <c r="B58" s="24" t="s">
         <v>408</v>
       </c>
       <c r="C58" s="15"/>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59" s="24" t="s">
+      <c r="A59" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="B59" s="25" t="s">
+      <c r="B59" s="24" t="s">
         <v>407</v>
       </c>
       <c r="C59" s="15"/>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60" s="24" t="s">
+      <c r="A60" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="B60" s="25" t="s">
+      <c r="B60" s="24" t="s">
         <v>406</v>
       </c>
       <c r="C60" s="15"/>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61" s="24" t="s">
+      <c r="A61" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="B61" s="25" t="s">
+      <c r="B61" s="24" t="s">
         <v>407</v>
       </c>
       <c r="C61" s="15"/>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A62" s="24" t="s">
+      <c r="A62" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="B62" s="25" t="s">
+      <c r="B62" s="24" t="s">
         <v>406</v>
       </c>
       <c r="C62" s="15"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A63" s="24" t="s">
+      <c r="A63" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="B63" s="25" t="s">
+      <c r="B63" s="24" t="s">
         <v>406</v>
       </c>
       <c r="C63" s="15"/>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A64" s="15"/>
-      <c r="B64" s="16"/>
+      <c r="A64" s="38" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B64" s="45" t="s">
+        <v>407</v>
+      </c>
       <c r="C64" s="15"/>
     </row>
   </sheetData>
@@ -52129,11 +52509,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B44"/>
+  <dimension ref="A1:B43"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
-    </sheetView>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -52484,14 +52862,6 @@
       </c>
       <c r="B43" t="s">
         <v>141</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" s="39" t="s">
-        <v>1065</v>
-      </c>
-      <c r="B44" s="39" t="s">
-        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -57370,7 +57740,7 @@
       <c r="A1" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="20" t="s">
         <v>856</v>
       </c>
     </row>
@@ -58660,10 +59030,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="20" t="s">
         <v>164</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="20" t="s">
         <v>857</v>
       </c>
     </row>
@@ -58671,7 +59041,7 @@
       <c r="A2" t="s">
         <v>165</v>
       </c>
-      <c r="B2" s="22">
+      <c r="B2" s="21">
         <v>0.7</v>
       </c>
     </row>
@@ -58679,7 +59049,7 @@
       <c r="A3" t="s">
         <v>167</v>
       </c>
-      <c r="B3" s="22">
+      <c r="B3" s="21">
         <v>1</v>
       </c>
     </row>
@@ -58687,7 +59057,7 @@
       <c r="A4" t="s">
         <v>168</v>
       </c>
-      <c r="B4" s="22">
+      <c r="B4" s="21">
         <v>1.5</v>
       </c>
     </row>
@@ -58695,7 +59065,7 @@
       <c r="A5" t="s">
         <v>169</v>
       </c>
-      <c r="B5" s="22">
+      <c r="B5" s="21">
         <v>2.5</v>
       </c>
     </row>
@@ -60187,10 +60557,13 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <sheetPr>
+    <tabColor theme="7"/>
+  </sheetPr>
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C15" sqref="B15:C15"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -60356,13 +60729,13 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="39" t="s">
-        <v>1065</v>
-      </c>
-      <c r="B15" s="39" t="s">
+      <c r="A15" s="38" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B15" s="38" t="s">
         <v>174</v>
       </c>
-      <c r="C15" s="39" t="s">
+      <c r="C15" s="38" t="s">
         <v>177</v>
       </c>
     </row>

--- a/data-raw/excel-spreadsheets/table_data.xlsx
+++ b/data-raw/excel-spreadsheets/table_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\CNAIM\data-raw\excel-spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5EEBAD4-85F2-4D64-8882-10E4AF561EE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF0C1FC4-990B-47D4-917B-4FEC2CE89130}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="870" activeTab="26" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="870" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -3555,12 +3555,6 @@
     <t>Alternador</t>
   </si>
   <si>
-    <t>1. Cubierta de acero, 2. Condición de los rodamientos, 3. Condición del sistema de combustible, 4. Condición del sistema de enfriamiento, 5. Condición del sistema de lubricación, 6. Condición del sistema de inducción de aire, 7. Condición de las culatas de cilíndros, 8. Condición del filtro</t>
-  </si>
-  <si>
-    <t>1. Envolvente, 2. Condición del aislamiento, 3. Condición de los cables y de la caja de terminales, 4. Condición del rotor, 5. Condición del estator</t>
-  </si>
-  <si>
     <t>1. Rendimiento, 2. RPM, 3. Consumo, 4. Freno</t>
   </si>
   <si>
@@ -3589,6 +3583,12 @@
   </si>
   <si>
     <t>Transformador 13.2kV (GM)</t>
+  </si>
+  <si>
+    <t>1. Cubierta de acero, 2. Rodamientos, 3. Sistema de combustible, 4. Sistema de enfriamiento, 5. Sistema de lubricación, 6. Sistema de inducción de aire, 7.Culatas de cilíndros, 8. Filtro</t>
+  </si>
+  <si>
+    <t>1. Cubierta, 2. Aislamiento, 3. Cables y de la caja de terminales, 4. Rotor, 5. Estator</t>
   </si>
 </sst>
 </file>
@@ -4457,7 +4457,7 @@
         <v>26</v>
       </c>
       <c r="B22" s="46" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -8089,8 +8089,8 @@
   </sheetPr>
   <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35:B36"/>
+    <sheetView tabSelected="1" topLeftCell="B28" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8483,7 +8483,7 @@
         <v>1067</v>
       </c>
       <c r="C35" s="38" t="s">
-        <v>1069</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
@@ -8494,7 +8494,7 @@
         <v>1068</v>
       </c>
       <c r="C36" s="38" t="s">
-        <v>1070</v>
+        <v>1080</v>
       </c>
     </row>
   </sheetData>
@@ -11882,7 +11882,7 @@
         <v>1067</v>
       </c>
       <c r="C35" s="38" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
@@ -11893,7 +11893,7 @@
         <v>1068</v>
       </c>
       <c r="C36" s="38" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
     </row>
   </sheetData>
@@ -20793,22 +20793,22 @@
         <v>1066</v>
       </c>
       <c r="B19" s="38" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C19" s="38" t="s">
+        <v>1072</v>
+      </c>
+      <c r="D19" s="38" t="s">
         <v>1073</v>
       </c>
-      <c r="C19" s="38" t="s">
+      <c r="E19" s="38" t="s">
         <v>1074</v>
       </c>
-      <c r="D19" s="38" t="s">
+      <c r="F19" s="38" t="s">
         <v>1075</v>
       </c>
-      <c r="E19" s="38" t="s">
+      <c r="G19" s="38" t="s">
         <v>1076</v>
-      </c>
-      <c r="F19" s="38" t="s">
-        <v>1077</v>
-      </c>
-      <c r="G19" s="38" t="s">
-        <v>1078</v>
       </c>
     </row>
   </sheetData>
@@ -51941,8 +51941,8 @@
   </sheetPr>
   <dimension ref="A1:C64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B64" sqref="B64"/>
+    <sheetView topLeftCell="A52" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A64" sqref="A64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -52502,7 +52502,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -53804,7 +53804,7 @@
         <v>50</v>
       </c>
       <c r="C2" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -53818,7 +53818,7 @@
         <v>70</v>
       </c>
       <c r="C3" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="D3">
         <v>1.05</v>
@@ -53832,7 +53832,7 @@
         <v>100</v>
       </c>
       <c r="C4" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="D4">
         <v>1.1000000000000001</v>
@@ -53844,7 +53844,7 @@
       </c>
       <c r="B5" s="5"/>
       <c r="C5" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="D5">
         <v>1.4</v>
@@ -53858,7 +53858,7 @@
         <v>400</v>
       </c>
       <c r="C6" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="D6">
         <v>1</v>

--- a/data-raw/excel-spreadsheets/table_data.xlsx
+++ b/data-raw/excel-spreadsheets/table_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\CNAIM\data-raw\excel-spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF0C1FC4-990B-47D4-917B-4FEC2CE89130}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9DE0A12-364C-4744-B37E-ABF1C095FD67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="870" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="870" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -259,6 +259,7 @@
     <sheet name="241" sheetId="254" r:id="rId244"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -3555,12 +3556,6 @@
     <t>Alternador</t>
   </si>
   <si>
-    <t>1. Rendimiento, 2. RPM, 3. Consumo, 4. Freno</t>
-  </si>
-  <si>
-    <t>1. Resistencia de aislamiento, 2. Descarga parcial, 3. Secuencia de fases, 4. Vibraciones, 5. Pérdidas, 6. Temperatura del arrollamiento, 7. Xd, Xq, X0, X1, X2, 8. Factor de potencia</t>
-  </si>
-  <si>
     <t>Garantizar el suministro eléctrico como fuente de generación principal, soportando carga continua y variaciones de demanda.</t>
   </si>
   <si>
@@ -3585,10 +3580,16 @@
     <t>Transformador 13.2kV (GM)</t>
   </si>
   <si>
-    <t>1. Cubierta de acero, 2. Rodamientos, 3. Sistema de combustible, 4. Sistema de enfriamiento, 5. Sistema de lubricación, 6. Sistema de inducción de aire, 7.Culatas de cilíndros, 8. Filtro</t>
-  </si>
-  <si>
     <t>1. Cubierta, 2. Aislamiento, 3. Cables y de la caja de terminales, 4. Rotor, 5. Estator</t>
+  </si>
+  <si>
+    <t>1. Cubierta de acero, 2. Rodamientos, 3. Sistema de combustible, 4. Sistema de enfriamiento, 5. Sistema de lubricación, 6. Sistema de inducción de aire, 7. Turbocompresores, 8.Culatas de cilíndros, 9. Filtro</t>
+  </si>
+  <si>
+    <t>1. Rendimiento, 2. Velocidad RPM, 3. Consumo, 4. Freno</t>
+  </si>
+  <si>
+    <t>1. Resistencia de aislamiento, 2. Descargas parciales, 3. Secuencia de fases, 4. Vibraciones, 5. Pérdidas, 6. Temperatura del arrollamiento</t>
   </si>
 </sst>
 </file>
@@ -4457,7 +4458,7 @@
         <v>26</v>
       </c>
       <c r="B22" s="46" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -8089,8 +8090,8 @@
   </sheetPr>
   <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B28" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView topLeftCell="A25" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8483,7 +8484,7 @@
         <v>1067</v>
       </c>
       <c r="C35" s="38" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
@@ -8494,7 +8495,7 @@
         <v>1068</v>
       </c>
       <c r="C36" s="38" t="s">
-        <v>1080</v>
+        <v>1077</v>
       </c>
     </row>
   </sheetData>
@@ -9655,7 +9656,7 @@
   </sheetPr>
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="A35" sqref="A35:B36"/>
     </sheetView>
   </sheetViews>
@@ -11488,8 +11489,8 @@
   </sheetPr>
   <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B35" sqref="A35:B36"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11882,7 +11883,7 @@
         <v>1067</v>
       </c>
       <c r="C35" s="38" t="s">
-        <v>1069</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
@@ -11893,7 +11894,7 @@
         <v>1068</v>
       </c>
       <c r="C36" s="38" t="s">
-        <v>1070</v>
+        <v>1080</v>
       </c>
     </row>
   </sheetData>
@@ -13087,7 +13088,7 @@
   </sheetPr>
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
@@ -20793,22 +20794,22 @@
         <v>1066</v>
       </c>
       <c r="B19" s="38" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C19" s="38" t="s">
+        <v>1070</v>
+      </c>
+      <c r="D19" s="38" t="s">
         <v>1071</v>
       </c>
-      <c r="C19" s="38" t="s">
+      <c r="E19" s="38" t="s">
         <v>1072</v>
       </c>
-      <c r="D19" s="38" t="s">
+      <c r="F19" s="38" t="s">
         <v>1073</v>
       </c>
-      <c r="E19" s="38" t="s">
+      <c r="G19" s="38" t="s">
         <v>1074</v>
-      </c>
-      <c r="F19" s="38" t="s">
-        <v>1075</v>
-      </c>
-      <c r="G19" s="38" t="s">
-        <v>1076</v>
       </c>
     </row>
   </sheetData>
@@ -53804,7 +53805,7 @@
         <v>50</v>
       </c>
       <c r="C2" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -53818,7 +53819,7 @@
         <v>70</v>
       </c>
       <c r="C3" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="D3">
         <v>1.05</v>
@@ -53832,7 +53833,7 @@
         <v>100</v>
       </c>
       <c r="C4" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="D4">
         <v>1.1000000000000001</v>
@@ -53844,7 +53845,7 @@
       </c>
       <c r="B5" s="5"/>
       <c r="C5" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="D5">
         <v>1.4</v>
@@ -53858,7 +53859,7 @@
         <v>400</v>
       </c>
       <c r="C6" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="D6">
         <v>1</v>

--- a/data-raw/excel-spreadsheets/table_data.xlsx
+++ b/data-raw/excel-spreadsheets/table_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\CNAIM\data-raw\excel-spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9DE0A12-364C-4744-B37E-ABF1C095FD67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBB1C978-044D-4DFE-8F90-F64B8C4289B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="870" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -259,7 +259,6 @@
     <sheet name="241" sheetId="254" r:id="rId244"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -11489,8 +11488,8 @@
   </sheetPr>
   <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/data-raw/excel-spreadsheets/table_data.xlsx
+++ b/data-raw/excel-spreadsheets/table_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\CNAIM\data-raw\excel-spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B8EB020-1A6B-4BEE-AE58-A9037989D0E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29256C1F-6A77-4E3B-8C09-69228F937CD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="870" firstSheet="211" activeTab="219" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="870" firstSheet="208" activeTab="219" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>

--- a/data-raw/excel-spreadsheets/table_data.xlsx
+++ b/data-raw/excel-spreadsheets/table_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\CNAIM\data-raw\excel-spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29256C1F-6A77-4E3B-8C09-69228F937CD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FF7453C-07F1-4DB5-A075-16F1D6466A22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="870" firstSheet="208" activeTab="219" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="870" activeTab="26" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -302,7 +302,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6615" uniqueCount="1111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6625" uniqueCount="1113">
   <si>
     <t>Health Index Asset Category</t>
   </si>
@@ -3703,6 +3703,12 @@
   </si>
   <si>
     <t>Criterios de Condición: Temperatura</t>
+  </si>
+  <si>
+    <t>1. Condición externa del transformador, 2. Condición de las cajas de cables</t>
+  </si>
+  <si>
+    <t>1. Descargas parciales, 2. Lecturas de temperatura</t>
   </si>
 </sst>
 </file>
@@ -3843,13 +3849,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3926,7 +3932,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4005,10 +4011,13 @@
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4396,8 +4405,8 @@
   </sheetPr>
   <dimension ref="A1:B65"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A65" sqref="A65"/>
+    <sheetView topLeftCell="A16" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4576,10 +4585,10 @@
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="46" t="s">
+      <c r="A22" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="46" t="s">
+      <c r="B22" s="49" t="s">
         <v>1076</v>
       </c>
     </row>
@@ -8210,10 +8219,10 @@
   <sheetPr>
     <tabColor theme="7"/>
   </sheetPr>
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView topLeftCell="B7" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8335,14 +8344,14 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>209</v>
-      </c>
-      <c r="B11" t="s">
-        <v>210</v>
-      </c>
-      <c r="C11" t="s">
-        <v>211</v>
+      <c r="A11" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="49" t="s">
+        <v>177</v>
+      </c>
+      <c r="C11" s="49" t="s">
+        <v>1111</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -8350,21 +8359,21 @@
         <v>209</v>
       </c>
       <c r="B12" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C12" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>83</v>
+        <v>209</v>
       </c>
       <c r="B13" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C13" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -8372,37 +8381,37 @@
         <v>83</v>
       </c>
       <c r="B14" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C14" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>214</v>
+        <v>83</v>
       </c>
       <c r="B15" t="s">
-        <v>177</v>
+        <v>212</v>
       </c>
       <c r="C15" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B16" t="s">
         <v>177</v>
       </c>
       <c r="C16" t="s">
-        <v>862</v>
+        <v>215</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B17" t="s">
         <v>177</v>
@@ -8413,29 +8422,29 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B18" t="s">
         <v>177</v>
       </c>
       <c r="C18" t="s">
-        <v>215</v>
+        <v>862</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B19" t="s">
         <v>177</v>
       </c>
       <c r="C19" t="s">
-        <v>862</v>
+        <v>215</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B20" t="s">
         <v>177</v>
@@ -8446,29 +8455,29 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B21" t="s">
         <v>177</v>
       </c>
       <c r="C21" t="s">
-        <v>222</v>
+        <v>862</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>3</v>
+        <v>221</v>
       </c>
       <c r="B22" t="s">
         <v>177</v>
       </c>
       <c r="C22" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>224</v>
+        <v>3</v>
       </c>
       <c r="B23" t="s">
         <v>177</v>
@@ -8479,7 +8488,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B24" t="s">
         <v>177</v>
@@ -8490,13 +8499,13 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B25" t="s">
-        <v>227</v>
+        <v>177</v>
       </c>
       <c r="C25" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -8504,10 +8513,10 @@
         <v>226</v>
       </c>
       <c r="B26" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C26" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -8515,21 +8524,21 @@
         <v>226</v>
       </c>
       <c r="B27" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C27" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="B28" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="C28" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -8537,10 +8546,10 @@
         <v>233</v>
       </c>
       <c r="B29" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C29" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -8548,26 +8557,26 @@
         <v>233</v>
       </c>
       <c r="B30" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C30" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B31" t="s">
-        <v>177</v>
+        <v>231</v>
       </c>
       <c r="C31" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>69</v>
+        <v>234</v>
       </c>
       <c r="B32" t="s">
         <v>177</v>
@@ -8578,18 +8587,18 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>236</v>
+        <v>69</v>
       </c>
       <c r="B33" t="s">
         <v>177</v>
       </c>
       <c r="C33" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B34" t="s">
         <v>177</v>
@@ -8599,14 +8608,14 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="38" t="s">
-        <v>1066</v>
-      </c>
-      <c r="B35" s="38" t="s">
-        <v>1067</v>
-      </c>
-      <c r="C35" s="38" t="s">
-        <v>1078</v>
+      <c r="A35" t="s">
+        <v>238</v>
+      </c>
+      <c r="B35" t="s">
+        <v>177</v>
+      </c>
+      <c r="C35" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
@@ -8614,9 +8623,20 @@
         <v>1066</v>
       </c>
       <c r="B36" s="38" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C36" s="38" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="38" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B37" s="38" t="s">
         <v>1068</v>
       </c>
-      <c r="C36" s="38" t="s">
+      <c r="C37" s="38" t="s">
         <v>1077</v>
       </c>
     </row>
@@ -9778,7 +9798,7 @@
   </sheetPr>
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView topLeftCell="A22" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="A35" sqref="A35:B36"/>
     </sheetView>
   </sheetViews>
@@ -11634,10 +11654,10 @@
   <sheetPr>
     <tabColor theme="7"/>
   </sheetPr>
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView topLeftCell="A4" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11759,14 +11779,14 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>209</v>
-      </c>
-      <c r="B11" t="s">
-        <v>210</v>
-      </c>
-      <c r="C11" t="s">
-        <v>246</v>
+      <c r="A11" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="49" t="s">
+        <v>177</v>
+      </c>
+      <c r="C11" s="49" t="s">
+        <v>1112</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -11774,21 +11794,21 @@
         <v>209</v>
       </c>
       <c r="B12" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>82</v>
+        <v>209</v>
       </c>
       <c r="B13" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C13" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -11796,37 +11816,37 @@
         <v>82</v>
       </c>
       <c r="B14" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C14" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>214</v>
+        <v>82</v>
       </c>
       <c r="B15" t="s">
-        <v>177</v>
+        <v>212</v>
       </c>
       <c r="C15" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B16" t="s">
         <v>177</v>
       </c>
       <c r="C16" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B17" t="s">
         <v>177</v>
@@ -11837,29 +11857,29 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B18" t="s">
         <v>177</v>
       </c>
       <c r="C18" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B19" t="s">
         <v>177</v>
       </c>
       <c r="C19" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B20" t="s">
         <v>177</v>
@@ -11870,29 +11890,29 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B21" t="s">
         <v>177</v>
       </c>
       <c r="C21" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>3</v>
+        <v>221</v>
       </c>
       <c r="B22" t="s">
         <v>177</v>
       </c>
       <c r="C22" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>224</v>
+        <v>3</v>
       </c>
       <c r="B23" t="s">
         <v>177</v>
@@ -11903,7 +11923,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B24" t="s">
         <v>177</v>
@@ -11914,13 +11934,13 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B25" t="s">
-        <v>227</v>
+        <v>177</v>
       </c>
       <c r="C25" t="s">
-        <v>215</v>
+        <v>251</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -11928,7 +11948,7 @@
         <v>226</v>
       </c>
       <c r="B26" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C26" t="s">
         <v>215</v>
@@ -11939,7 +11959,7 @@
         <v>226</v>
       </c>
       <c r="B27" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C27" t="s">
         <v>215</v>
@@ -11947,10 +11967,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="B28" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="C28" t="s">
         <v>215</v>
@@ -11961,7 +11981,7 @@
         <v>233</v>
       </c>
       <c r="B29" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C29" t="s">
         <v>215</v>
@@ -11972,7 +11992,7 @@
         <v>233</v>
       </c>
       <c r="B30" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C30" t="s">
         <v>215</v>
@@ -11980,18 +12000,18 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B31" t="s">
-        <v>177</v>
+        <v>231</v>
       </c>
       <c r="C31" t="s">
-        <v>252</v>
+        <v>215</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>69</v>
+        <v>234</v>
       </c>
       <c r="B32" t="s">
         <v>177</v>
@@ -12002,18 +12022,18 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>236</v>
+        <v>69</v>
       </c>
       <c r="B33" t="s">
         <v>177</v>
       </c>
       <c r="C33" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B34" t="s">
         <v>177</v>
@@ -12023,14 +12043,14 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="38" t="s">
-        <v>1066</v>
-      </c>
-      <c r="B35" s="38" t="s">
-        <v>1067</v>
-      </c>
-      <c r="C35" s="38" t="s">
-        <v>1079</v>
+      <c r="A35" t="s">
+        <v>238</v>
+      </c>
+      <c r="B35" t="s">
+        <v>177</v>
+      </c>
+      <c r="C35" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
@@ -12038,9 +12058,20 @@
         <v>1066</v>
       </c>
       <c r="B36" s="38" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C36" s="38" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="38" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B37" s="38" t="s">
         <v>1068</v>
       </c>
-      <c r="C36" s="38" t="s">
+      <c r="C37" s="38" t="s">
         <v>1080</v>
       </c>
     </row>
@@ -13137,8 +13168,8 @@
   </sheetPr>
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView topLeftCell="A10" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14894,10 +14925,10 @@
   <sheetPr>
     <tabColor theme="7"/>
   </sheetPr>
-  <dimension ref="A1:F64"/>
+  <dimension ref="A1:F65"/>
   <sheetViews>
     <sheetView topLeftCell="A49" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B64" sqref="B64"/>
+      <selection activeCell="A59" sqref="A59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16072,122 +16103,142 @@
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>28</v>
-      </c>
-      <c r="B59">
-        <v>10585</v>
-      </c>
-      <c r="C59">
+      <c r="A59" s="49" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B59" s="49">
+        <v>9297</v>
+      </c>
+      <c r="C59" s="49">
         <v>4823</v>
       </c>
-      <c r="D59">
+      <c r="D59" s="49">
         <v>3809</v>
       </c>
-      <c r="E59">
+      <c r="E59" s="49">
         <v>4343</v>
       </c>
-      <c r="F59">
-        <v>23560</v>
+      <c r="F59" s="49">
+        <v>22271</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
+        <v>28</v>
+      </c>
+      <c r="B60">
+        <v>10585</v>
+      </c>
+      <c r="C60">
+        <v>4823</v>
+      </c>
+      <c r="D60">
+        <v>3809</v>
+      </c>
+      <c r="E60">
+        <v>4343</v>
+      </c>
+      <c r="F60">
+        <v>23560</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
         <v>66</v>
       </c>
-      <c r="B60" s="41">
+      <c r="B61" s="41">
         <v>134796</v>
       </c>
-      <c r="C60">
+      <c r="C61">
         <v>23502</v>
       </c>
-      <c r="D60">
+      <c r="D61">
         <v>17048</v>
       </c>
-      <c r="E60">
+      <c r="E61">
         <v>28940</v>
       </c>
-      <c r="F60">
+      <c r="F61">
         <v>157188</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A61" s="25" t="s">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62" s="25" t="s">
         <v>1020</v>
       </c>
-      <c r="B61" s="40">
+      <c r="B62" s="40">
         <v>134796</v>
       </c>
-      <c r="C61" s="25">
+      <c r="C62" s="25">
         <v>23502</v>
       </c>
-      <c r="D61" s="25">
+      <c r="D62" s="25">
         <v>17048</v>
       </c>
-      <c r="E61" s="25">
+      <c r="E62" s="25">
         <v>28940</v>
       </c>
-      <c r="F61" s="25">
+      <c r="F62" s="25">
         <v>157188</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>67</v>
-      </c>
-      <c r="B62">
-        <v>263015</v>
-      </c>
-      <c r="C62">
-        <v>23502</v>
-      </c>
-      <c r="D62">
-        <v>17048</v>
-      </c>
-      <c r="E62">
-        <v>28940</v>
-      </c>
-      <c r="F62">
-        <v>204285</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
+        <v>67</v>
+      </c>
+      <c r="B63">
+        <v>263015</v>
+      </c>
+      <c r="C63">
+        <v>23502</v>
+      </c>
+      <c r="D63">
+        <v>17048</v>
+      </c>
+      <c r="E63">
+        <v>28940</v>
+      </c>
+      <c r="F63">
+        <v>204285</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
         <v>83</v>
       </c>
-      <c r="B63">
+      <c r="B64">
         <v>218932</v>
       </c>
-      <c r="C63">
+      <c r="C64">
         <v>36171</v>
       </c>
-      <c r="D63">
+      <c r="D64">
         <v>35095</v>
       </c>
-      <c r="E63">
+      <c r="E64">
         <v>230441</v>
       </c>
-      <c r="F63">
+      <c r="F64">
         <v>564721</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A64" s="38" t="s">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65" s="38" t="s">
         <v>1064</v>
       </c>
-      <c r="B64" s="38">
+      <c r="B65" s="38">
         <v>87698</v>
       </c>
-      <c r="C64" s="38">
+      <c r="C65" s="38">
         <v>23502</v>
       </c>
-      <c r="D64" s="38">
+      <c r="D65" s="38">
         <v>17048</v>
       </c>
-      <c r="E64" s="38">
+      <c r="E65" s="38">
         <v>28940</v>
       </c>
-      <c r="F64" s="38">
+      <c r="F65" s="38">
         <v>157188</v>
       </c>
     </row>
@@ -19962,8 +20013,8 @@
   </sheetPr>
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:C27"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -21985,10 +22036,10 @@
   <sheetPr>
     <tabColor theme="7"/>
   </sheetPr>
-  <dimension ref="A1:C147"/>
+  <dimension ref="A1:C148"/>
   <sheetViews>
-    <sheetView topLeftCell="A136" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A147" sqref="A147"/>
+    <sheetView topLeftCell="A70" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -22320,19 +22371,17 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>28</v>
-      </c>
-      <c r="C35">
+      <c r="A35" s="49" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B35" s="49"/>
+      <c r="C35" s="49">
         <v>60</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>30</v>
-      </c>
-      <c r="B36" t="s">
-        <v>358</v>
+        <v>28</v>
       </c>
       <c r="C36">
         <v>60</v>
@@ -22343,10 +22392,10 @@
         <v>30</v>
       </c>
       <c r="B37" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C37">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
@@ -22354,10 +22403,10 @@
         <v>30</v>
       </c>
       <c r="B38" t="s">
-        <v>866</v>
+        <v>359</v>
       </c>
       <c r="C38">
-        <v>25</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
@@ -22365,10 +22414,10 @@
         <v>30</v>
       </c>
       <c r="B39" t="s">
-        <v>360</v>
+        <v>866</v>
       </c>
       <c r="C39">
-        <v>55</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
@@ -22376,21 +22425,21 @@
         <v>30</v>
       </c>
       <c r="B40" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C40">
-        <v>80</v>
+        <v>55</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B41" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="C41">
-        <v>60</v>
+        <v>80</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
@@ -22398,10 +22447,10 @@
         <v>31</v>
       </c>
       <c r="B42" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C42">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
@@ -22409,10 +22458,10 @@
         <v>31</v>
       </c>
       <c r="B43" t="s">
-        <v>866</v>
+        <v>359</v>
       </c>
       <c r="C43">
-        <v>25</v>
+        <v>50</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
@@ -22420,10 +22469,10 @@
         <v>31</v>
       </c>
       <c r="B44" t="s">
-        <v>360</v>
+        <v>866</v>
       </c>
       <c r="C44">
-        <v>55</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
@@ -22431,21 +22480,21 @@
         <v>31</v>
       </c>
       <c r="B45" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C45">
-        <v>80</v>
+        <v>55</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B46" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C46">
-        <v>55</v>
+        <v>80</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
@@ -22453,10 +22502,10 @@
         <v>36</v>
       </c>
       <c r="B47" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C47">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
@@ -22464,10 +22513,10 @@
         <v>36</v>
       </c>
       <c r="B48" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C48">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
@@ -22475,10 +22524,10 @@
         <v>36</v>
       </c>
       <c r="B49" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C49">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
@@ -22486,10 +22535,10 @@
         <v>36</v>
       </c>
       <c r="B50" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C50">
-        <v>70</v>
+        <v>50</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
@@ -22497,21 +22546,21 @@
         <v>36</v>
       </c>
       <c r="B51" t="s">
-        <v>141</v>
+        <v>366</v>
       </c>
       <c r="C51">
-        <v>50</v>
+        <v>70</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B52" t="s">
-        <v>367</v>
+        <v>141</v>
       </c>
       <c r="C52">
-        <v>80</v>
+        <v>50</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
@@ -22519,10 +22568,10 @@
         <v>39</v>
       </c>
       <c r="B53" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C53">
-        <v>95</v>
+        <v>80</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
@@ -22530,10 +22579,10 @@
         <v>39</v>
       </c>
       <c r="B54" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C54">
-        <v>60</v>
+        <v>95</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
@@ -22541,10 +22590,10 @@
         <v>39</v>
       </c>
       <c r="B55" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C55">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
@@ -22552,29 +22601,29 @@
         <v>39</v>
       </c>
       <c r="B56" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C56">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>33</v>
+        <v>39</v>
+      </c>
+      <c r="B57" t="s">
+        <v>371</v>
       </c>
       <c r="C57">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>37</v>
-      </c>
-      <c r="B58" t="s">
-        <v>362</v>
+        <v>33</v>
       </c>
       <c r="C58">
-        <v>55</v>
+        <v>40</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
@@ -22582,10 +22631,10 @@
         <v>37</v>
       </c>
       <c r="B59" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C59">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
@@ -22593,10 +22642,10 @@
         <v>37</v>
       </c>
       <c r="B60" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C60">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
@@ -22604,10 +22653,10 @@
         <v>37</v>
       </c>
       <c r="B61" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C61">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
@@ -22615,10 +22664,10 @@
         <v>37</v>
       </c>
       <c r="B62" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C62">
-        <v>70</v>
+        <v>50</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
@@ -22626,21 +22675,21 @@
         <v>37</v>
       </c>
       <c r="B63" t="s">
-        <v>141</v>
+        <v>366</v>
       </c>
       <c r="C63">
-        <v>50</v>
+        <v>70</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B64" t="s">
-        <v>367</v>
+        <v>141</v>
       </c>
       <c r="C64">
-        <v>80</v>
+        <v>50</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
@@ -22648,10 +22697,10 @@
         <v>40</v>
       </c>
       <c r="B65" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C65">
-        <v>95</v>
+        <v>80</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
@@ -22659,10 +22708,10 @@
         <v>40</v>
       </c>
       <c r="B66" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C66">
-        <v>60</v>
+        <v>95</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
@@ -22670,10 +22719,10 @@
         <v>40</v>
       </c>
       <c r="B67" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C67">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
@@ -22681,29 +22730,29 @@
         <v>40</v>
       </c>
       <c r="B68" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C68">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>34</v>
+        <v>40</v>
+      </c>
+      <c r="B69" t="s">
+        <v>371</v>
       </c>
       <c r="C69">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>45</v>
-      </c>
-      <c r="B70" t="s">
-        <v>372</v>
+        <v>34</v>
       </c>
       <c r="C70">
-        <v>100</v>
+        <v>40</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
@@ -22711,7 +22760,7 @@
         <v>45</v>
       </c>
       <c r="B71" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C71">
         <v>100</v>
@@ -22722,7 +22771,7 @@
         <v>45</v>
       </c>
       <c r="B72" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C72">
         <v>100</v>
@@ -22733,7 +22782,7 @@
         <v>45</v>
       </c>
       <c r="B73" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C73">
         <v>100</v>
@@ -22741,13 +22790,13 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B74" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="C74">
-        <v>75</v>
+        <v>100</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
@@ -22755,7 +22804,7 @@
         <v>48</v>
       </c>
       <c r="B75" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C75">
         <v>75</v>
@@ -22766,10 +22815,10 @@
         <v>48</v>
       </c>
       <c r="B76" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C76">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
@@ -22777,7 +22826,7 @@
         <v>48</v>
       </c>
       <c r="B77" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C77">
         <v>80</v>
@@ -22785,13 +22834,13 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B78" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="C78">
-        <v>65</v>
+        <v>80</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
@@ -22799,10 +22848,10 @@
         <v>42</v>
       </c>
       <c r="B79" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C79">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
@@ -22810,10 +22859,10 @@
         <v>42</v>
       </c>
       <c r="B80" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C80">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
@@ -22821,7 +22870,7 @@
         <v>42</v>
       </c>
       <c r="B81" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C81">
         <v>75</v>
@@ -22829,13 +22878,13 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B82" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="C82">
-        <v>100</v>
+        <v>75</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
@@ -22843,7 +22892,7 @@
         <v>46</v>
       </c>
       <c r="B83" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C83">
         <v>100</v>
@@ -22854,7 +22903,7 @@
         <v>46</v>
       </c>
       <c r="B84" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C84">
         <v>100</v>
@@ -22865,7 +22914,7 @@
         <v>46</v>
       </c>
       <c r="B85" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C85">
         <v>100</v>
@@ -22873,13 +22922,13 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B86" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="C86">
-        <v>75</v>
+        <v>100</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
@@ -22887,7 +22936,7 @@
         <v>49</v>
       </c>
       <c r="B87" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C87">
         <v>75</v>
@@ -22898,10 +22947,10 @@
         <v>49</v>
       </c>
       <c r="B88" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C88">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
@@ -22909,7 +22958,7 @@
         <v>49</v>
       </c>
       <c r="B89" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C89">
         <v>80</v>
@@ -22917,13 +22966,13 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B90" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="C90">
-        <v>65</v>
+        <v>80</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
@@ -22931,10 +22980,10 @@
         <v>43</v>
       </c>
       <c r="B91" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C91">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
@@ -22942,10 +22991,10 @@
         <v>43</v>
       </c>
       <c r="B92" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C92">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
@@ -22953,7 +23002,7 @@
         <v>43</v>
       </c>
       <c r="B93" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C93">
         <v>75</v>
@@ -22961,15 +23010,18 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>52</v>
+        <v>43</v>
+      </c>
+      <c r="B94" t="s">
+        <v>375</v>
       </c>
       <c r="C94">
-        <v>60</v>
+        <v>75</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C95">
         <v>60</v>
@@ -22977,39 +23029,39 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C96">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>376</v>
+        <v>56</v>
       </c>
       <c r="C97">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C98">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>60</v>
+        <v>377</v>
       </c>
       <c r="C99">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C100">
         <v>55</v>
@@ -23017,23 +23069,23 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C101">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C102">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>378</v>
+        <v>62</v>
       </c>
       <c r="C103">
         <v>55</v>
@@ -23041,21 +23093,18 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C104">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>66</v>
-      </c>
-      <c r="B105" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C105">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
@@ -23063,21 +23112,21 @@
         <v>66</v>
       </c>
       <c r="B106" t="s">
+        <v>380</v>
+      </c>
+      <c r="C106">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>66</v>
+      </c>
+      <c r="B107" t="s">
         <v>381</v>
       </c>
-      <c r="C106">
+      <c r="C107">
         <v>50</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A107" s="26" t="s">
-        <v>1020</v>
-      </c>
-      <c r="B107" s="25" t="s">
-        <v>380</v>
-      </c>
-      <c r="C107" s="25">
-        <v>60</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
@@ -23085,26 +23134,26 @@
         <v>1020</v>
       </c>
       <c r="B108" s="25" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C108" s="25">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" s="26" t="s">
         <v>1020</v>
       </c>
-      <c r="B109" t="s">
-        <v>212</v>
-      </c>
-      <c r="C109">
-        <v>60</v>
+      <c r="B109" s="25" t="s">
+        <v>381</v>
+      </c>
+      <c r="C109" s="25">
+        <v>50</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A110" t="s">
-        <v>66</v>
+      <c r="A110" s="26" t="s">
+        <v>1020</v>
       </c>
       <c r="B110" t="s">
         <v>212</v>
@@ -23115,10 +23164,10 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B111" t="s">
-        <v>380</v>
+        <v>212</v>
       </c>
       <c r="C111">
         <v>60</v>
@@ -23129,10 +23178,10 @@
         <v>67</v>
       </c>
       <c r="B112" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C112">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
@@ -23140,21 +23189,21 @@
         <v>67</v>
       </c>
       <c r="B113" t="s">
-        <v>212</v>
+        <v>381</v>
       </c>
       <c r="C113">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B114" t="s">
-        <v>362</v>
+        <v>212</v>
       </c>
       <c r="C114">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
@@ -23162,10 +23211,10 @@
         <v>71</v>
       </c>
       <c r="B115" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C115">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
@@ -23173,10 +23222,10 @@
         <v>71</v>
       </c>
       <c r="B116" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C116">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
@@ -23184,10 +23233,10 @@
         <v>71</v>
       </c>
       <c r="B117" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C117">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
@@ -23195,10 +23244,10 @@
         <v>71</v>
       </c>
       <c r="B118" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C118">
-        <v>70</v>
+        <v>50</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
@@ -23206,21 +23255,21 @@
         <v>71</v>
       </c>
       <c r="B119" t="s">
-        <v>141</v>
+        <v>366</v>
       </c>
       <c r="C119">
-        <v>50</v>
+        <v>70</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B120" t="s">
-        <v>367</v>
+        <v>141</v>
       </c>
       <c r="C120">
-        <v>80</v>
+        <v>50</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
@@ -23228,10 +23277,10 @@
         <v>73</v>
       </c>
       <c r="B121" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C121">
-        <v>95</v>
+        <v>80</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
@@ -23239,10 +23288,10 @@
         <v>73</v>
       </c>
       <c r="B122" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C122">
-        <v>60</v>
+        <v>95</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
@@ -23250,10 +23299,10 @@
         <v>73</v>
       </c>
       <c r="B123" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C123">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
@@ -23261,29 +23310,29 @@
         <v>73</v>
       </c>
       <c r="B124" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C124">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>69</v>
+        <v>73</v>
+      </c>
+      <c r="B125" t="s">
+        <v>371</v>
       </c>
       <c r="C125">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>75</v>
-      </c>
-      <c r="B126" t="s">
-        <v>372</v>
+        <v>69</v>
       </c>
       <c r="C126">
-        <v>100</v>
+        <v>40</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
@@ -23291,7 +23340,7 @@
         <v>75</v>
       </c>
       <c r="B127" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C127">
         <v>100</v>
@@ -23302,7 +23351,7 @@
         <v>75</v>
       </c>
       <c r="B128" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C128">
         <v>100</v>
@@ -23313,7 +23362,7 @@
         <v>75</v>
       </c>
       <c r="B129" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C129">
         <v>100</v>
@@ -23321,13 +23370,13 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B130" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="C130">
-        <v>75</v>
+        <v>100</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
@@ -23335,7 +23384,7 @@
         <v>76</v>
       </c>
       <c r="B131" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C131">
         <v>75</v>
@@ -23346,10 +23395,10 @@
         <v>76</v>
       </c>
       <c r="B132" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C132">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
@@ -23357,7 +23406,7 @@
         <v>76</v>
       </c>
       <c r="B133" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C133">
         <v>80</v>
@@ -23365,13 +23414,13 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B134" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="C134">
-        <v>65</v>
+        <v>80</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
@@ -23379,10 +23428,10 @@
         <v>74</v>
       </c>
       <c r="B135" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C135">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
@@ -23390,10 +23439,10 @@
         <v>74</v>
       </c>
       <c r="B136" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C136">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
@@ -23401,7 +23450,7 @@
         <v>74</v>
       </c>
       <c r="B137" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C137">
         <v>75</v>
@@ -23409,15 +23458,18 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>53</v>
+        <v>74</v>
+      </c>
+      <c r="B138" t="s">
+        <v>375</v>
       </c>
       <c r="C138">
-        <v>60</v>
+        <v>75</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="C139">
         <v>60</v>
@@ -23425,37 +23477,34 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C140">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C141">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C142">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>83</v>
-      </c>
-      <c r="B143" t="s">
-        <v>380</v>
+        <v>81</v>
       </c>
       <c r="C143">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
@@ -23463,10 +23512,10 @@
         <v>83</v>
       </c>
       <c r="B144" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C144">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
@@ -23474,21 +23523,21 @@
         <v>83</v>
       </c>
       <c r="B145" t="s">
+        <v>381</v>
+      </c>
+      <c r="C145">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>83</v>
+      </c>
+      <c r="B146" t="s">
         <v>212</v>
       </c>
-      <c r="C145">
+      <c r="C146">
         <v>60</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A146" s="38" t="s">
-        <v>1064</v>
-      </c>
-      <c r="B146" s="38" t="s">
-        <v>1067</v>
-      </c>
-      <c r="C146" s="38">
-        <v>20</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
@@ -23496,9 +23545,20 @@
         <v>1064</v>
       </c>
       <c r="B147" s="38" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C147" s="38">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A148" s="38" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B148" s="38" t="s">
         <v>1068</v>
       </c>
-      <c r="C147" s="38">
+      <c r="C148" s="38">
         <v>20</v>
       </c>
     </row>
@@ -24973,7 +25033,7 @@
   </sheetPr>
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -24986,79 +25046,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="46" t="s">
         <v>1087</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="46" t="s">
         <v>1081</v>
       </c>
-      <c r="C1" s="47" t="s">
+      <c r="C1" s="46" t="s">
         <v>1082</v>
       </c>
-      <c r="D1" s="47" t="s">
+      <c r="D1" s="46" t="s">
         <v>1083</v>
       </c>
-      <c r="E1" s="47" t="s">
+      <c r="E1" s="46" t="s">
         <v>1084</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="47" t="s">
         <v>1088</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48">
+      <c r="B2" s="47"/>
+      <c r="C2" s="47">
         <v>1</v>
       </c>
-      <c r="D2" s="48">
-        <v>10</v>
-      </c>
-      <c r="E2" s="48">
+      <c r="D2" s="47">
+        <v>10</v>
+      </c>
+      <c r="E2" s="47">
         <v>0.5</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="47" t="s">
         <v>1089</v>
       </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48">
+      <c r="B3" s="47"/>
+      <c r="C3" s="47">
         <v>1.3</v>
       </c>
-      <c r="D3" s="48">
-        <v>10</v>
-      </c>
-      <c r="E3" s="48">
+      <c r="D3" s="47">
+        <v>10</v>
+      </c>
+      <c r="E3" s="47">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="47" t="s">
         <v>1090</v>
       </c>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48">
+      <c r="B4" s="47"/>
+      <c r="C4" s="47">
         <v>1.6</v>
       </c>
-      <c r="D4" s="48">
-        <v>10</v>
-      </c>
-      <c r="E4" s="48">
+      <c r="D4" s="47">
+        <v>10</v>
+      </c>
+      <c r="E4" s="47">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="47" t="s">
         <v>400</v>
       </c>
-      <c r="B5" s="48"/>
-      <c r="C5" s="48">
+      <c r="B5" s="47"/>
+      <c r="C5" s="47">
         <v>1</v>
       </c>
-      <c r="D5" s="48">
-        <v>10</v>
-      </c>
-      <c r="E5" s="48">
+      <c r="D5" s="47">
+        <v>10</v>
+      </c>
+      <c r="E5" s="47">
         <v>0.5</v>
       </c>
     </row>
@@ -25090,79 +25150,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="46" t="s">
         <v>1102</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="46" t="s">
         <v>1081</v>
       </c>
-      <c r="C1" s="47" t="s">
+      <c r="C1" s="46" t="s">
         <v>1082</v>
       </c>
-      <c r="D1" s="47" t="s">
+      <c r="D1" s="46" t="s">
         <v>1083</v>
       </c>
-      <c r="E1" s="47" t="s">
+      <c r="E1" s="46" t="s">
         <v>1084</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="47" t="s">
         <v>1091</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48">
+      <c r="B2" s="47"/>
+      <c r="C2" s="47">
         <v>1</v>
       </c>
-      <c r="D2" s="48">
-        <v>10</v>
-      </c>
-      <c r="E2" s="48">
+      <c r="D2" s="47">
+        <v>10</v>
+      </c>
+      <c r="E2" s="47">
         <v>0.5</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="47" t="s">
         <v>1092</v>
       </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48">
+      <c r="B3" s="47"/>
+      <c r="C3" s="47">
         <v>1.3</v>
       </c>
-      <c r="D3" s="48">
-        <v>10</v>
-      </c>
-      <c r="E3" s="48">
+      <c r="D3" s="47">
+        <v>10</v>
+      </c>
+      <c r="E3" s="47">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="47" t="s">
         <v>1093</v>
       </c>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48">
+      <c r="B4" s="47"/>
+      <c r="C4" s="47">
         <v>1.6</v>
       </c>
-      <c r="D4" s="48">
-        <v>10</v>
-      </c>
-      <c r="E4" s="48">
+      <c r="D4" s="47">
+        <v>10</v>
+      </c>
+      <c r="E4" s="47">
         <v>5.5</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="47" t="s">
         <v>400</v>
       </c>
-      <c r="B5" s="48"/>
-      <c r="C5" s="48">
+      <c r="B5" s="47"/>
+      <c r="C5" s="47">
         <v>1</v>
       </c>
-      <c r="D5" s="48">
-        <v>10</v>
-      </c>
-      <c r="E5" s="48">
+      <c r="D5" s="47">
+        <v>10</v>
+      </c>
+      <c r="E5" s="47">
         <v>0.5</v>
       </c>
     </row>
@@ -25194,79 +25254,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="46" t="s">
         <v>1103</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="46" t="s">
         <v>1081</v>
       </c>
-      <c r="C1" s="47" t="s">
+      <c r="C1" s="46" t="s">
         <v>1082</v>
       </c>
-      <c r="D1" s="47" t="s">
+      <c r="D1" s="46" t="s">
         <v>1083</v>
       </c>
-      <c r="E1" s="47" t="s">
+      <c r="E1" s="46" t="s">
         <v>1084</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="47" t="s">
         <v>1088</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48">
+      <c r="B2" s="47"/>
+      <c r="C2" s="47">
         <v>1</v>
       </c>
-      <c r="D2" s="48">
-        <v>10</v>
-      </c>
-      <c r="E2" s="48">
+      <c r="D2" s="47">
+        <v>10</v>
+      </c>
+      <c r="E2" s="47">
         <v>0.5</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="47" t="s">
         <v>1094</v>
       </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48">
+      <c r="B3" s="47"/>
+      <c r="C3" s="47">
         <v>1.1000000000000001</v>
       </c>
-      <c r="D3" s="48">
-        <v>10</v>
-      </c>
-      <c r="E3" s="48">
+      <c r="D3" s="47">
+        <v>10</v>
+      </c>
+      <c r="E3" s="47">
         <v>0.5</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="47" t="s">
         <v>1095</v>
       </c>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48">
+      <c r="B4" s="47"/>
+      <c r="C4" s="47">
         <v>1.5</v>
       </c>
-      <c r="D4" s="48">
-        <v>10</v>
-      </c>
-      <c r="E4" s="48">
+      <c r="D4" s="47">
+        <v>10</v>
+      </c>
+      <c r="E4" s="47">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="47" t="s">
         <v>400</v>
       </c>
-      <c r="B5" s="48"/>
-      <c r="C5" s="48">
+      <c r="B5" s="47"/>
+      <c r="C5" s="47">
         <v>1</v>
       </c>
-      <c r="D5" s="48">
-        <v>10</v>
-      </c>
-      <c r="E5" s="48">
+      <c r="D5" s="47">
+        <v>10</v>
+      </c>
+      <c r="E5" s="47">
         <v>0.5</v>
       </c>
     </row>
@@ -25298,79 +25358,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="46" t="s">
         <v>1104</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="46" t="s">
         <v>1081</v>
       </c>
-      <c r="C1" s="47" t="s">
+      <c r="C1" s="46" t="s">
         <v>1082</v>
       </c>
-      <c r="D1" s="47" t="s">
+      <c r="D1" s="46" t="s">
         <v>1083</v>
       </c>
-      <c r="E1" s="47" t="s">
+      <c r="E1" s="46" t="s">
         <v>1084</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="47" t="s">
         <v>1096</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48">
+      <c r="B2" s="47"/>
+      <c r="C2" s="47">
         <v>1</v>
       </c>
-      <c r="D2" s="48">
-        <v>10</v>
-      </c>
-      <c r="E2" s="48">
+      <c r="D2" s="47">
+        <v>10</v>
+      </c>
+      <c r="E2" s="47">
         <v>0.5</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="47" t="s">
         <v>1097</v>
       </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48">
+      <c r="B3" s="47"/>
+      <c r="C3" s="47">
         <v>1.3</v>
       </c>
-      <c r="D3" s="48">
-        <v>10</v>
-      </c>
-      <c r="E3" s="48">
+      <c r="D3" s="47">
+        <v>10</v>
+      </c>
+      <c r="E3" s="47">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="47" t="s">
         <v>1098</v>
       </c>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48">
+      <c r="B4" s="47"/>
+      <c r="C4" s="47">
         <v>1.6</v>
       </c>
-      <c r="D4" s="48">
-        <v>10</v>
-      </c>
-      <c r="E4" s="48">
+      <c r="D4" s="47">
+        <v>10</v>
+      </c>
+      <c r="E4" s="47">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="47" t="s">
         <v>400</v>
       </c>
-      <c r="B5" s="48"/>
-      <c r="C5" s="48">
+      <c r="B5" s="47"/>
+      <c r="C5" s="47">
         <v>1</v>
       </c>
-      <c r="D5" s="48">
-        <v>10</v>
-      </c>
-      <c r="E5" s="48">
+      <c r="D5" s="47">
+        <v>10</v>
+      </c>
+      <c r="E5" s="47">
         <v>0.5</v>
       </c>
     </row>
@@ -25402,94 +25462,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="46" t="s">
         <v>1105</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="46" t="s">
         <v>1081</v>
       </c>
-      <c r="C1" s="47" t="s">
+      <c r="C1" s="46" t="s">
         <v>1082</v>
       </c>
-      <c r="D1" s="47" t="s">
+      <c r="D1" s="46" t="s">
         <v>1083</v>
       </c>
-      <c r="E1" s="47" t="s">
+      <c r="E1" s="46" t="s">
         <v>1084</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="47" t="s">
         <v>1021</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="49">
+      <c r="B2" s="47"/>
+      <c r="C2" s="48">
         <v>1</v>
       </c>
-      <c r="D2" s="49">
-        <v>10</v>
-      </c>
-      <c r="E2" s="49">
+      <c r="D2" s="48">
+        <v>10</v>
+      </c>
+      <c r="E2" s="48">
         <v>0.5</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="47" t="s">
         <v>1022</v>
       </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="49">
+      <c r="B3" s="47"/>
+      <c r="C3" s="48">
         <v>1.3</v>
       </c>
-      <c r="D3" s="49">
-        <v>10</v>
-      </c>
-      <c r="E3" s="49">
+      <c r="D3" s="48">
+        <v>10</v>
+      </c>
+      <c r="E3" s="48">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="47" t="s">
         <v>1099</v>
       </c>
-      <c r="B4" s="48"/>
-      <c r="C4" s="49">
+      <c r="B4" s="47"/>
+      <c r="C4" s="48">
         <v>1.6</v>
       </c>
-      <c r="D4" s="49">
-        <v>10</v>
-      </c>
-      <c r="E4" s="49">
+      <c r="D4" s="48">
+        <v>10</v>
+      </c>
+      <c r="E4" s="48">
         <v>5.5</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="47" t="s">
         <v>1100</v>
       </c>
-      <c r="B5" s="48"/>
-      <c r="C5" s="49">
+      <c r="B5" s="47"/>
+      <c r="C5" s="48">
         <v>1.8</v>
       </c>
-      <c r="D5" s="49">
-        <v>10</v>
-      </c>
-      <c r="E5" s="49">
+      <c r="D5" s="48">
+        <v>10</v>
+      </c>
+      <c r="E5" s="48">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="47" t="s">
         <v>400</v>
       </c>
-      <c r="B6" s="48"/>
-      <c r="C6" s="49">
+      <c r="B6" s="47"/>
+      <c r="C6" s="48">
         <v>1</v>
       </c>
-      <c r="D6" s="49">
-        <v>10</v>
-      </c>
-      <c r="E6" s="49">
+      <c r="D6" s="48">
+        <v>10</v>
+      </c>
+      <c r="E6" s="48">
         <v>0.5</v>
       </c>
     </row>
@@ -25521,94 +25581,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="46" t="s">
         <v>1106</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="46" t="s">
         <v>1081</v>
       </c>
-      <c r="C1" s="47" t="s">
+      <c r="C1" s="46" t="s">
         <v>1082</v>
       </c>
-      <c r="D1" s="47" t="s">
+      <c r="D1" s="46" t="s">
         <v>1083</v>
       </c>
-      <c r="E1" s="47" t="s">
+      <c r="E1" s="46" t="s">
         <v>1084</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="47" t="s">
         <v>1021</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="49">
+      <c r="B2" s="47"/>
+      <c r="C2" s="48">
         <v>1</v>
       </c>
-      <c r="D2" s="49">
-        <v>10</v>
-      </c>
-      <c r="E2" s="49">
+      <c r="D2" s="48">
+        <v>10</v>
+      </c>
+      <c r="E2" s="48">
         <v>0.5</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="47" t="s">
         <v>1022</v>
       </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="49">
+      <c r="B3" s="47"/>
+      <c r="C3" s="48">
         <v>1.3</v>
       </c>
-      <c r="D3" s="49">
-        <v>10</v>
-      </c>
-      <c r="E3" s="49">
+      <c r="D3" s="48">
+        <v>10</v>
+      </c>
+      <c r="E3" s="48">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="47" t="s">
         <v>1099</v>
       </c>
-      <c r="B4" s="48"/>
-      <c r="C4" s="49">
+      <c r="B4" s="47"/>
+      <c r="C4" s="48">
         <v>1.6</v>
       </c>
-      <c r="D4" s="49">
-        <v>10</v>
-      </c>
-      <c r="E4" s="49">
+      <c r="D4" s="48">
+        <v>10</v>
+      </c>
+      <c r="E4" s="48">
         <v>5.5</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="47" t="s">
         <v>1100</v>
       </c>
-      <c r="B5" s="48"/>
-      <c r="C5" s="49">
+      <c r="B5" s="47"/>
+      <c r="C5" s="48">
         <v>1.8</v>
       </c>
-      <c r="D5" s="49">
-        <v>10</v>
-      </c>
-      <c r="E5" s="49">
+      <c r="D5" s="48">
+        <v>10</v>
+      </c>
+      <c r="E5" s="48">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="47" t="s">
         <v>400</v>
       </c>
-      <c r="B6" s="48"/>
-      <c r="C6" s="49">
+      <c r="B6" s="47"/>
+      <c r="C6" s="48">
         <v>1</v>
       </c>
-      <c r="D6" s="49">
-        <v>10</v>
-      </c>
-      <c r="E6" s="49">
+      <c r="D6" s="48">
+        <v>10</v>
+      </c>
+      <c r="E6" s="48">
         <v>0.5</v>
       </c>
     </row>
@@ -25640,94 +25700,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="46" t="s">
         <v>1107</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="46" t="s">
         <v>1081</v>
       </c>
-      <c r="C1" s="47" t="s">
+      <c r="C1" s="46" t="s">
         <v>1082</v>
       </c>
-      <c r="D1" s="47" t="s">
+      <c r="D1" s="46" t="s">
         <v>1083</v>
       </c>
-      <c r="E1" s="47" t="s">
+      <c r="E1" s="46" t="s">
         <v>1084</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="47" t="s">
         <v>1021</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="49">
+      <c r="B2" s="47"/>
+      <c r="C2" s="48">
         <v>1</v>
       </c>
-      <c r="D2" s="49">
-        <v>10</v>
-      </c>
-      <c r="E2" s="49">
+      <c r="D2" s="48">
+        <v>10</v>
+      </c>
+      <c r="E2" s="48">
         <v>0.5</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="47" t="s">
         <v>1022</v>
       </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="49">
+      <c r="B3" s="47"/>
+      <c r="C3" s="48">
         <v>1.3</v>
       </c>
-      <c r="D3" s="49">
-        <v>10</v>
-      </c>
-      <c r="E3" s="49">
+      <c r="D3" s="48">
+        <v>10</v>
+      </c>
+      <c r="E3" s="48">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="47" t="s">
         <v>1099</v>
       </c>
-      <c r="B4" s="48"/>
-      <c r="C4" s="49">
+      <c r="B4" s="47"/>
+      <c r="C4" s="48">
         <v>1.6</v>
       </c>
-      <c r="D4" s="49">
-        <v>10</v>
-      </c>
-      <c r="E4" s="49">
+      <c r="D4" s="48">
+        <v>10</v>
+      </c>
+      <c r="E4" s="48">
         <v>5.5</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="47" t="s">
         <v>1100</v>
       </c>
-      <c r="B5" s="48"/>
-      <c r="C5" s="49">
+      <c r="B5" s="47"/>
+      <c r="C5" s="48">
         <v>1.8</v>
       </c>
-      <c r="D5" s="49">
-        <v>10</v>
-      </c>
-      <c r="E5" s="49">
+      <c r="D5" s="48">
+        <v>10</v>
+      </c>
+      <c r="E5" s="48">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="47" t="s">
         <v>400</v>
       </c>
-      <c r="B6" s="48"/>
-      <c r="C6" s="49">
+      <c r="B6" s="47"/>
+      <c r="C6" s="48">
         <v>1</v>
       </c>
-      <c r="D6" s="49">
-        <v>10</v>
-      </c>
-      <c r="E6" s="49">
+      <c r="D6" s="48">
+        <v>10</v>
+      </c>
+      <c r="E6" s="48">
         <v>0.5</v>
       </c>
     </row>
@@ -25759,94 +25819,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="46" t="s">
         <v>1108</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="46" t="s">
         <v>1081</v>
       </c>
-      <c r="C1" s="47" t="s">
+      <c r="C1" s="46" t="s">
         <v>1082</v>
       </c>
-      <c r="D1" s="47" t="s">
+      <c r="D1" s="46" t="s">
         <v>1083</v>
       </c>
-      <c r="E1" s="47" t="s">
+      <c r="E1" s="46" t="s">
         <v>1084</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="47" t="s">
         <v>1021</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="49">
+      <c r="B2" s="47"/>
+      <c r="C2" s="48">
         <v>1</v>
       </c>
-      <c r="D2" s="49">
-        <v>10</v>
-      </c>
-      <c r="E2" s="49">
+      <c r="D2" s="48">
+        <v>10</v>
+      </c>
+      <c r="E2" s="48">
         <v>0.5</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="47" t="s">
         <v>1022</v>
       </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="49">
+      <c r="B3" s="47"/>
+      <c r="C3" s="48">
         <v>1.3</v>
       </c>
-      <c r="D3" s="49">
-        <v>10</v>
-      </c>
-      <c r="E3" s="49">
+      <c r="D3" s="48">
+        <v>10</v>
+      </c>
+      <c r="E3" s="48">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="47" t="s">
         <v>1099</v>
       </c>
-      <c r="B4" s="48"/>
-      <c r="C4" s="49">
+      <c r="B4" s="47"/>
+      <c r="C4" s="48">
         <v>1.6</v>
       </c>
-      <c r="D4" s="49">
-        <v>10</v>
-      </c>
-      <c r="E4" s="49">
+      <c r="D4" s="48">
+        <v>10</v>
+      </c>
+      <c r="E4" s="48">
         <v>5.5</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="47" t="s">
         <v>1100</v>
       </c>
-      <c r="B5" s="48"/>
-      <c r="C5" s="49">
+      <c r="B5" s="47"/>
+      <c r="C5" s="48">
         <v>1.8</v>
       </c>
-      <c r="D5" s="49">
-        <v>10</v>
-      </c>
-      <c r="E5" s="49">
+      <c r="D5" s="48">
+        <v>10</v>
+      </c>
+      <c r="E5" s="48">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="47" t="s">
         <v>400</v>
       </c>
-      <c r="B6" s="48"/>
-      <c r="C6" s="49">
+      <c r="B6" s="47"/>
+      <c r="C6" s="48">
         <v>1</v>
       </c>
-      <c r="D6" s="49">
-        <v>10</v>
-      </c>
-      <c r="E6" s="49">
+      <c r="D6" s="48">
+        <v>10</v>
+      </c>
+      <c r="E6" s="48">
         <v>0.5</v>
       </c>
     </row>
@@ -25878,94 +25938,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="46" t="s">
         <v>1109</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="46" t="s">
         <v>1081</v>
       </c>
-      <c r="C1" s="47" t="s">
+      <c r="C1" s="46" t="s">
         <v>1082</v>
       </c>
-      <c r="D1" s="47" t="s">
+      <c r="D1" s="46" t="s">
         <v>1083</v>
       </c>
-      <c r="E1" s="47" t="s">
+      <c r="E1" s="46" t="s">
         <v>1084</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="47" t="s">
         <v>1021</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="49">
+      <c r="B2" s="47"/>
+      <c r="C2" s="48">
         <v>1</v>
       </c>
-      <c r="D2" s="49">
-        <v>10</v>
-      </c>
-      <c r="E2" s="49">
+      <c r="D2" s="48">
+        <v>10</v>
+      </c>
+      <c r="E2" s="48">
         <v>0.5</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="47" t="s">
         <v>1022</v>
       </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="49">
+      <c r="B3" s="47"/>
+      <c r="C3" s="48">
         <v>1.3</v>
       </c>
-      <c r="D3" s="49">
-        <v>10</v>
-      </c>
-      <c r="E3" s="49">
+      <c r="D3" s="48">
+        <v>10</v>
+      </c>
+      <c r="E3" s="48">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="47" t="s">
         <v>1099</v>
       </c>
-      <c r="B4" s="48"/>
-      <c r="C4" s="49">
+      <c r="B4" s="47"/>
+      <c r="C4" s="48">
         <v>1.6</v>
       </c>
-      <c r="D4" s="49">
-        <v>10</v>
-      </c>
-      <c r="E4" s="49">
+      <c r="D4" s="48">
+        <v>10</v>
+      </c>
+      <c r="E4" s="48">
         <v>5.5</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="47" t="s">
         <v>1100</v>
       </c>
-      <c r="B5" s="48"/>
-      <c r="C5" s="49">
+      <c r="B5" s="47"/>
+      <c r="C5" s="48">
         <v>1.8</v>
       </c>
-      <c r="D5" s="49">
-        <v>10</v>
-      </c>
-      <c r="E5" s="49">
+      <c r="D5" s="48">
+        <v>10</v>
+      </c>
+      <c r="E5" s="48">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="47" t="s">
         <v>400</v>
       </c>
-      <c r="B6" s="48"/>
-      <c r="C6" s="49">
+      <c r="B6" s="47"/>
+      <c r="C6" s="48">
         <v>1</v>
       </c>
-      <c r="D6" s="49">
-        <v>10</v>
-      </c>
-      <c r="E6" s="49">
+      <c r="D6" s="48">
+        <v>10</v>
+      </c>
+      <c r="E6" s="48">
         <v>0.5</v>
       </c>
     </row>
@@ -25997,79 +26057,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="46" t="s">
         <v>1110</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="46" t="s">
         <v>1081</v>
       </c>
-      <c r="C1" s="47" t="s">
+      <c r="C1" s="46" t="s">
         <v>1082</v>
       </c>
-      <c r="D1" s="47" t="s">
+      <c r="D1" s="46" t="s">
         <v>1083</v>
       </c>
-      <c r="E1" s="47" t="s">
+      <c r="E1" s="46" t="s">
         <v>1084</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="47" t="s">
         <v>594</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="49">
+      <c r="B2" s="47"/>
+      <c r="C2" s="48">
         <v>1</v>
       </c>
-      <c r="D2" s="49">
-        <v>10</v>
-      </c>
-      <c r="E2" s="49">
+      <c r="D2" s="48">
+        <v>10</v>
+      </c>
+      <c r="E2" s="48">
         <v>0.5</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="47" t="s">
         <v>1101</v>
       </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="49">
+      <c r="B3" s="47"/>
+      <c r="C3" s="48">
         <v>1.3</v>
       </c>
-      <c r="D3" s="49">
-        <v>10</v>
-      </c>
-      <c r="E3" s="49">
+      <c r="D3" s="48">
+        <v>10</v>
+      </c>
+      <c r="E3" s="48">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="47" t="s">
         <v>1031</v>
       </c>
-      <c r="B4" s="48"/>
-      <c r="C4" s="49">
+      <c r="B4" s="47"/>
+      <c r="C4" s="48">
         <v>1.6</v>
       </c>
-      <c r="D4" s="49">
-        <v>10</v>
-      </c>
-      <c r="E4" s="49">
+      <c r="D4" s="48">
+        <v>10</v>
+      </c>
+      <c r="E4" s="48">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="47" t="s">
         <v>400</v>
       </c>
-      <c r="B5" s="48"/>
-      <c r="C5" s="49">
+      <c r="B5" s="47"/>
+      <c r="C5" s="48">
         <v>1</v>
       </c>
-      <c r="D5" s="49">
-        <v>10</v>
-      </c>
-      <c r="E5" s="49">
+      <c r="D5" s="48">
+        <v>10</v>
+      </c>
+      <c r="E5" s="48">
         <v>0.5</v>
       </c>
     </row>
@@ -54685,10 +54745,10 @@
   <sheetPr>
     <tabColor theme="7"/>
   </sheetPr>
-  <dimension ref="A1:C64"/>
+  <dimension ref="A1:C65"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A64" sqref="A64"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -54875,24 +54935,24 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>407</v>
+      <c r="A23" s="49" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B23" s="50" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B25" s="8" t="s">
         <v>406</v>
@@ -54900,7 +54960,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B26" s="8" t="s">
         <v>406</v>
@@ -54908,7 +54968,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B27" s="8" t="s">
         <v>406</v>
@@ -54916,24 +54976,23 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B28" s="8" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="B29" s="24" t="s">
+      <c r="A29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" s="8" t="s">
         <v>406</v>
       </c>
-      <c r="C29" s="15"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="23" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B30" s="24" t="s">
         <v>406</v>
@@ -54942,7 +55001,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="23" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B31" s="24" t="s">
         <v>406</v>
@@ -54951,16 +55010,16 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="23" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="B32" s="24" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C32" s="15"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="23" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B33" s="24" t="s">
         <v>408</v>
@@ -54969,7 +55028,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="23" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B34" s="24" t="s">
         <v>408</v>
@@ -54978,7 +55037,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="23" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B35" s="24" t="s">
         <v>408</v>
@@ -54987,7 +55046,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="23" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B36" s="24" t="s">
         <v>408</v>
@@ -54996,7 +55055,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="23" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B37" s="24" t="s">
         <v>408</v>
@@ -55005,7 +55064,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="23" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="B38" s="24" t="s">
         <v>408</v>
@@ -55014,52 +55073,52 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="23" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B39" s="24" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C39" s="15"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B40" s="24" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C40" s="15"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="23" t="s">
-        <v>376</v>
+        <v>56</v>
       </c>
       <c r="B41" s="24" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C41" s="15"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="23" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B42" s="24" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C42" s="15"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="23" t="s">
-        <v>60</v>
+        <v>377</v>
       </c>
       <c r="B43" s="24" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C43" s="15"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="23" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B44" s="24" t="s">
         <v>407</v>
@@ -55068,7 +55127,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="23" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B45" s="24" t="s">
         <v>407</v>
@@ -55077,34 +55136,34 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="23" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B46" s="24" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C46" s="15"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="23" t="s">
-        <v>378</v>
+        <v>62</v>
       </c>
       <c r="B47" s="24" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C47" s="15"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="23" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B48" s="24" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C48" s="15"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="23" t="s">
-        <v>66</v>
+        <v>379</v>
       </c>
       <c r="B49" s="24" t="s">
         <v>406</v>
@@ -55112,26 +55171,26 @@
       <c r="C49" s="15"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" s="36" t="s">
+      <c r="A50" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="B50" s="24" t="s">
+        <v>406</v>
+      </c>
+      <c r="C50" s="15"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" s="36" t="s">
         <v>1020</v>
       </c>
-      <c r="B50" s="37" t="s">
-        <v>406</v>
-      </c>
-      <c r="C50" s="15"/>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="B51" s="24" t="s">
+      <c r="B51" s="37" t="s">
         <v>406</v>
       </c>
       <c r="C51" s="15"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="23" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B52" s="24" t="s">
         <v>406</v>
@@ -55140,7 +55199,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="23" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B53" s="24" t="s">
         <v>406</v>
@@ -55149,7 +55208,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="23" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B54" s="24" t="s">
         <v>406</v>
@@ -55158,16 +55217,16 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="23" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B55" s="24" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C55" s="15"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B56" s="24" t="s">
         <v>408</v>
@@ -55176,7 +55235,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="23" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B57" s="24" t="s">
         <v>408</v>
@@ -55185,7 +55244,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="23" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="B58" s="24" t="s">
         <v>408</v>
@@ -55194,43 +55253,43 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="23" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="B59" s="24" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C59" s="15"/>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B60" s="24" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C60" s="15"/>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B61" s="24" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C61" s="15"/>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B62" s="24" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C62" s="15"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="23" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B63" s="24" t="s">
         <v>406</v>
@@ -55238,13 +55297,22 @@
       <c r="C63" s="15"/>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A64" s="38" t="s">
+      <c r="A64" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="B64" s="24" t="s">
+        <v>406</v>
+      </c>
+      <c r="C64" s="15"/>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" s="38" t="s">
         <v>1064</v>
       </c>
-      <c r="B64" s="45" t="s">
+      <c r="B65" s="45" t="s">
         <v>407</v>
       </c>
-      <c r="C64" s="15"/>
+      <c r="C65" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/data-raw/excel-spreadsheets/table_data.xlsx
+++ b/data-raw/excel-spreadsheets/table_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\CNAIM\data-raw\excel-spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FF7453C-07F1-4DB5-A075-16F1D6466A22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF323FA6-718E-4106-8E5A-F0A969E6F26F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="870" activeTab="26" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="870" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -302,7 +302,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6625" uniqueCount="1113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6625" uniqueCount="1114">
   <si>
     <t>Health Index Asset Category</t>
   </si>
@@ -3709,6 +3709,9 @@
   </si>
   <si>
     <t>1. Descargas parciales, 2. Lecturas de temperatura</t>
+  </si>
+  <si>
+    <t>Transformador 13.2kV</t>
   </si>
 </sst>
 </file>
@@ -4405,8 +4408,8 @@
   </sheetPr>
   <dimension ref="A1:B65"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4589,7 +4592,7 @@
         <v>26</v>
       </c>
       <c r="B22" s="49" t="s">
-        <v>1076</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -8221,7 +8224,7 @@
   </sheetPr>
   <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView topLeftCell="B7" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -11657,7 +11660,7 @@
   <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13168,7 +13171,7 @@
   </sheetPr>
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
@@ -16104,7 +16107,7 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="49" t="s">
-        <v>1076</v>
+        <v>1113</v>
       </c>
       <c r="B59" s="49">
         <v>9297</v>
@@ -54747,7 +54750,7 @@
   </sheetPr>
   <dimension ref="A1:C65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
@@ -54936,7 +54939,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="49" t="s">
-        <v>1076</v>
+        <v>1113</v>
       </c>
       <c r="B23" s="50" t="s">
         <v>406</v>

--- a/data-raw/excel-spreadsheets/table_data.xlsx
+++ b/data-raw/excel-spreadsheets/table_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\CNAIM\data-raw\excel-spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF323FA6-718E-4106-8E5A-F0A969E6F26F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09FCF618-1334-4182-8EEB-1C329EE8C4E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="870" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="870" firstSheet="146" activeTab="159" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -302,7 +302,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6625" uniqueCount="1114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6738" uniqueCount="1214">
   <si>
     <t>Health Index Asset Category</t>
   </si>
@@ -3669,12 +3669,6 @@
     <t>Severamente averiada</t>
   </si>
   <si>
-    <t>Alta (no confirmada)</t>
-  </si>
-  <si>
-    <t>Alta (confirmada)</t>
-  </si>
-  <si>
     <t>Alta</t>
   </si>
   <si>
@@ -3696,9 +3690,6 @@
     <t>Criterios de Condición: Secuencia de Fases</t>
   </si>
   <si>
-    <t>Criterios de Condición: Presencia de Vibraciones</t>
-  </si>
-  <si>
     <t>Criterios de Condición: Pérdidas</t>
   </si>
   <si>
@@ -3712,6 +3703,315 @@
   </si>
   <si>
     <t>Transformador 13.2kV</t>
+  </si>
+  <si>
+    <t>La cubierta de acero del motor no muestra signos de golpes o abolladuras y no hay obstrucciones en sus conductos de ventilación. El motor no muestra signos de daños y el desgaste esperado.</t>
+  </si>
+  <si>
+    <t>El motor presenta golpes con ligeras deformaciones en la estructura del chasis. Estos golpes deben vigilarse para que no comprometan la ventilación y el funcionamiento habitual de la máquina. El motor está contaminado con suciedad de combustible y los elementos de registro del nivel de combustible están contaminados pero registran sus valores correctamente.</t>
+  </si>
+  <si>
+    <t>El motor presenta golpes con ligeras deformaciones en la estructura del chasis. Estos golpes pueden comprometer el funcionamiento debido al contacto con partes internas de la máquina. Excesiva contaminación de combustible y corrosión en el chasis de la máquina obstruyendo los canales de ventilación. Material del chasis corroído, presencia de piezas sueltas sin tornillos de fijación. Elementos de indicación de nivel de fluido, temperatura, presión, etc., no funcionan o indican lecturas erróneas accionando alarmas de forma innecesarias.</t>
+  </si>
+  <si>
+    <t>No hay datos disponibles</t>
+  </si>
+  <si>
+    <t>Rodamientos en buen estado de funcionamiento, sin desgaste considerable</t>
+  </si>
+  <si>
+    <t>Los rodamientos presentan una ligera contaminación previa a una posible corrosión. Mala lubricación de los rodamientos</t>
+  </si>
+  <si>
+    <t>Rodamientos con corrosión, sonidos audibles que indican sustitución inmediata.Rodamientos sin lubricación con suciedad obstruidos.  Rodamientos con grietas que requieren sustitución.</t>
+  </si>
+  <si>
+    <t>Depósito limpio y sin signos de corrosión. Nivel de combustible adecuado. Sin fugas visibles. Líneas y mangueras en buen estado, sin grietas. Sin fugas. Conexiones seguras. Inyectores limpios y en buen estado. Pulverización uniforme del combustible. Sin atascos.</t>
+  </si>
+  <si>
+    <t>Pequeñas zonas de corrosión. Nivel de combustible ligeramente bajo. Pequeñas fugas o goteos. Conexiones ligeramente sueltas. Inyectores parcialmente obstruidos. Pulverización irregular del combustible. Ligeras acumulaciones de suciedad</t>
+  </si>
+  <si>
+    <t>Corrosión significativa. Grandes fugas visibles. Contaminación visible en el combustible (agua, sedimentos). Líneas y mangueras rotas o muy agrietadas. Conexiones sueltas o desconectadas. Inyectores completamente obstruidos o dañados. No hay pulverización de combustible o es muy escasa. Inyectores defectuosos.</t>
+  </si>
+  <si>
+    <t>Aletas del radiador limpias y sin daños. Flujo de aire sin obstrucciones. Nivel de refrigerante adecuado y sin fugas. Funcionamiento suave y sin ruidos extraños en la bomba de agua. Bomba de agua sin fugas. Mangueras en buen estado, sin grietas. El termostato funciona correctamente, abriéndose y cerrándose en función de la temperatura. lectura precisa del sensor de temperatura.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Las aletas del radiador están ligeramente dobladas o sucias. Pequeñas obstrucciones del flujo de aire. Nivel de refrigerante ligeramente bajo o pequeñas fugas. Funcionamiento de la bomba de agua con ligeros ruidos o vibraciones. Pequeñas fugas de agua. Flujo de refrigerante ligeramente reducido. Mangueras con pequeñas grietas o signos de desgaste. Termostato abriendo y cerrando ligeramente fuera de posición. </t>
+  </si>
+  <si>
+    <t>Aletas del radiador muy dobladas o dañadas. Obstrucción significativa del flujo de aire. Grandes fugas de refrigerante o nivel de refrigerante extremadamente bajo. Funcionamiento extremadamente ruidoso o no operativo de la bomba de agua. Grandes fugas de agua. Flujo de refrigerante insuficiente o nulo. Mangueras rígidas y quebradizas.</t>
+  </si>
+  <si>
+    <t>Bomba de aceite: Funcionamiento suave sin ruidos extraños. Presión de aceite adecuada. Sin fugas. Líneas y mangueras de aceite: Líneas y mangueras en buen estado, sin grietas. Conexiones seguras y sin fugas. Mangueras flexibles y no rígidas. Cárter de aceite: Nivel de aceite adecuado. Sin signos de contaminación del aceite (agua, sedimentos). Sin fugas.</t>
+  </si>
+  <si>
+    <t>Bomba de aceite: Funcionamiento con ligeros ruidos o vibraciones. Presión de aceite ligeramente baja. Pequeñas fugas de aceite. Líneas y mangueras de aceite: Líneas y mangueras con pequeñas grietas o signos de desgaste. Conexiones ligeramente sueltas o pequeñas fugas. Mangueras ligeramente rígidas. Cárter de aceite: Nivel de aceite ligeramente bajo. Ligera contaminación en el aceite. Pequeñas fugas.</t>
+  </si>
+  <si>
+    <t>Bomba de aceite: Funcionamiento extremadamente ruidoso o no operativo. Presión de aceite insuficiente o nula. Grandes fugas de aceite. Líneas y mangueras de aceite: Líneas y mangueras rotas o con grandes grietas. Conexiones sueltas o grandes fugas. Mangueras rígidas y quebradizas. Cárter de aceite: Nivel de aceite muy bajo o inexistente. Contaminación importante del aceite. Grandes fugas de aceite.</t>
+  </si>
+  <si>
+    <t>Conductos de aire: Los conductos están limpios y en buen estado. Sin grietas ni fugas. Flujo de aire adecuado. Válvula de admisión: Las válvulas están limpias y funcionan correctamente. Apertura y cierre correctos. No hay acumulación de depósitos.</t>
+  </si>
+  <si>
+    <t>Conductos de aire: Conductos con pequeñas grietas o signos de desgaste. Pequeñas fugas. Caudal de aire ligeramente reducido. Válvula de admisión: Válvulas con pequeñas acumulaciones de depósitos. Apertura y cierre ligeramente restringidos. Funcionamiento con ligeros ruidos.</t>
+  </si>
+  <si>
+    <t>Conductos de aire: Conductos gravemente dañados o con grandes grietas. Grandes fugas. Flujo de aire insuficiente. Válvula de admisión: Válvulas muy sucias o dañadas. Apertura y cierre inadecuados. Funcionamiento ruidoso o no operativo.</t>
+  </si>
+  <si>
+    <t>Funcionamiento suave y sin ruidos extraños. Presión de aire adecuada. Sin fugas de aceite ni de aire.</t>
+  </si>
+  <si>
+    <t>Funcionamiento con ligeros ruidos o vibraciones. Presión de aire ligeramente baja. Pequeñas fugas de aceite o aire.</t>
+  </si>
+  <si>
+    <t>Funcionamiento extremadamente ruidoso o no operativo. Presión de aire insuficiente. Grandes fugas de aceite o aire.</t>
+  </si>
+  <si>
+    <t>Superficie lisa sin marcas. Sin signos de desgaste significativo. Lubricación adecuada. Sin acumulación de carbonilla. Juntas de culata en buen estado, sin fugas. Culata bien ajustada y sin deformaciones. No hay signos de compresión excesiva en la culata.</t>
+  </si>
+  <si>
+    <t>Pequeñoas marcas o ligero desgaste. Superficie ligeramente rugosa. Lubricación ligeramente insuficiente. Ligera acumulación de carbonilla. Pequeñas fugas en las juntas. Ajuste ligeramente flojo. Ligeros signos de compresión excesiva.</t>
+  </si>
+  <si>
+    <t>Raspaduras profundas o desgaste grave. Superficie muy rugosa. Falta de lubricación o aceite contaminado. Acumulación importante de depósitos de carbono. Fugas graves o juntas dañadas. Ajuste flojo o inexistente. Compresión excesiva o falta de compresión en la culata.</t>
+  </si>
+  <si>
+    <t>Filtro limpio y en buen estado. Sin obstrucciones. Flujo adecuado a través del filtro.</t>
+  </si>
+  <si>
+    <t>Pequeñas obstrucciones. Caudal ligeramente reducido.</t>
+  </si>
+  <si>
+    <t>Filtro muy sucio o dañado. Obstrucción importante. Caudal insuficiente o nulo en las salidas del filtro.</t>
+  </si>
+  <si>
+    <t>Integridad: Carcasa intacta, sin abolladuras ni daños. Sin corrosión ni óxido visibles. Sellado y protección contra el polvo y el agua: Juntas en buen estado, sin grietas ni desgaste. Sin acumulación de polvo o suciedad en el interior. Carcasa impermeable y sin signos de humedad. Sistema de ventilación y refrigeración: Ventiladores y rejillas de ventilación limpios y sin obstrucciones. El sistema de refrigeración funciona correctamente. Flujo de aire adecuado y ausencia de ruidos anormales. Instalación eléctrica y conexiones: Cableado en buen estado, sin desgaste ni daños. Conexiones eléctricas seguras y sin corrosión. Los componentes eléctricos están bien organizados y protegidos. Datos de la placa de características: Señalización clara y legible.</t>
+  </si>
+  <si>
+    <t>Integridad: Pequeñas abolladuras o golpes. Ligeros signos de corrosión u óxido. Sellado y protección contra el polvo y el agua: Juntas con pequeñas grietas o ligero desgaste. Ligera acumulación de polvo o suciedad. Ligeros signos de humedad. Sistema de ventilación y refrigeración: Ventiladores y rejillas con ligera acumulación de polvo o suciedad. Sistema de refrigeración con rendimiento reducido. Flujo de aire ligeramente restringido, pequeños ruidos o vibraciones. Instalación eléctrica y conexiones: Cableado con ligeros signos de desgaste o daños. Conexiones eléctricas con pequeños puntos de corrosión. Componentes eléctricos ligeramente desorganizados. Datos de la placa de características: Señalización y etiquetas con ligeros signos de desgaste.</t>
+  </si>
+  <si>
+    <t>Integridad: Grandes abolladuras o daños significativos. Corrosión grave u óxido extenso. Sellado y protección contra el polvo y el agua: Juntas rotas o muy desgastadas. Acumulación significativa de polvo o suciedad. Infiltración visible de agua, humedad excesiva o corrosión interna. Sistema de ventilación y refrigeración: Ventiladores y rejillas muy obstruidos. El sistema de refrigeración no funciona. Flujo de aire insuficiente, ruidos fuertes o vibraciones significativas. Instalación y conexiones eléctricas: Cableado muy desgastado o dañado. Conexiones eléctricas con elevada corrosión . Componentes eléctricos desorganizados o expuestos. Datos de la placa de características: Señalización ilegible o ausente.</t>
+  </si>
+  <si>
+    <t>Estado óptimo, sin signos de desgaste, superficies limpias y libres de contaminantes como la corrosión. Aislamiento sin grietas ni decoloración, lo que indica que el aislamiento cumple su función sin problemas.</t>
+  </si>
+  <si>
+    <t>El aislamiento muestra ligeros signos de desgaste o envejecimiento, con pequeñas manchas o suciedad en la superficie, y pequeñas grietas, se trata de un caso de deterioro menor. Desgaste que puede gestionarse con un mantenimiento preventivo.</t>
+  </si>
+  <si>
+    <t>Sistema de aislamiento envejecido, fecha de fabricación posterior a la vida útil del equipo. Humedad, corrosión y aislamiento descolorido.</t>
+  </si>
+  <si>
+    <t>Los cables no muestran cortes ni desgaste, con cubiertas aislantes intactas y bien sujetas sin signos de sobrecalentamiento.</t>
+  </si>
+  <si>
+    <t>Los cables y las cajas de conexiones pueden mostrar ligeros signos de desgaste o envejecimiento, con presencia de suciedad y signos de corrosión. También pueden presentar pequeñas grietas y estar ligeramente desgastados con una ligera decoloración debida al sobrecalentamiento. Esto indica la necesidad de una revisión y posible sustitución a corto plazo.</t>
+  </si>
+  <si>
+    <t>Cables muy desgastados o dañados, con aislamientos desintegrados y cajas de conexiones inutilizadas por la suciedad o la corrosión.Estamos ante un deterioro total que requiere atención urgente para evitar averías graves.</t>
+  </si>
+  <si>
+    <t>Superficie del rotor libre de contaminación. Ejes y cojinetes con alineación correcta. Sin vibraciones debidas a una condición fuera de la condición de diseño. Bobinado sin desgaste del aislamiento ni decoloración por sobrecalentamiento. Sistema de refrigeración del rotor funcionando correctamente.</t>
+  </si>
+  <si>
+    <t>Superficie del rotor con ligeros signos de contaminación ambiental. Ejes y rodamientos con signos  de suciedad, ligeras vibraciones en condiciones habituales de funcionamiento. Devanados con ligeros signos de desgaste del aislamiento, presencia de sobrecalentamiento y olor a quemado de parte de los devanados. Aislamiento ligeramente descolorido. Sistema de ventilación con ligeros defectos.</t>
+  </si>
+  <si>
+    <t>Superficie del rotor con alto nivel de contaminación ambiental, presencia de corrosión, humedad, polvo, entre otros.  Ejes y rodamientos desalineados, niveles de vibración que comprometen la continuidad del funcionamiento de la máquina.  Presencia de ruido audible excesivo del rotor durante su funcionamiento. Bobinado con signos de desgaste del aislamiento, presencia de quemaduras en el bobinado, con funcionamiento del aislamiento poco fiable. Olor excesivo a bobinado quemado. Sistema de ventilación ineficaz.</t>
+  </si>
+  <si>
+    <t>Laminados del núcleo del estator bien apilados, sin signos de deformación, sobrecalentamiento o corrosión. Superficie del estator conforme a las condiciones de diseño de la máquina. Bobinado del estator con aislamiento en buen estado. Ranurado del estator en buen estado. Sistema de ventilación funcionando correctamente.</t>
+  </si>
+  <si>
+    <t>Laminados del núcleo del estator con ligeras deformaciones y signos de contaminación y corrosión. Superficie del estator con ligeras deformaciones y presencia de suciedad. Devanado del estator decolorado. Ranurado del estator con signos de deformaciones.</t>
+  </si>
+  <si>
+    <t>Laminados del núcleo del estator con deformaciones considerables y presencia de contaminación y corrosión. Superficie del estator con deformaciones irreversibles. Devanado del estator con aislamiento defectuoso y presencia de olor de bobinado quemado. Ranurado deficiente.</t>
+  </si>
+  <si>
+    <t>El motor funciona con una eficiencia térmica ≥ 42%, un consumo de combustible dentro del rango nominal (≤ 195 g/kWh) y un funcionamiento estable sin degradación significativa.</t>
+  </si>
+  <si>
+    <t>La eficiencia térmica disminuye hasta el 36-42%, con un mayor consumo de combustible (195-215 g/kWh). Se mantiene la estabilidad operativa, pero es evidente un desgaste clave del sistema.</t>
+  </si>
+  <si>
+    <t>Rendimiento térmico &lt; 36%, consumo excesivo de combustible (&gt; 215 g/kWh), con fluctuaciones de potencia y fallos recurrentes. Pérdida de estabilidad operativa con riesgo de desconexión del sistema.</t>
+  </si>
+  <si>
+    <t>El régimen del motor se mantiene en 514 RPM ±0,5% (o velocidad nominal ±0,5%) en todas las condiciones de carga, sin fluctuaciones significativas.</t>
+  </si>
+  <si>
+    <t>Se producen oscilaciones de alrededor del ±1% de la velocidad nominal, con tiempos de estabilización prolongados durante los cambios de carga.</t>
+  </si>
+  <si>
+    <t>Las variaciones superan el ±3%, lo que afecta a la estabilidad del sistema. Se detectan eventos de sobrevelocidad o caídas repentinas de RPM.</t>
+  </si>
+  <si>
+    <t>El consumo específico de combustible se mantiene dentro de la gama garantizada de 183,4 g/kWh ±5% (173,23 - 192,57 g/kWh). La combustión es eficiente y la relación aire-combustible es óptima.</t>
+  </si>
+  <si>
+    <t>El consumo específico de combustible oscila entre 192,57 - 201,7 g/kWh, con una reducción moderada del rendimiento térmico. Entre las posibles causas se incluyen depósitos en los inyectores, ajustes inadecuados de la mezcla aire-combustible o una ligera pérdida de eficiencia del generador de corriente alterna.</t>
+  </si>
+  <si>
+    <t>El consumo supera los 201,7 g/kWh, lo que indica graves ineficiencias en la combustión o en el sistema de inyección. Las causas potenciales incluyen inyectores obstruidos, combustión incompleta o degradación de componentes clave del sistema de combustible.</t>
+  </si>
+  <si>
+    <t>El sistema de frenado del motor responde dentro de los tiempos de diseño sin retrasos ni fallos. Los componentes mecánicos y neumáticos están en condiciones óptimas.</t>
+  </si>
+  <si>
+    <t>Se observan ligeros retrasos en la activación del freno, aunque dentro de márgenes aceptables. Los componentes de fricción muestran desgaste o hay pérdida parcial de presión en el sistema neumático.</t>
+  </si>
+  <si>
+    <t>El freno no responde en los plazos previstos o presenta fallos intermitentes. Se observan fugas en el sistema neumático, fallos en las válvulas o desgaste grave de los componentes de fricción.</t>
+  </si>
+  <si>
+    <t>≥ 1000 MΩ. Valor típico de máquina nueva o recién secada. Índice de polarización &gt; 2.5. Bajo riesgo dieléctrico.</t>
+  </si>
+  <si>
+    <t>100 – 999 MΩ. Cercano al límite mínimo. Puede indicar humedad, contaminación o envejecimiento parcial. Se recomienda secado o limpieza preventiva.</t>
+  </si>
+  <si>
+    <t>10 – 99 MΩ. Bajo el umbral recomendado. Riesgo elevado de descarga o tracking. Requiere intervención técnica antes de operación sostenida.</t>
+  </si>
+  <si>
+    <t>&lt; 10 MΩ. Condición crítica, alto riesgo de cortocircuito. No se recomienda puesta en marcha hasta recuperación dieléctrica completa.</t>
+  </si>
+  <si>
+    <t>501 – 1000 pC. Patrón bipolar ancho o difuso en fase. Indicios de cavidades internas, degradación de impregnación o inicio de tracking.</t>
+  </si>
+  <si>
+    <t>1001 – 3000 pC. Picos irregulares o alta densidad de PD. Indica tracking severo, delaminación o movimiento mecánico de barras. Riesgo creciente.</t>
+  </si>
+  <si>
+    <t>&gt; 3000 pC. Saturación del patrón o múltiples fuentes de PD. Riesgo inminente de falla dieléctrica. Se recomienda parada y diagnóstico integral.</t>
+  </si>
+  <si>
+    <t>La secuencia de fases es verificada como correcta (R-S-T o equivalente), confirmada por instrumento de secuencia o sistema de sincronización. No se detectan errores de rotación en operación.</t>
+  </si>
+  <si>
+    <t>Se detecta inversión de secuencia de forma esporádica durante pruebas de arranque, sincronización o transferencia de carga. El sistema corrige automáticamente o emite alarmas</t>
+  </si>
+  <si>
+    <t>El sistema detecta secuencia incorrecta (T-S-R), documentada por equipo de medición o rechazo de sincronismo. La inversión produce rotación inversa en motores o bloqueo del sistema de protección</t>
+  </si>
+  <si>
+    <t>La inversión de fases persiste sin intervención, y no existen mecanismos de protección activos. El generador puede dañar equipos acoplados o provocar fallo en sincronismo con red o grupo</t>
+  </si>
+  <si>
+    <t>No se dispone de medición reciente ni registro del control automático de fase. No se puede confirmar el estado actual del sistema.</t>
+  </si>
+  <si>
+    <t>2.9 – 4.5 mm/s. Vibraciones medias. Posible desalineación, asentamiento, o desequilibrio progresivo. Requiere monitoreo frecuente</t>
+  </si>
+  <si>
+    <t>4.6 – 7.1 mm/s. Vibración elevada. Potencial daño a rodamientos o estructura. Requiere análisis dinámico y mantenimiento preventivo.</t>
+  </si>
+  <si>
+    <t>&gt; 7.1 mm/s. Vibraciones severas con riesgo de falla catastrófica. Intervención urgente recomendada. Probables daños en acoplamientos, ejes o rodamientos.</t>
+  </si>
+  <si>
+    <t>No se dispone de medición reciente ni de análisis espectral. Se requiere verificación para clasificar</t>
+  </si>
+  <si>
+    <t>2.59% – 3.0%. Leve aumento de pérdidas por rozamientos, desbalance térmico, escobillas con desgaste o suciedad en sistema de ventilación.</t>
+  </si>
+  <si>
+    <t>3.01% – 3.5%. Disminución sostenida de eficiencia. Probable degradación en devanados o aumento de pérdidas en núcleo o ventilación.</t>
+  </si>
+  <si>
+    <t>&gt; 3.5%. Eficiencia &lt; 96.5%. Riesgo de sobretemperatura, deterioro del aislamiento o fatiga térmica. Evaluación urgente requerida.</t>
+  </si>
+  <si>
+    <t>No se dispone de prueba de rendimiento ni curva de eficiencia medida</t>
+  </si>
+  <si>
+    <t>No se dispone de medición térmica confiable ni de sensores funcionales</t>
+  </si>
+  <si>
+    <t>Excelente</t>
+  </si>
+  <si>
+    <t>Buena</t>
+  </si>
+  <si>
+    <t>Aceptable</t>
+  </si>
+  <si>
+    <t>Deficiente</t>
+  </si>
+  <si>
+    <t>Crítica</t>
+  </si>
+  <si>
+    <t>1000 – 4999 MΩ. Dentro de valores aceptables recomendados por IEEE para máquinas &gt; 1000 V. Sin síntomas de degradación dieléctrica.</t>
+  </si>
+  <si>
+    <t>101 – 500 pC. Patrón estable, unipolar o bipolar estrecho. Indica contaminación leve o envejecimiento superficial sin riesgo inmediato.</t>
+  </si>
+  <si>
+    <t>Muy bajas</t>
+  </si>
+  <si>
+    <t>Bajas</t>
+  </si>
+  <si>
+    <t>Medias</t>
+  </si>
+  <si>
+    <t>Altas</t>
+  </si>
+  <si>
+    <t>Muy altas</t>
+  </si>
+  <si>
+    <t>Correcta</t>
+  </si>
+  <si>
+    <t>Inestable</t>
+  </si>
+  <si>
+    <t>Invertida</t>
+  </si>
+  <si>
+    <t>≤ 100 pC. Patrón unipolar o apenas visible. Descargas superficiales ausentes o mínimas. Sistema de aislamiento en condiciones óptimas.</t>
+  </si>
+  <si>
+    <t>≤ 1.8 mm/s. Vibraciones normales de operación. Medición estable sin picos. Sin indicios de desbalance, desalineación ni aflojamiento.</t>
+  </si>
+  <si>
+    <t>1.9 – 2.8 mm/s. Ligero incremento por desbalance menor, pero dentro de parámetros recomendados por ISO 10816 para generadores montados en bancada rígida.</t>
+  </si>
+  <si>
+    <t>Criterios de Condición: Vibraciones</t>
+  </si>
+  <si>
+    <t>≤ 2.50%. Eficiencia real ≥ 97.5%. Sistema electromagnético y mecánico en estado óptimo. Sin evidencia de pérdidas térmicas o anómalas.</t>
+  </si>
+  <si>
+    <t>2.51% – 2.58%. Dentro de las especificaciones nominales del fabricante. Condición aceptable para operación continua.</t>
+  </si>
+  <si>
+    <t>≤ 110 °C (o &lt; 70 °C de elevación térmica). Temperatura muy por debajo del límite de clase F. Sistema térmico optimizado, sin sobrecarga ni obstrucción de ventilación.</t>
+  </si>
+  <si>
+    <t>141 – 155 °C. Límite superior de clase F alcanzado. Riesgo de envejecimiento acelerado del aislamiento. Requiere acción correctiva preventiva.</t>
+  </si>
+  <si>
+    <t>&gt; 155 °C. Sobrepaso de la clase térmica. Riesgo elevado de falla dieléctrica, deslaminación o colapso del sistema de impregnación. Parada urgente recomendada.</t>
+  </si>
+  <si>
+    <t>111 – 125 °C. Elevación térmica moderada (hasta 80 °C). Dentro del límite de diseño. Devanado operando eficientemente con carga nominal.</t>
+  </si>
+  <si>
+    <t>126 – 140 °C. Cercano al límite térmico (clase F = 155 °C). Puede haber suciedad, reducción de ventilación o carga intermitente elevada.</t>
+  </si>
+  <si>
+    <t>Muy baja</t>
   </si>
 </sst>
 </file>
@@ -3722,7 +4022,7 @@
     <numFmt numFmtId="164" formatCode="0.000000000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -3823,6 +4123,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -3935,7 +4240,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4016,11 +4321,13 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4408,7 +4715,7 @@
   </sheetPr>
   <dimension ref="A1:B65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView topLeftCell="A25" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
@@ -4588,11 +4895,11 @@
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="49" t="s">
+      <c r="A22" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="49" t="s">
-        <v>1113</v>
+      <c r="B22" s="48" t="s">
+        <v>1110</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -8347,14 +8654,14 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="49" t="s">
+      <c r="A11" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="49" t="s">
+      <c r="B11" s="48" t="s">
         <v>177</v>
       </c>
-      <c r="C11" s="49" t="s">
-        <v>1111</v>
+      <c r="C11" s="48" t="s">
+        <v>1108</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -11335,9 +11642,7 @@
   </sheetPr>
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -11374,7 +11679,9 @@
       <c r="A2" s="38" t="s">
         <v>1085</v>
       </c>
-      <c r="B2" s="38"/>
+      <c r="B2" s="38" t="s">
+        <v>1111</v>
+      </c>
       <c r="C2" s="38">
         <v>1</v>
       </c>
@@ -11389,7 +11696,9 @@
       <c r="A3" s="38" t="s">
         <v>1034</v>
       </c>
-      <c r="B3" s="38"/>
+      <c r="B3" s="38" t="s">
+        <v>1112</v>
+      </c>
       <c r="C3" s="38">
         <v>1.4</v>
       </c>
@@ -11404,7 +11713,9 @@
       <c r="A4" s="38" t="s">
         <v>1035</v>
       </c>
-      <c r="B4" s="38"/>
+      <c r="B4" s="38" t="s">
+        <v>1113</v>
+      </c>
       <c r="C4" s="38">
         <v>1.8</v>
       </c>
@@ -11419,7 +11730,9 @@
       <c r="A5" s="38" t="s">
         <v>400</v>
       </c>
-      <c r="B5" s="38"/>
+      <c r="B5" s="38" t="s">
+        <v>1114</v>
+      </c>
       <c r="C5" s="38">
         <v>1</v>
       </c>
@@ -11443,9 +11756,7 @@
   </sheetPr>
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
-    </sheetView>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -11482,7 +11793,9 @@
       <c r="A2" s="38" t="s">
         <v>1085</v>
       </c>
-      <c r="B2" s="38"/>
+      <c r="B2" s="38" t="s">
+        <v>1115</v>
+      </c>
       <c r="C2" s="38">
         <v>1</v>
       </c>
@@ -11497,7 +11810,9 @@
       <c r="A3" s="38" t="s">
         <v>1034</v>
       </c>
-      <c r="B3" s="38"/>
+      <c r="B3" s="38" t="s">
+        <v>1116</v>
+      </c>
       <c r="C3" s="38">
         <v>1.2</v>
       </c>
@@ -11512,7 +11827,9 @@
       <c r="A4" s="38" t="s">
         <v>1035</v>
       </c>
-      <c r="B4" s="38"/>
+      <c r="B4" s="38" t="s">
+        <v>1117</v>
+      </c>
       <c r="C4" s="38">
         <v>1.8</v>
       </c>
@@ -11527,7 +11844,9 @@
       <c r="A5" s="38" t="s">
         <v>400</v>
       </c>
-      <c r="B5" s="38"/>
+      <c r="B5" s="38" t="s">
+        <v>1114</v>
+      </c>
       <c r="C5" s="38">
         <v>1</v>
       </c>
@@ -11551,9 +11870,7 @@
   </sheetPr>
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:E5"/>
-    </sheetView>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -11590,7 +11907,9 @@
       <c r="A2" s="38" t="s">
         <v>1085</v>
       </c>
-      <c r="B2" s="38"/>
+      <c r="B2" s="38" t="s">
+        <v>1118</v>
+      </c>
       <c r="C2" s="38">
         <v>1</v>
       </c>
@@ -11605,7 +11924,9 @@
       <c r="A3" s="38" t="s">
         <v>1034</v>
       </c>
-      <c r="B3" s="38"/>
+      <c r="B3" s="38" t="s">
+        <v>1119</v>
+      </c>
       <c r="C3" s="38">
         <v>1.2</v>
       </c>
@@ -11620,7 +11941,9 @@
       <c r="A4" s="38" t="s">
         <v>1035</v>
       </c>
-      <c r="B4" s="38"/>
+      <c r="B4" s="38" t="s">
+        <v>1120</v>
+      </c>
       <c r="C4" s="38">
         <v>1.4</v>
       </c>
@@ -11635,7 +11958,9 @@
       <c r="A5" s="38" t="s">
         <v>400</v>
       </c>
-      <c r="B5" s="38"/>
+      <c r="B5" s="38" t="s">
+        <v>1114</v>
+      </c>
       <c r="C5" s="38">
         <v>1</v>
       </c>
@@ -11782,14 +12107,14 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="49" t="s">
+      <c r="A11" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="49" t="s">
+      <c r="B11" s="48" t="s">
         <v>177</v>
       </c>
-      <c r="C11" s="49" t="s">
-        <v>1112</v>
+      <c r="C11" s="48" t="s">
+        <v>1109</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -12091,9 +12416,7 @@
   </sheetPr>
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:E5"/>
-    </sheetView>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -12130,7 +12453,9 @@
       <c r="A2" s="38" t="s">
         <v>1085</v>
       </c>
-      <c r="B2" s="38"/>
+      <c r="B2" s="38" t="s">
+        <v>1121</v>
+      </c>
       <c r="C2" s="38">
         <v>1</v>
       </c>
@@ -12145,7 +12470,9 @@
       <c r="A3" s="38" t="s">
         <v>1034</v>
       </c>
-      <c r="B3" s="38"/>
+      <c r="B3" s="38" t="s">
+        <v>1122</v>
+      </c>
       <c r="C3" s="38">
         <v>1.2</v>
       </c>
@@ -12160,7 +12487,9 @@
       <c r="A4" s="38" t="s">
         <v>1035</v>
       </c>
-      <c r="B4" s="38"/>
+      <c r="B4" s="38" t="s">
+        <v>1123</v>
+      </c>
       <c r="C4" s="38">
         <v>1.4</v>
       </c>
@@ -12175,7 +12504,9 @@
       <c r="A5" s="38" t="s">
         <v>400</v>
       </c>
-      <c r="B5" s="38"/>
+      <c r="B5" s="38" t="s">
+        <v>1114</v>
+      </c>
       <c r="C5" s="38">
         <v>1</v>
       </c>
@@ -12199,9 +12530,7 @@
   </sheetPr>
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:E5"/>
-    </sheetView>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -12238,7 +12567,9 @@
       <c r="A2" s="38" t="s">
         <v>1085</v>
       </c>
-      <c r="B2" s="38"/>
+      <c r="B2" s="38" t="s">
+        <v>1124</v>
+      </c>
       <c r="C2" s="38">
         <v>1</v>
       </c>
@@ -12253,7 +12584,9 @@
       <c r="A3" s="38" t="s">
         <v>1034</v>
       </c>
-      <c r="B3" s="38"/>
+      <c r="B3" s="38" t="s">
+        <v>1125</v>
+      </c>
       <c r="C3" s="38">
         <v>1.2</v>
       </c>
@@ -12268,7 +12601,9 @@
       <c r="A4" s="38" t="s">
         <v>1035</v>
       </c>
-      <c r="B4" s="38"/>
+      <c r="B4" s="38" t="s">
+        <v>1126</v>
+      </c>
       <c r="C4" s="38">
         <v>1.4</v>
       </c>
@@ -12283,7 +12618,9 @@
       <c r="A5" s="38" t="s">
         <v>400</v>
       </c>
-      <c r="B5" s="38"/>
+      <c r="B5" s="38" t="s">
+        <v>1114</v>
+      </c>
       <c r="C5" s="38">
         <v>1</v>
       </c>
@@ -12307,9 +12644,7 @@
   </sheetPr>
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:E5"/>
-    </sheetView>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -12346,7 +12681,9 @@
       <c r="A2" s="38" t="s">
         <v>1085</v>
       </c>
-      <c r="B2" s="38"/>
+      <c r="B2" s="38" t="s">
+        <v>1127</v>
+      </c>
       <c r="C2" s="38">
         <v>1</v>
       </c>
@@ -12361,7 +12698,9 @@
       <c r="A3" s="38" t="s">
         <v>1034</v>
       </c>
-      <c r="B3" s="38"/>
+      <c r="B3" s="38" t="s">
+        <v>1128</v>
+      </c>
       <c r="C3" s="38">
         <v>1.2</v>
       </c>
@@ -12376,7 +12715,9 @@
       <c r="A4" s="38" t="s">
         <v>1035</v>
       </c>
-      <c r="B4" s="38"/>
+      <c r="B4" s="38" t="s">
+        <v>1129</v>
+      </c>
       <c r="C4" s="38">
         <v>1.4</v>
       </c>
@@ -12391,7 +12732,9 @@
       <c r="A5" s="38" t="s">
         <v>400</v>
       </c>
-      <c r="B5" s="38"/>
+      <c r="B5" s="38" t="s">
+        <v>1114</v>
+      </c>
       <c r="C5" s="38">
         <v>1</v>
       </c>
@@ -12415,9 +12758,7 @@
   </sheetPr>
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:E5"/>
-    </sheetView>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -12454,7 +12795,9 @@
       <c r="A2" s="38" t="s">
         <v>1085</v>
       </c>
-      <c r="B2" s="38"/>
+      <c r="B2" s="38" t="s">
+        <v>1130</v>
+      </c>
       <c r="C2" s="38">
         <v>1</v>
       </c>
@@ -12469,7 +12812,9 @@
       <c r="A3" s="38" t="s">
         <v>1034</v>
       </c>
-      <c r="B3" s="38"/>
+      <c r="B3" s="38" t="s">
+        <v>1131</v>
+      </c>
       <c r="C3" s="38">
         <v>1.2</v>
       </c>
@@ -12484,7 +12829,9 @@
       <c r="A4" s="38" t="s">
         <v>1035</v>
       </c>
-      <c r="B4" s="38"/>
+      <c r="B4" s="38" t="s">
+        <v>1132</v>
+      </c>
       <c r="C4" s="38">
         <v>1.4</v>
       </c>
@@ -12499,7 +12846,9 @@
       <c r="A5" s="38" t="s">
         <v>400</v>
       </c>
-      <c r="B5" s="38"/>
+      <c r="B5" s="38" t="s">
+        <v>1114</v>
+      </c>
       <c r="C5" s="38">
         <v>1</v>
       </c>
@@ -12523,9 +12872,7 @@
   </sheetPr>
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:E5"/>
-    </sheetView>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -12562,7 +12909,9 @@
       <c r="A2" s="38" t="s">
         <v>1085</v>
       </c>
-      <c r="B2" s="38"/>
+      <c r="B2" s="38" t="s">
+        <v>1133</v>
+      </c>
       <c r="C2" s="38">
         <v>1</v>
       </c>
@@ -12577,7 +12926,9 @@
       <c r="A3" s="38" t="s">
         <v>1034</v>
       </c>
-      <c r="B3" s="38"/>
+      <c r="B3" s="38" t="s">
+        <v>1134</v>
+      </c>
       <c r="C3" s="38">
         <v>1.2</v>
       </c>
@@ -12592,7 +12943,9 @@
       <c r="A4" s="38" t="s">
         <v>1035</v>
       </c>
-      <c r="B4" s="38"/>
+      <c r="B4" s="38" t="s">
+        <v>1135</v>
+      </c>
       <c r="C4" s="38">
         <v>1.4</v>
       </c>
@@ -12607,7 +12960,9 @@
       <c r="A5" s="38" t="s">
         <v>400</v>
       </c>
-      <c r="B5" s="38"/>
+      <c r="B5" s="38" t="s">
+        <v>1114</v>
+      </c>
       <c r="C5" s="38">
         <v>1</v>
       </c>
@@ -12631,9 +12986,7 @@
   </sheetPr>
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:E5"/>
-    </sheetView>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -12670,7 +13023,9 @@
       <c r="A2" s="38" t="s">
         <v>1085</v>
       </c>
-      <c r="B2" s="38"/>
+      <c r="B2" s="38" t="s">
+        <v>1136</v>
+      </c>
       <c r="C2" s="38">
         <v>1</v>
       </c>
@@ -12685,7 +13040,9 @@
       <c r="A3" s="38" t="s">
         <v>1034</v>
       </c>
-      <c r="B3" s="38"/>
+      <c r="B3" s="38" t="s">
+        <v>1137</v>
+      </c>
       <c r="C3" s="38">
         <v>1.2</v>
       </c>
@@ -12700,7 +13057,9 @@
       <c r="A4" s="38" t="s">
         <v>1035</v>
       </c>
-      <c r="B4" s="38"/>
+      <c r="B4" s="38" t="s">
+        <v>1138</v>
+      </c>
       <c r="C4" s="38">
         <v>1.4</v>
       </c>
@@ -12715,7 +13074,9 @@
       <c r="A5" s="38" t="s">
         <v>400</v>
       </c>
-      <c r="B5" s="38"/>
+      <c r="B5" s="38" t="s">
+        <v>1114</v>
+      </c>
       <c r="C5" s="38">
         <v>1</v>
       </c>
@@ -12739,9 +13100,7 @@
   </sheetPr>
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:E5"/>
-    </sheetView>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -12778,7 +13137,9 @@
       <c r="A2" s="38" t="s">
         <v>1085</v>
       </c>
-      <c r="B2" s="38"/>
+      <c r="B2" s="38" t="s">
+        <v>1139</v>
+      </c>
       <c r="C2" s="38">
         <v>1</v>
       </c>
@@ -12793,7 +13154,9 @@
       <c r="A3" s="38" t="s">
         <v>1034</v>
       </c>
-      <c r="B3" s="38"/>
+      <c r="B3" s="38" t="s">
+        <v>1140</v>
+      </c>
       <c r="C3" s="38">
         <v>1.2</v>
       </c>
@@ -12808,7 +13171,9 @@
       <c r="A4" s="38" t="s">
         <v>1035</v>
       </c>
-      <c r="B4" s="38"/>
+      <c r="B4" s="38" t="s">
+        <v>1141</v>
+      </c>
       <c r="C4" s="38">
         <v>1.4</v>
       </c>
@@ -12823,7 +13188,9 @@
       <c r="A5" s="38" t="s">
         <v>400</v>
       </c>
-      <c r="B5" s="38"/>
+      <c r="B5" s="38" t="s">
+        <v>1114</v>
+      </c>
       <c r="C5" s="38">
         <v>1</v>
       </c>
@@ -12847,9 +13214,7 @@
   </sheetPr>
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:E5"/>
-    </sheetView>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -12886,7 +13251,9 @@
       <c r="A2" s="38" t="s">
         <v>1085</v>
       </c>
-      <c r="B2" s="38"/>
+      <c r="B2" s="38" t="s">
+        <v>1142</v>
+      </c>
       <c r="C2" s="38">
         <v>1</v>
       </c>
@@ -12901,7 +13268,9 @@
       <c r="A3" s="38" t="s">
         <v>1034</v>
       </c>
-      <c r="B3" s="38"/>
+      <c r="B3" s="38" t="s">
+        <v>1143</v>
+      </c>
       <c r="C3" s="38">
         <v>1.2</v>
       </c>
@@ -12916,7 +13285,9 @@
       <c r="A4" s="38" t="s">
         <v>1035</v>
       </c>
-      <c r="B4" s="38"/>
+      <c r="B4" s="38" t="s">
+        <v>1144</v>
+      </c>
       <c r="C4" s="38">
         <v>1.4</v>
       </c>
@@ -12931,7 +13302,9 @@
       <c r="A5" s="38" t="s">
         <v>400</v>
       </c>
-      <c r="B5" s="38"/>
+      <c r="B5" s="38" t="s">
+        <v>1114</v>
+      </c>
       <c r="C5" s="38">
         <v>1</v>
       </c>
@@ -12955,9 +13328,7 @@
   </sheetPr>
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:E5"/>
-    </sheetView>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -12994,7 +13365,9 @@
       <c r="A2" s="38" t="s">
         <v>1085</v>
       </c>
-      <c r="B2" s="38"/>
+      <c r="B2" s="38" t="s">
+        <v>1145</v>
+      </c>
       <c r="C2" s="38">
         <v>1</v>
       </c>
@@ -13009,7 +13382,9 @@
       <c r="A3" s="38" t="s">
         <v>1034</v>
       </c>
-      <c r="B3" s="38"/>
+      <c r="B3" s="38" t="s">
+        <v>1146</v>
+      </c>
       <c r="C3" s="38">
         <v>1.2</v>
       </c>
@@ -13024,7 +13399,9 @@
       <c r="A4" s="38" t="s">
         <v>1035</v>
       </c>
-      <c r="B4" s="38"/>
+      <c r="B4" s="38" t="s">
+        <v>1147</v>
+      </c>
       <c r="C4" s="38">
         <v>1.4</v>
       </c>
@@ -13039,7 +13416,9 @@
       <c r="A5" s="38" t="s">
         <v>400</v>
       </c>
-      <c r="B5" s="38"/>
+      <c r="B5" s="38" t="s">
+        <v>1114</v>
+      </c>
       <c r="C5" s="38">
         <v>1</v>
       </c>
@@ -13063,9 +13442,7 @@
   </sheetPr>
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:E5"/>
-    </sheetView>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -13102,7 +13479,9 @@
       <c r="A2" s="38" t="s">
         <v>1085</v>
       </c>
-      <c r="B2" s="38"/>
+      <c r="B2" s="38" t="s">
+        <v>1148</v>
+      </c>
       <c r="C2" s="38">
         <v>1</v>
       </c>
@@ -13117,7 +13496,9 @@
       <c r="A3" s="38" t="s">
         <v>1034</v>
       </c>
-      <c r="B3" s="38"/>
+      <c r="B3" s="38" t="s">
+        <v>1149</v>
+      </c>
       <c r="C3" s="38">
         <v>1.2</v>
       </c>
@@ -13132,7 +13513,9 @@
       <c r="A4" s="38" t="s">
         <v>1035</v>
       </c>
-      <c r="B4" s="38"/>
+      <c r="B4" s="38" t="s">
+        <v>1150</v>
+      </c>
       <c r="C4" s="38">
         <v>1.4</v>
       </c>
@@ -13147,7 +13530,9 @@
       <c r="A5" s="38" t="s">
         <v>400</v>
       </c>
-      <c r="B5" s="38"/>
+      <c r="B5" s="38" t="s">
+        <v>1114</v>
+      </c>
       <c r="C5" s="38">
         <v>1</v>
       </c>
@@ -13809,9 +14194,7 @@
   </sheetPr>
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E1"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -13848,7 +14231,9 @@
       <c r="A2" s="38" t="s">
         <v>1085</v>
       </c>
-      <c r="B2" s="38"/>
+      <c r="B2" s="38" t="s">
+        <v>1151</v>
+      </c>
       <c r="C2" s="38">
         <v>1</v>
       </c>
@@ -13863,7 +14248,9 @@
       <c r="A3" s="38" t="s">
         <v>1034</v>
       </c>
-      <c r="B3" s="38"/>
+      <c r="B3" s="38" t="s">
+        <v>1152</v>
+      </c>
       <c r="C3" s="38">
         <v>1.2</v>
       </c>
@@ -13878,7 +14265,9 @@
       <c r="A4" s="38" t="s">
         <v>1035</v>
       </c>
-      <c r="B4" s="38"/>
+      <c r="B4" s="38" t="s">
+        <v>1153</v>
+      </c>
       <c r="C4" s="38">
         <v>1.4</v>
       </c>
@@ -13893,7 +14282,9 @@
       <c r="A5" s="38" t="s">
         <v>400</v>
       </c>
-      <c r="B5" s="38"/>
+      <c r="B5" s="38" t="s">
+        <v>1114</v>
+      </c>
       <c r="C5" s="38">
         <v>1</v>
       </c>
@@ -16106,22 +16497,22 @@
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A59" s="49" t="s">
-        <v>1113</v>
-      </c>
-      <c r="B59" s="49">
+      <c r="A59" s="48" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B59" s="48">
         <v>9297</v>
       </c>
-      <c r="C59" s="49">
+      <c r="C59" s="48">
         <v>4823</v>
       </c>
-      <c r="D59" s="49">
+      <c r="D59" s="48">
         <v>3809</v>
       </c>
-      <c r="E59" s="49">
+      <c r="E59" s="48">
         <v>4343</v>
       </c>
-      <c r="F59" s="49">
+      <c r="F59" s="48">
         <v>22271</v>
       </c>
     </row>
@@ -22374,11 +22765,11 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="49" t="s">
+      <c r="A35" s="48" t="s">
         <v>1076</v>
       </c>
-      <c r="B35" s="49"/>
-      <c r="C35" s="49">
+      <c r="B35" s="48"/>
+      <c r="C35" s="48">
         <v>60</v>
       </c>
     </row>
@@ -25069,7 +25460,9 @@
       <c r="A2" s="47" t="s">
         <v>1088</v>
       </c>
-      <c r="B2" s="47"/>
+      <c r="B2" s="47" t="s">
+        <v>1154</v>
+      </c>
       <c r="C2" s="47">
         <v>1</v>
       </c>
@@ -25084,7 +25477,9 @@
       <c r="A3" s="47" t="s">
         <v>1089</v>
       </c>
-      <c r="B3" s="47"/>
+      <c r="B3" s="47" t="s">
+        <v>1155</v>
+      </c>
       <c r="C3" s="47">
         <v>1.3</v>
       </c>
@@ -25099,7 +25494,9 @@
       <c r="A4" s="47" t="s">
         <v>1090</v>
       </c>
-      <c r="B4" s="47"/>
+      <c r="B4" s="47" t="s">
+        <v>1156</v>
+      </c>
       <c r="C4" s="47">
         <v>1.6</v>
       </c>
@@ -25114,7 +25511,9 @@
       <c r="A5" s="47" t="s">
         <v>400</v>
       </c>
-      <c r="B5" s="47"/>
+      <c r="B5" s="47" t="s">
+        <v>1114</v>
+      </c>
       <c r="C5" s="47">
         <v>1</v>
       </c>
@@ -25138,9 +25537,7 @@
   </sheetPr>
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
-    </sheetView>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -25154,7 +25551,7 @@
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="46" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="B1" s="46" t="s">
         <v>1081</v>
@@ -25173,7 +25570,9 @@
       <c r="A2" s="47" t="s">
         <v>1091</v>
       </c>
-      <c r="B2" s="47"/>
+      <c r="B2" s="47" t="s">
+        <v>1157</v>
+      </c>
       <c r="C2" s="47">
         <v>1</v>
       </c>
@@ -25188,7 +25587,9 @@
       <c r="A3" s="47" t="s">
         <v>1092</v>
       </c>
-      <c r="B3" s="47"/>
+      <c r="B3" s="47" t="s">
+        <v>1158</v>
+      </c>
       <c r="C3" s="47">
         <v>1.3</v>
       </c>
@@ -25203,7 +25604,9 @@
       <c r="A4" s="47" t="s">
         <v>1093</v>
       </c>
-      <c r="B4" s="47"/>
+      <c r="B4" s="47" t="s">
+        <v>1159</v>
+      </c>
       <c r="C4" s="47">
         <v>1.6</v>
       </c>
@@ -25218,7 +25621,9 @@
       <c r="A5" s="47" t="s">
         <v>400</v>
       </c>
-      <c r="B5" s="47"/>
+      <c r="B5" s="47" t="s">
+        <v>1114</v>
+      </c>
       <c r="C5" s="47">
         <v>1</v>
       </c>
@@ -25242,9 +25647,7 @@
   </sheetPr>
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
-    </sheetView>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -25258,7 +25661,7 @@
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="46" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="B1" s="46" t="s">
         <v>1081</v>
@@ -25277,7 +25680,9 @@
       <c r="A2" s="47" t="s">
         <v>1088</v>
       </c>
-      <c r="B2" s="47"/>
+      <c r="B2" s="47" t="s">
+        <v>1160</v>
+      </c>
       <c r="C2" s="47">
         <v>1</v>
       </c>
@@ -25292,7 +25697,9 @@
       <c r="A3" s="47" t="s">
         <v>1094</v>
       </c>
-      <c r="B3" s="47"/>
+      <c r="B3" s="47" t="s">
+        <v>1161</v>
+      </c>
       <c r="C3" s="47">
         <v>1.1000000000000001</v>
       </c>
@@ -25307,7 +25714,9 @@
       <c r="A4" s="47" t="s">
         <v>1095</v>
       </c>
-      <c r="B4" s="47"/>
+      <c r="B4" s="47" t="s">
+        <v>1162</v>
+      </c>
       <c r="C4" s="47">
         <v>1.5</v>
       </c>
@@ -25322,7 +25731,9 @@
       <c r="A5" s="47" t="s">
         <v>400</v>
       </c>
-      <c r="B5" s="47"/>
+      <c r="B5" s="47" t="s">
+        <v>1114</v>
+      </c>
       <c r="C5" s="47">
         <v>1</v>
       </c>
@@ -25346,9 +25757,7 @@
   </sheetPr>
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:E5"/>
-    </sheetView>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -25362,7 +25771,7 @@
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="46" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="B1" s="46" t="s">
         <v>1081</v>
@@ -25381,7 +25790,9 @@
       <c r="A2" s="47" t="s">
         <v>1096</v>
       </c>
-      <c r="B2" s="47"/>
+      <c r="B2" s="47" t="s">
+        <v>1163</v>
+      </c>
       <c r="C2" s="47">
         <v>1</v>
       </c>
@@ -25396,7 +25807,9 @@
       <c r="A3" s="47" t="s">
         <v>1097</v>
       </c>
-      <c r="B3" s="47"/>
+      <c r="B3" s="47" t="s">
+        <v>1164</v>
+      </c>
       <c r="C3" s="47">
         <v>1.3</v>
       </c>
@@ -25411,7 +25824,9 @@
       <c r="A4" s="47" t="s">
         <v>1098</v>
       </c>
-      <c r="B4" s="47"/>
+      <c r="B4" s="47" t="s">
+        <v>1165</v>
+      </c>
       <c r="C4" s="47">
         <v>1.6</v>
       </c>
@@ -25426,7 +25841,9 @@
       <c r="A5" s="47" t="s">
         <v>400</v>
       </c>
-      <c r="B5" s="47"/>
+      <c r="B5" s="47" t="s">
+        <v>1114</v>
+      </c>
       <c r="C5" s="47">
         <v>1</v>
       </c>
@@ -25448,11 +25865,9 @@
   <sheetPr>
     <tabColor theme="5"/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:E6"/>
-    </sheetView>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -25466,7 +25881,7 @@
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="46" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="B1" s="46" t="s">
         <v>1081</v>
@@ -25483,76 +25898,103 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="47" t="s">
-        <v>1021</v>
-      </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="48">
+        <v>1187</v>
+      </c>
+      <c r="B2" s="50" t="s">
+        <v>1166</v>
+      </c>
+      <c r="C2" s="51">
         <v>1</v>
       </c>
-      <c r="D2" s="48">
-        <v>10</v>
-      </c>
-      <c r="E2" s="48">
+      <c r="D2" s="51">
+        <v>1</v>
+      </c>
+      <c r="E2" s="51">
         <v>0.5</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="47" t="s">
-        <v>1022</v>
-      </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="48">
+        <v>1188</v>
+      </c>
+      <c r="B3" s="38" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C3" s="38">
         <v>1.3</v>
       </c>
-      <c r="D3" s="48">
-        <v>10</v>
-      </c>
-      <c r="E3" s="48">
-        <v>4</v>
+      <c r="D3" s="38">
+        <v>1.3</v>
+      </c>
+      <c r="E3" s="38">
+        <v>0.5</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="47" t="s">
-        <v>1099</v>
-      </c>
-      <c r="B4" s="47"/>
-      <c r="C4" s="48">
-        <v>1.6</v>
-      </c>
-      <c r="D4" s="48">
-        <v>10</v>
-      </c>
-      <c r="E4" s="48">
-        <v>5.5</v>
+        <v>1189</v>
+      </c>
+      <c r="B4" s="50" t="s">
+        <v>1167</v>
+      </c>
+      <c r="C4" s="51">
+        <v>2</v>
+      </c>
+      <c r="D4" s="51">
+        <v>2</v>
+      </c>
+      <c r="E4" s="51">
+        <v>0.5</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="47" t="s">
-        <v>1100</v>
-      </c>
-      <c r="B5" s="47"/>
-      <c r="C5" s="48">
-        <v>1.8</v>
-      </c>
-      <c r="D5" s="48">
-        <v>10</v>
-      </c>
-      <c r="E5" s="48">
-        <v>8</v>
+        <v>1190</v>
+      </c>
+      <c r="B5" s="50" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C5" s="51">
+        <v>4</v>
+      </c>
+      <c r="D5" s="51">
+        <v>4</v>
+      </c>
+      <c r="E5" s="51">
+        <v>0.5</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="47" t="s">
+        <v>1191</v>
+      </c>
+      <c r="B6" s="50" t="s">
+        <v>1169</v>
+      </c>
+      <c r="C6" s="51">
+        <v>6</v>
+      </c>
+      <c r="D6" s="51">
+        <v>6</v>
+      </c>
+      <c r="E6" s="51">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="47" t="s">
         <v>400</v>
       </c>
-      <c r="B6" s="47"/>
-      <c r="C6" s="48">
+      <c r="B7" s="47" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C7" s="51">
         <v>1</v>
       </c>
-      <c r="D6" s="48">
-        <v>10</v>
-      </c>
-      <c r="E6" s="48">
+      <c r="D7" s="51">
+        <v>10</v>
+      </c>
+      <c r="E7" s="51">
         <v>0.5</v>
       </c>
     </row>
@@ -25567,11 +26009,9 @@
   <sheetPr>
     <tabColor theme="5"/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:E6"/>
-    </sheetView>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -25585,7 +26025,7 @@
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="46" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="B1" s="46" t="s">
         <v>1081</v>
@@ -25602,76 +26042,103 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="47" t="s">
-        <v>1021</v>
-      </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="48">
+        <v>1194</v>
+      </c>
+      <c r="B2" s="52" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C2" s="52">
         <v>1</v>
       </c>
-      <c r="D2" s="48">
-        <v>10</v>
-      </c>
-      <c r="E2" s="48">
+      <c r="D2" s="52">
+        <v>1</v>
+      </c>
+      <c r="E2" s="52">
         <v>0.5</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="47" t="s">
-        <v>1022</v>
-      </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="48">
+        <v>1195</v>
+      </c>
+      <c r="B3" s="52" t="s">
+        <v>1193</v>
+      </c>
+      <c r="C3" s="52">
         <v>1.3</v>
       </c>
-      <c r="D3" s="48">
-        <v>10</v>
-      </c>
-      <c r="E3" s="48">
-        <v>4</v>
+      <c r="D3" s="52">
+        <v>1.3</v>
+      </c>
+      <c r="E3" s="52">
+        <v>0.5</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="47" t="s">
-        <v>1099</v>
-      </c>
-      <c r="B4" s="47"/>
-      <c r="C4" s="48">
-        <v>1.6</v>
-      </c>
-      <c r="D4" s="48">
-        <v>10</v>
-      </c>
-      <c r="E4" s="48">
-        <v>5.5</v>
+        <v>1196</v>
+      </c>
+      <c r="B4" s="52" t="s">
+        <v>1170</v>
+      </c>
+      <c r="C4" s="52">
+        <v>2</v>
+      </c>
+      <c r="D4" s="52">
+        <v>2</v>
+      </c>
+      <c r="E4" s="52">
+        <v>0.5</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="47" t="s">
-        <v>1100</v>
-      </c>
-      <c r="B5" s="47"/>
-      <c r="C5" s="48">
-        <v>1.8</v>
-      </c>
-      <c r="D5" s="48">
-        <v>10</v>
-      </c>
-      <c r="E5" s="48">
-        <v>8</v>
+        <v>1197</v>
+      </c>
+      <c r="B5" s="52" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C5" s="52">
+        <v>4</v>
+      </c>
+      <c r="D5" s="52">
+        <v>4</v>
+      </c>
+      <c r="E5" s="52">
+        <v>0.5</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="47" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B6" s="52" t="s">
+        <v>1172</v>
+      </c>
+      <c r="C6" s="52">
+        <v>6</v>
+      </c>
+      <c r="D6" s="52">
+        <v>6</v>
+      </c>
+      <c r="E6" s="52">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="47" t="s">
         <v>400</v>
       </c>
-      <c r="B6" s="47"/>
-      <c r="C6" s="48">
+      <c r="B7" s="52" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C7" s="52">
         <v>1</v>
       </c>
-      <c r="D6" s="48">
-        <v>10</v>
-      </c>
-      <c r="E6" s="48">
+      <c r="D7" s="52">
+        <v>10</v>
+      </c>
+      <c r="E7" s="52">
         <v>0.5</v>
       </c>
     </row>
@@ -25688,9 +26155,7 @@
   </sheetPr>
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:E6"/>
-    </sheetView>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -25704,7 +26169,7 @@
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="46" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="B1" s="46" t="s">
         <v>1081</v>
@@ -25721,76 +26186,86 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="47" t="s">
-        <v>1021</v>
-      </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="48">
+        <v>1199</v>
+      </c>
+      <c r="B2" s="50" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C2" s="51">
         <v>1</v>
       </c>
-      <c r="D2" s="48">
-        <v>10</v>
-      </c>
-      <c r="E2" s="48">
+      <c r="D2" s="51">
+        <v>1</v>
+      </c>
+      <c r="E2" s="51">
         <v>0.5</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="47" t="s">
-        <v>1022</v>
-      </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="48">
-        <v>1.3</v>
-      </c>
-      <c r="D3" s="48">
-        <v>10</v>
-      </c>
-      <c r="E3" s="48">
-        <v>4</v>
+        <v>1200</v>
+      </c>
+      <c r="B3" s="50" t="s">
+        <v>1174</v>
+      </c>
+      <c r="C3" s="51">
+        <v>2</v>
+      </c>
+      <c r="D3" s="51">
+        <v>2</v>
+      </c>
+      <c r="E3" s="51">
+        <v>0.5</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="47" t="s">
-        <v>1099</v>
-      </c>
-      <c r="B4" s="47"/>
-      <c r="C4" s="48">
-        <v>1.6</v>
-      </c>
-      <c r="D4" s="48">
-        <v>10</v>
-      </c>
-      <c r="E4" s="48">
-        <v>5.5</v>
+        <v>1201</v>
+      </c>
+      <c r="B4" s="50" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C4" s="51">
+        <v>4</v>
+      </c>
+      <c r="D4" s="51">
+        <v>4</v>
+      </c>
+      <c r="E4" s="51">
+        <v>0.5</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="47" t="s">
-        <v>1100</v>
-      </c>
-      <c r="B5" s="47"/>
-      <c r="C5" s="48">
-        <v>1.8</v>
-      </c>
-      <c r="D5" s="48">
-        <v>10</v>
-      </c>
-      <c r="E5" s="48">
-        <v>8</v>
+        <v>1191</v>
+      </c>
+      <c r="B5" s="50" t="s">
+        <v>1176</v>
+      </c>
+      <c r="C5" s="51">
+        <v>6</v>
+      </c>
+      <c r="D5" s="51">
+        <v>6</v>
+      </c>
+      <c r="E5" s="51">
+        <v>0.5</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="47" t="s">
         <v>400</v>
       </c>
-      <c r="B6" s="47"/>
-      <c r="C6" s="48">
-        <v>1</v>
-      </c>
-      <c r="D6" s="48">
-        <v>10</v>
-      </c>
-      <c r="E6" s="48">
+      <c r="B6" s="47" t="s">
+        <v>1177</v>
+      </c>
+      <c r="C6" s="51">
+        <v>1.5</v>
+      </c>
+      <c r="D6" s="51">
+        <v>10</v>
+      </c>
+      <c r="E6" s="51">
         <v>0.5</v>
       </c>
     </row>
@@ -25805,15 +26280,13 @@
   <sheetPr>
     <tabColor theme="5"/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:E6"/>
-    </sheetView>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="42.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27.77734375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="35.44140625" bestFit="1" customWidth="1"/>
@@ -25823,7 +26296,7 @@
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="46" t="s">
-        <v>1108</v>
+        <v>1205</v>
       </c>
       <c r="B1" s="46" t="s">
         <v>1081</v>
@@ -25840,76 +26313,103 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="47" t="s">
-        <v>1021</v>
-      </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="48">
+        <v>1194</v>
+      </c>
+      <c r="B2" s="52" t="s">
+        <v>1203</v>
+      </c>
+      <c r="C2" s="52">
         <v>1</v>
       </c>
-      <c r="D2" s="48">
-        <v>10</v>
-      </c>
-      <c r="E2" s="48">
+      <c r="D2" s="52">
+        <v>1</v>
+      </c>
+      <c r="E2" s="52">
         <v>0.5</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="47" t="s">
-        <v>1022</v>
-      </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="48">
+        <v>1195</v>
+      </c>
+      <c r="B3" s="52" t="s">
+        <v>1204</v>
+      </c>
+      <c r="C3" s="52">
         <v>1.3</v>
       </c>
-      <c r="D3" s="48">
-        <v>10</v>
-      </c>
-      <c r="E3" s="48">
-        <v>4</v>
+      <c r="D3" s="52">
+        <v>1.3</v>
+      </c>
+      <c r="E3" s="52">
+        <v>0.5</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="47" t="s">
-        <v>1099</v>
-      </c>
-      <c r="B4" s="47"/>
-      <c r="C4" s="48">
-        <v>1.6</v>
-      </c>
-      <c r="D4" s="48">
-        <v>10</v>
-      </c>
-      <c r="E4" s="48">
-        <v>5.5</v>
+        <v>1196</v>
+      </c>
+      <c r="B4" s="52" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C4" s="52">
+        <v>2</v>
+      </c>
+      <c r="D4" s="52">
+        <v>2</v>
+      </c>
+      <c r="E4" s="52">
+        <v>0.5</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="47" t="s">
-        <v>1100</v>
-      </c>
-      <c r="B5" s="47"/>
-      <c r="C5" s="48">
-        <v>1.8</v>
-      </c>
-      <c r="D5" s="48">
-        <v>10</v>
-      </c>
-      <c r="E5" s="48">
-        <v>8</v>
+        <v>1197</v>
+      </c>
+      <c r="B5" s="52" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C5" s="52">
+        <v>4</v>
+      </c>
+      <c r="D5" s="52">
+        <v>4</v>
+      </c>
+      <c r="E5" s="52">
+        <v>0.5</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="47" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B6" s="52" t="s">
+        <v>1180</v>
+      </c>
+      <c r="C6" s="52">
+        <v>6</v>
+      </c>
+      <c r="D6" s="52">
+        <v>6</v>
+      </c>
+      <c r="E6" s="52">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="47" t="s">
         <v>400</v>
       </c>
-      <c r="B6" s="47"/>
-      <c r="C6" s="48">
-        <v>1</v>
-      </c>
-      <c r="D6" s="48">
-        <v>10</v>
-      </c>
-      <c r="E6" s="48">
+      <c r="B7" s="52" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C7" s="52">
+        <v>1.5</v>
+      </c>
+      <c r="D7" s="52">
+        <v>10</v>
+      </c>
+      <c r="E7" s="52">
         <v>0.5</v>
       </c>
     </row>
@@ -25924,11 +26424,9 @@
   <sheetPr>
     <tabColor theme="5"/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:E6"/>
-    </sheetView>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -25942,7 +26440,7 @@
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="46" t="s">
-        <v>1109</v>
+        <v>1106</v>
       </c>
       <c r="B1" s="46" t="s">
         <v>1081</v>
@@ -25959,76 +26457,103 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="47" t="s">
-        <v>1021</v>
-      </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="48">
+        <v>1194</v>
+      </c>
+      <c r="B2" s="52" t="s">
+        <v>1206</v>
+      </c>
+      <c r="C2" s="52">
         <v>1</v>
       </c>
-      <c r="D2" s="48">
-        <v>10</v>
-      </c>
-      <c r="E2" s="48">
+      <c r="D2" s="52">
+        <v>1</v>
+      </c>
+      <c r="E2" s="52">
         <v>0.5</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="47" t="s">
-        <v>1022</v>
-      </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="48">
+        <v>1195</v>
+      </c>
+      <c r="B3" s="52" t="s">
+        <v>1207</v>
+      </c>
+      <c r="C3" s="52">
         <v>1.3</v>
       </c>
-      <c r="D3" s="48">
-        <v>10</v>
-      </c>
-      <c r="E3" s="48">
-        <v>4</v>
+      <c r="D3" s="52">
+        <v>1.3</v>
+      </c>
+      <c r="E3" s="52">
+        <v>0.5</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="47" t="s">
-        <v>1099</v>
-      </c>
-      <c r="B4" s="47"/>
-      <c r="C4" s="48">
-        <v>1.6</v>
-      </c>
-      <c r="D4" s="48">
-        <v>10</v>
-      </c>
-      <c r="E4" s="48">
-        <v>5.5</v>
+        <v>1196</v>
+      </c>
+      <c r="B4" s="52" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C4" s="52">
+        <v>2</v>
+      </c>
+      <c r="D4" s="52">
+        <v>2</v>
+      </c>
+      <c r="E4" s="52">
+        <v>0.5</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="47" t="s">
-        <v>1100</v>
-      </c>
-      <c r="B5" s="47"/>
-      <c r="C5" s="48">
-        <v>1.8</v>
-      </c>
-      <c r="D5" s="48">
-        <v>10</v>
-      </c>
-      <c r="E5" s="48">
-        <v>8</v>
+        <v>1197</v>
+      </c>
+      <c r="B5" s="52" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C5" s="52">
+        <v>4</v>
+      </c>
+      <c r="D5" s="52">
+        <v>4</v>
+      </c>
+      <c r="E5" s="52">
+        <v>0.5</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="47" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B6" s="52" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C6" s="52">
+        <v>6</v>
+      </c>
+      <c r="D6" s="52">
+        <v>6</v>
+      </c>
+      <c r="E6" s="52">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="47" t="s">
         <v>400</v>
       </c>
-      <c r="B6" s="47"/>
-      <c r="C6" s="48">
+      <c r="B7" s="52" t="s">
+        <v>1185</v>
+      </c>
+      <c r="C7" s="52">
         <v>1</v>
       </c>
-      <c r="D6" s="48">
-        <v>10</v>
-      </c>
-      <c r="E6" s="48">
+      <c r="D7" s="52">
+        <v>10</v>
+      </c>
+      <c r="E7" s="52">
         <v>0.5</v>
       </c>
     </row>
@@ -26043,11 +26568,9 @@
   <sheetPr>
     <tabColor theme="5"/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:E5"/>
-    </sheetView>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -26061,7 +26584,7 @@
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="46" t="s">
-        <v>1110</v>
+        <v>1107</v>
       </c>
       <c r="B1" s="46" t="s">
         <v>1081</v>
@@ -26078,61 +26601,103 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="47" t="s">
-        <v>594</v>
-      </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="48">
+        <v>1213</v>
+      </c>
+      <c r="B2" s="52" t="s">
+        <v>1208</v>
+      </c>
+      <c r="C2" s="52">
         <v>1</v>
       </c>
-      <c r="D2" s="48">
-        <v>10</v>
-      </c>
-      <c r="E2" s="48">
+      <c r="D2" s="52">
+        <v>1</v>
+      </c>
+      <c r="E2" s="52">
         <v>0.5</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="47" t="s">
-        <v>1101</v>
-      </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="48">
+        <v>1021</v>
+      </c>
+      <c r="B3" s="52" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C3" s="52">
         <v>1.3</v>
       </c>
-      <c r="D3" s="48">
-        <v>10</v>
-      </c>
-      <c r="E3" s="48">
-        <v>4</v>
+      <c r="D3" s="52">
+        <v>1.3</v>
+      </c>
+      <c r="E3" s="52">
+        <v>0.5</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="47" t="s">
-        <v>1031</v>
-      </c>
-      <c r="B4" s="47"/>
-      <c r="C4" s="48">
-        <v>1.6</v>
-      </c>
-      <c r="D4" s="48">
-        <v>10</v>
-      </c>
-      <c r="E4" s="48">
-        <v>8</v>
+        <v>1022</v>
+      </c>
+      <c r="B4" s="52" t="s">
+        <v>1212</v>
+      </c>
+      <c r="C4" s="52">
+        <v>2</v>
+      </c>
+      <c r="D4" s="52">
+        <v>2</v>
+      </c>
+      <c r="E4" s="52">
+        <v>0.5</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="47" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B5" s="52" t="s">
+        <v>1209</v>
+      </c>
+      <c r="C5" s="52">
+        <v>4</v>
+      </c>
+      <c r="D5" s="52">
+        <v>4</v>
+      </c>
+      <c r="E5" s="52">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="47" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B6" s="52" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C6" s="52">
+        <v>6</v>
+      </c>
+      <c r="D6" s="52">
+        <v>6</v>
+      </c>
+      <c r="E6" s="52">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="47" t="s">
         <v>400</v>
       </c>
-      <c r="B5" s="47"/>
-      <c r="C5" s="48">
+      <c r="B7" s="52" t="s">
+        <v>1186</v>
+      </c>
+      <c r="C7" s="52">
         <v>1</v>
       </c>
-      <c r="D5" s="48">
-        <v>10</v>
-      </c>
-      <c r="E5" s="48">
+      <c r="D7" s="52">
+        <v>10</v>
+      </c>
+      <c r="E7" s="52">
         <v>0.5</v>
       </c>
     </row>
@@ -54938,10 +55503,10 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="49" t="s">
-        <v>1113</v>
-      </c>
-      <c r="B23" s="50" t="s">
+      <c r="A23" s="48" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B23" s="49" t="s">
         <v>406</v>
       </c>
     </row>

--- a/data-raw/excel-spreadsheets/table_data.xlsx
+++ b/data-raw/excel-spreadsheets/table_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\CNAIM\data-raw\excel-spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09FCF618-1334-4182-8EEB-1C329EE8C4E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4FC695A-7111-4AF4-8AB4-51F55C2C71C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="870" firstSheet="146" activeTab="159" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="870" firstSheet="213" activeTab="228" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -4240,7 +4240,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4326,8 +4326,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -14194,7 +14195,7 @@
   </sheetPr>
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -25903,13 +25904,13 @@
       <c r="B2" s="50" t="s">
         <v>1166</v>
       </c>
-      <c r="C2" s="51">
+      <c r="C2" s="52">
         <v>1</v>
       </c>
-      <c r="D2" s="51">
-        <v>1</v>
-      </c>
-      <c r="E2" s="51">
+      <c r="D2" s="52">
+        <v>10</v>
+      </c>
+      <c r="E2" s="52">
         <v>0.5</v>
       </c>
     </row>
@@ -25920,13 +25921,13 @@
       <c r="B3" s="38" t="s">
         <v>1192</v>
       </c>
-      <c r="C3" s="38">
-        <v>1.3</v>
-      </c>
-      <c r="D3" s="38">
-        <v>1.3</v>
-      </c>
-      <c r="E3" s="38">
+      <c r="C3" s="53">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D3" s="53">
+        <v>10</v>
+      </c>
+      <c r="E3" s="53">
         <v>0.5</v>
       </c>
     </row>
@@ -25937,13 +25938,13 @@
       <c r="B4" s="50" t="s">
         <v>1167</v>
       </c>
-      <c r="C4" s="51">
-        <v>2</v>
-      </c>
-      <c r="D4" s="51">
-        <v>2</v>
-      </c>
-      <c r="E4" s="51">
+      <c r="C4" s="52">
+        <v>1.3</v>
+      </c>
+      <c r="D4" s="52">
+        <v>10</v>
+      </c>
+      <c r="E4" s="52">
         <v>0.5</v>
       </c>
     </row>
@@ -25954,14 +25955,14 @@
       <c r="B5" s="50" t="s">
         <v>1168</v>
       </c>
-      <c r="C5" s="51">
-        <v>4</v>
-      </c>
-      <c r="D5" s="51">
-        <v>4</v>
-      </c>
-      <c r="E5" s="51">
-        <v>0.5</v>
+      <c r="C5" s="52">
+        <v>1.5</v>
+      </c>
+      <c r="D5" s="52">
+        <v>10</v>
+      </c>
+      <c r="E5" s="52">
+        <v>5.5</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -25971,14 +25972,14 @@
       <c r="B6" s="50" t="s">
         <v>1169</v>
       </c>
-      <c r="C6" s="51">
-        <v>6</v>
-      </c>
-      <c r="D6" s="51">
-        <v>6</v>
-      </c>
-      <c r="E6" s="51">
-        <v>0.5</v>
+      <c r="C6" s="52">
+        <v>1.6</v>
+      </c>
+      <c r="D6" s="52">
+        <v>10</v>
+      </c>
+      <c r="E6" s="52">
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -25988,19 +25989,19 @@
       <c r="B7" s="47" t="s">
         <v>1114</v>
       </c>
-      <c r="C7" s="51">
+      <c r="C7" s="52">
         <v>1</v>
       </c>
-      <c r="D7" s="51">
-        <v>10</v>
-      </c>
-      <c r="E7" s="51">
+      <c r="D7" s="52">
+        <v>10</v>
+      </c>
+      <c r="E7" s="52">
         <v>0.5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -26044,14 +26045,14 @@
       <c r="A2" s="47" t="s">
         <v>1194</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="51" t="s">
         <v>1202</v>
       </c>
       <c r="C2" s="52">
         <v>1</v>
       </c>
       <c r="D2" s="52">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E2" s="52">
         <v>0.5</v>
@@ -26061,16 +26062,16 @@
       <c r="A3" s="47" t="s">
         <v>1195</v>
       </c>
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="51" t="s">
         <v>1193</v>
       </c>
-      <c r="C3" s="52">
-        <v>1.3</v>
-      </c>
-      <c r="D3" s="52">
-        <v>1.3</v>
-      </c>
-      <c r="E3" s="52">
+      <c r="C3" s="53">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D3" s="53">
+        <v>10</v>
+      </c>
+      <c r="E3" s="53">
         <v>0.5</v>
       </c>
     </row>
@@ -26078,14 +26079,14 @@
       <c r="A4" s="47" t="s">
         <v>1196</v>
       </c>
-      <c r="B4" s="52" t="s">
+      <c r="B4" s="51" t="s">
         <v>1170</v>
       </c>
       <c r="C4" s="52">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="D4" s="52">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E4" s="52">
         <v>0.5</v>
@@ -26095,41 +26096,41 @@
       <c r="A5" s="47" t="s">
         <v>1197</v>
       </c>
-      <c r="B5" s="52" t="s">
+      <c r="B5" s="51" t="s">
         <v>1171</v>
       </c>
       <c r="C5" s="52">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="D5" s="52">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E5" s="52">
-        <v>0.5</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="47" t="s">
         <v>1198</v>
       </c>
-      <c r="B6" s="52" t="s">
+      <c r="B6" s="51" t="s">
         <v>1172</v>
       </c>
       <c r="C6" s="52">
-        <v>6</v>
+        <v>1.6</v>
       </c>
       <c r="D6" s="52">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E6" s="52">
-        <v>0.5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="47" t="s">
         <v>400</v>
       </c>
-      <c r="B7" s="52" t="s">
+      <c r="B7" s="51" t="s">
         <v>1114</v>
       </c>
       <c r="C7" s="52">
@@ -26191,13 +26192,13 @@
       <c r="B2" s="50" t="s">
         <v>1173</v>
       </c>
-      <c r="C2" s="51">
+      <c r="C2" s="52">
         <v>1</v>
       </c>
-      <c r="D2" s="51">
-        <v>1</v>
-      </c>
-      <c r="E2" s="51">
+      <c r="D2" s="52">
+        <v>10</v>
+      </c>
+      <c r="E2" s="52">
         <v>0.5</v>
       </c>
     </row>
@@ -26208,13 +26209,13 @@
       <c r="B3" s="50" t="s">
         <v>1174</v>
       </c>
-      <c r="C3" s="51">
-        <v>2</v>
-      </c>
-      <c r="D3" s="51">
-        <v>2</v>
-      </c>
-      <c r="E3" s="51">
+      <c r="C3" s="52">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D3" s="52">
+        <v>10</v>
+      </c>
+      <c r="E3" s="52">
         <v>0.5</v>
       </c>
     </row>
@@ -26225,14 +26226,14 @@
       <c r="B4" s="50" t="s">
         <v>1175</v>
       </c>
-      <c r="C4" s="51">
-        <v>4</v>
-      </c>
-      <c r="D4" s="51">
-        <v>4</v>
-      </c>
-      <c r="E4" s="51">
-        <v>0.5</v>
+      <c r="C4" s="52">
+        <v>1.3</v>
+      </c>
+      <c r="D4" s="52">
+        <v>10</v>
+      </c>
+      <c r="E4" s="52">
+        <v>5.5</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -26242,14 +26243,14 @@
       <c r="B5" s="50" t="s">
         <v>1176</v>
       </c>
-      <c r="C5" s="51">
-        <v>6</v>
-      </c>
-      <c r="D5" s="51">
-        <v>6</v>
-      </c>
-      <c r="E5" s="51">
-        <v>0.5</v>
+      <c r="C5" s="52">
+        <v>1.5</v>
+      </c>
+      <c r="D5" s="52">
+        <v>10</v>
+      </c>
+      <c r="E5" s="52">
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -26259,13 +26260,13 @@
       <c r="B6" s="47" t="s">
         <v>1177</v>
       </c>
-      <c r="C6" s="51">
-        <v>1.5</v>
-      </c>
-      <c r="D6" s="51">
-        <v>10</v>
-      </c>
-      <c r="E6" s="51">
+      <c r="C6" s="52">
+        <v>1</v>
+      </c>
+      <c r="D6" s="52">
+        <v>10</v>
+      </c>
+      <c r="E6" s="52">
         <v>0.5</v>
       </c>
     </row>
@@ -26315,14 +26316,14 @@
       <c r="A2" s="47" t="s">
         <v>1194</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="51" t="s">
         <v>1203</v>
       </c>
       <c r="C2" s="52">
         <v>1</v>
       </c>
       <c r="D2" s="52">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E2" s="52">
         <v>0.5</v>
@@ -26332,16 +26333,16 @@
       <c r="A3" s="47" t="s">
         <v>1195</v>
       </c>
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="51" t="s">
         <v>1204</v>
       </c>
-      <c r="C3" s="52">
-        <v>1.3</v>
-      </c>
-      <c r="D3" s="52">
-        <v>1.3</v>
-      </c>
-      <c r="E3" s="52">
+      <c r="C3" s="53">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D3" s="53">
+        <v>10</v>
+      </c>
+      <c r="E3" s="53">
         <v>0.5</v>
       </c>
     </row>
@@ -26349,14 +26350,14 @@
       <c r="A4" s="47" t="s">
         <v>1196</v>
       </c>
-      <c r="B4" s="52" t="s">
+      <c r="B4" s="51" t="s">
         <v>1178</v>
       </c>
       <c r="C4" s="52">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="D4" s="52">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E4" s="52">
         <v>0.5</v>
@@ -26366,45 +26367,45 @@
       <c r="A5" s="47" t="s">
         <v>1197</v>
       </c>
-      <c r="B5" s="52" t="s">
+      <c r="B5" s="51" t="s">
         <v>1179</v>
       </c>
       <c r="C5" s="52">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="D5" s="52">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E5" s="52">
-        <v>0.5</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="47" t="s">
         <v>1198</v>
       </c>
-      <c r="B6" s="52" t="s">
+      <c r="B6" s="51" t="s">
         <v>1180</v>
       </c>
       <c r="C6" s="52">
-        <v>6</v>
+        <v>1.6</v>
       </c>
       <c r="D6" s="52">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E6" s="52">
-        <v>0.5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="47" t="s">
         <v>400</v>
       </c>
-      <c r="B7" s="52" t="s">
+      <c r="B7" s="51" t="s">
         <v>1181</v>
       </c>
       <c r="C7" s="52">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="D7" s="52">
         <v>10</v>
@@ -26459,14 +26460,14 @@
       <c r="A2" s="47" t="s">
         <v>1194</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="51" t="s">
         <v>1206</v>
       </c>
       <c r="C2" s="52">
         <v>1</v>
       </c>
       <c r="D2" s="52">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E2" s="52">
         <v>0.5</v>
@@ -26476,16 +26477,16 @@
       <c r="A3" s="47" t="s">
         <v>1195</v>
       </c>
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="51" t="s">
         <v>1207</v>
       </c>
-      <c r="C3" s="52">
-        <v>1.3</v>
-      </c>
-      <c r="D3" s="52">
-        <v>1.3</v>
-      </c>
-      <c r="E3" s="52">
+      <c r="C3" s="53">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D3" s="53">
+        <v>10</v>
+      </c>
+      <c r="E3" s="53">
         <v>0.5</v>
       </c>
     </row>
@@ -26493,14 +26494,14 @@
       <c r="A4" s="47" t="s">
         <v>1196</v>
       </c>
-      <c r="B4" s="52" t="s">
+      <c r="B4" s="51" t="s">
         <v>1182</v>
       </c>
       <c r="C4" s="52">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="D4" s="52">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E4" s="52">
         <v>0.5</v>
@@ -26510,41 +26511,41 @@
       <c r="A5" s="47" t="s">
         <v>1197</v>
       </c>
-      <c r="B5" s="52" t="s">
+      <c r="B5" s="51" t="s">
         <v>1183</v>
       </c>
       <c r="C5" s="52">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="D5" s="52">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E5" s="52">
-        <v>0.5</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="47" t="s">
         <v>1198</v>
       </c>
-      <c r="B6" s="52" t="s">
+      <c r="B6" s="51" t="s">
         <v>1184</v>
       </c>
       <c r="C6" s="52">
-        <v>6</v>
+        <v>1.6</v>
       </c>
       <c r="D6" s="52">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E6" s="52">
-        <v>0.5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="47" t="s">
         <v>400</v>
       </c>
-      <c r="B7" s="52" t="s">
+      <c r="B7" s="51" t="s">
         <v>1185</v>
       </c>
       <c r="C7" s="52">
@@ -26570,7 +26571,7 @@
   </sheetPr>
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -26603,14 +26604,14 @@
       <c r="A2" s="47" t="s">
         <v>1213</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="51" t="s">
         <v>1208</v>
       </c>
       <c r="C2" s="52">
         <v>1</v>
       </c>
       <c r="D2" s="52">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E2" s="52">
         <v>0.5</v>
@@ -26620,16 +26621,16 @@
       <c r="A3" s="47" t="s">
         <v>1021</v>
       </c>
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="51" t="s">
         <v>1211</v>
       </c>
-      <c r="C3" s="52">
-        <v>1.3</v>
-      </c>
-      <c r="D3" s="52">
-        <v>1.3</v>
-      </c>
-      <c r="E3" s="52">
+      <c r="C3" s="53">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D3" s="53">
+        <v>10</v>
+      </c>
+      <c r="E3" s="53">
         <v>0.5</v>
       </c>
     </row>
@@ -26637,14 +26638,14 @@
       <c r="A4" s="47" t="s">
         <v>1022</v>
       </c>
-      <c r="B4" s="52" t="s">
+      <c r="B4" s="51" t="s">
         <v>1212</v>
       </c>
       <c r="C4" s="52">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="D4" s="52">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E4" s="52">
         <v>0.5</v>
@@ -26654,41 +26655,41 @@
       <c r="A5" s="47" t="s">
         <v>1099</v>
       </c>
-      <c r="B5" s="52" t="s">
+      <c r="B5" s="51" t="s">
         <v>1209</v>
       </c>
       <c r="C5" s="52">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="D5" s="52">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E5" s="52">
-        <v>0.5</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="47" t="s">
         <v>1031</v>
       </c>
-      <c r="B6" s="52" t="s">
+      <c r="B6" s="51" t="s">
         <v>1210</v>
       </c>
       <c r="C6" s="52">
-        <v>6</v>
+        <v>1.6</v>
       </c>
       <c r="D6" s="52">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E6" s="52">
-        <v>0.5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="47" t="s">
         <v>400</v>
       </c>
-      <c r="B7" s="52" t="s">
+      <c r="B7" s="51" t="s">
         <v>1186</v>
       </c>
       <c r="C7" s="52">

--- a/data-raw/excel-spreadsheets/table_data.xlsx
+++ b/data-raw/excel-spreadsheets/table_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\CNAIM\data-raw\excel-spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4FC695A-7111-4AF4-8AB4-51F55C2C71C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99FEB926-2A1E-444C-9ACF-2778A1C30013}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="870" firstSheet="213" activeTab="228" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="870" firstSheet="244" activeTab="267" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -302,7 +302,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6738" uniqueCount="1214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6779" uniqueCount="1215">
   <si>
     <t>Health Index Asset Category</t>
   </si>
@@ -4013,14 +4013,18 @@
   <si>
     <t>Muy baja</t>
   </si>
+  <si>
+    <t>CMR equivalent</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000000000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="0.00000000"/>
   </numFmts>
   <fonts count="15" x14ac:knownFonts="1">
     <font>
@@ -4240,7 +4244,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4329,6 +4333,8 @@
     <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4716,8 +4722,8 @@
   </sheetPr>
   <dimension ref="A1:B65"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView topLeftCell="A55" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A65" sqref="A65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -22433,8 +22439,8 @@
   </sheetPr>
   <dimension ref="A1:C148"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E120" sqref="E120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -26571,7 +26577,7 @@
   </sheetPr>
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -29457,7 +29463,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -29532,8 +29538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-CF00-000000000000}">
   <dimension ref="A1:D62"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView topLeftCell="A46" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -30421,10 +30427,13 @@
 
 <file path=xl/worksheets/sheet245.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-D000-000000000000}">
-  <dimension ref="A1:H62"/>
+  <sheetPr>
+    <tabColor theme="7"/>
+  </sheetPr>
+  <dimension ref="A1:H63"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A60" sqref="A60"/>
+    <sheetView topLeftCell="A52" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A63" sqref="A63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -32047,6 +32056,32 @@
         <v>263015</v>
       </c>
     </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A63" s="38" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B63" s="38">
+        <v>45</v>
+      </c>
+      <c r="C63" s="38">
+        <v>50</v>
+      </c>
+      <c r="D63" s="38">
+        <v>5</v>
+      </c>
+      <c r="E63" s="38">
+        <v>39863</v>
+      </c>
+      <c r="F63" s="38">
+        <v>99657</v>
+      </c>
+      <c r="G63" s="38">
+        <v>398629</v>
+      </c>
+      <c r="H63" s="38">
+        <v>87698</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -32055,15 +32090,18 @@
 
 <file path=xl/worksheets/sheet246.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-D100-000000000000}">
-  <dimension ref="A1:F72"/>
+  <sheetPr>
+    <tabColor theme="7"/>
+  </sheetPr>
+  <dimension ref="A1:F75"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54:B56"/>
+    <sheetView topLeftCell="A64" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A73" sqref="A73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.88671875" customWidth="1"/>
+    <col min="1" max="1" width="28.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="46" customWidth="1"/>
     <col min="3" max="4" width="6.109375" customWidth="1"/>
     <col min="5" max="5" width="20.33203125" customWidth="1"/>
@@ -33121,6 +33159,64 @@
       <c r="D72" s="5"/>
       <c r="F72">
         <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73" s="38" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B73" s="38" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C73" s="38">
+        <v>0</v>
+      </c>
+      <c r="D73" s="38">
+        <v>10</v>
+      </c>
+      <c r="E73" s="38" t="s">
+        <v>758</v>
+      </c>
+      <c r="F73" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A74" s="38" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B74" s="38" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C74" s="38">
+        <v>10</v>
+      </c>
+      <c r="D74" s="38">
+        <v>20</v>
+      </c>
+      <c r="E74" s="38" t="s">
+        <v>758</v>
+      </c>
+      <c r="F74" s="38">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A75" s="38" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B75" s="38" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C75" s="38">
+        <v>20</v>
+      </c>
+      <c r="D75" s="38"/>
+      <c r="E75" s="38" t="s">
+        <v>758</v>
+      </c>
+      <c r="F75" s="38">
+        <v>1.25</v>
       </c>
     </row>
   </sheetData>
@@ -33263,10 +33359,13 @@
 
 <file path=xl/worksheets/sheet248.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-D300-000000000000}">
-  <dimension ref="A1:D9"/>
+  <sheetPr>
+    <tabColor theme="7"/>
+  </sheetPr>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -33402,6 +33501,20 @@
       </c>
       <c r="D9">
         <v>1.25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="38" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B10" s="38">
+        <v>1</v>
+      </c>
+      <c r="C10" s="38">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D10" s="38">
+        <v>1.35</v>
       </c>
     </row>
   </sheetData>
@@ -33758,9 +33871,12 @@
 
 <file path=xl/worksheets/sheet251.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-D400-000000000000}">
-  <dimension ref="A1:E62"/>
+  <sheetPr>
+    <tabColor theme="7"/>
+  </sheetPr>
+  <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView topLeftCell="A49" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="A63" sqref="A63"/>
     </sheetView>
   </sheetViews>
@@ -34826,6 +34942,23 @@
       </c>
       <c r="E62">
         <v>36171</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" s="38" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B63" s="38">
+        <v>2.6027400000000001E-4</v>
+      </c>
+      <c r="C63" s="38">
+        <v>1.15E-4</v>
+      </c>
+      <c r="D63" s="38">
+        <v>1.9606160000000001E-3</v>
+      </c>
+      <c r="E63" s="38">
+        <v>23502</v>
       </c>
     </row>
   </sheetData>
@@ -35021,10 +35154,13 @@
 
 <file path=xl/worksheets/sheet255.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-D900-000000000000}">
-  <dimension ref="A1:Q26"/>
+  <sheetPr>
+    <tabColor theme="7"/>
+  </sheetPr>
+  <dimension ref="A1:Q27"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="Q23" sqref="Q23:Q26"/>
+    <sheetView topLeftCell="A13" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -36417,6 +36553,59 @@
         <v>96</v>
       </c>
     </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="38" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B27" s="38">
+        <v>50</v>
+      </c>
+      <c r="C27" s="38">
+        <v>250</v>
+      </c>
+      <c r="D27" s="38">
+        <v>2500</v>
+      </c>
+      <c r="E27" s="38">
+        <v>0</v>
+      </c>
+      <c r="F27" s="38">
+        <v>0</v>
+      </c>
+      <c r="G27" s="38">
+        <v>0</v>
+      </c>
+      <c r="H27" s="38">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="I27" s="38">
+        <v>2E-3</v>
+      </c>
+      <c r="J27" s="38">
+        <v>0.02</v>
+      </c>
+      <c r="K27" s="38">
+        <v>0.2</v>
+      </c>
+      <c r="L27" s="38">
+        <v>3</v>
+      </c>
+      <c r="M27" s="38">
+        <v>30</v>
+      </c>
+      <c r="N27" s="38">
+        <v>50</v>
+      </c>
+      <c r="O27" s="38">
+        <v>40</v>
+      </c>
+      <c r="P27" s="38">
+        <v>10</v>
+      </c>
+      <c r="Q27" s="54">
+        <v>17048</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -36427,9 +36616,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-DA00-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
-    </sheetView>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -36533,15 +36720,18 @@
 
 <file path=xl/worksheets/sheet257.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-DB00-000000000000}">
-  <dimension ref="A1:F42"/>
+  <sheetPr>
+    <tabColor theme="7"/>
+  </sheetPr>
+  <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView topLeftCell="A37" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.44140625" customWidth="1"/>
+    <col min="1" max="1" width="28.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="35.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="6.109375" customWidth="1"/>
     <col min="5" max="5" width="57" customWidth="1"/>
@@ -37265,6 +37455,58 @@
         <v>2.5</v>
       </c>
     </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" s="38" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B43" s="38"/>
+      <c r="C43" s="38">
+        <v>0</v>
+      </c>
+      <c r="D43" s="38">
+        <v>10</v>
+      </c>
+      <c r="E43" s="38" t="s">
+        <v>822</v>
+      </c>
+      <c r="F43" s="38">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" s="38" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B44" s="38"/>
+      <c r="C44" s="38">
+        <v>10</v>
+      </c>
+      <c r="D44" s="38">
+        <v>20</v>
+      </c>
+      <c r="E44" s="38" t="s">
+        <v>822</v>
+      </c>
+      <c r="F44" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" s="38" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B45" s="38"/>
+      <c r="C45" s="38">
+        <v>20</v>
+      </c>
+      <c r="D45" s="38"/>
+      <c r="E45" s="38" t="s">
+        <v>822</v>
+      </c>
+      <c r="F45" s="38">
+        <v>1.6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -37273,10 +37515,13 @@
 
 <file path=xl/worksheets/sheet258.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-DC00-000000000000}">
-  <dimension ref="A1:G10"/>
+  <sheetPr>
+    <tabColor theme="7"/>
+  </sheetPr>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -37515,6 +37760,29 @@
         <v>0.5</v>
       </c>
       <c r="G10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="38" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B11" s="38">
+        <v>0.8</v>
+      </c>
+      <c r="C11" s="38">
+        <v>1</v>
+      </c>
+      <c r="D11" s="38">
+        <v>1.5</v>
+      </c>
+      <c r="E11" s="38">
+        <v>2.5</v>
+      </c>
+      <c r="F11" s="38">
+        <v>0.5</v>
+      </c>
+      <c r="G11" s="38">
         <v>1</v>
       </c>
     </row>
@@ -38106,10 +38374,13 @@
 
 <file path=xl/worksheets/sheet262.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-E000-000000000000}">
-  <dimension ref="A1:K41"/>
+  <sheetPr>
+    <tabColor theme="7"/>
+  </sheetPr>
+  <dimension ref="A1:K42"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+    <sheetView topLeftCell="A34" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -39557,6 +39828,38 @@
         <v>230441</v>
       </c>
     </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A42" s="38" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B42" s="38">
+        <v>15</v>
+      </c>
+      <c r="C42" s="38">
+        <v>100</v>
+      </c>
+      <c r="D42" s="38">
+        <v>100</v>
+      </c>
+      <c r="E42" s="38">
+        <v>80</v>
+      </c>
+      <c r="F42" s="38">
+        <v>0</v>
+      </c>
+      <c r="G42" s="38">
+        <v>2</v>
+      </c>
+      <c r="H42" s="38">
+        <v>400</v>
+      </c>
+      <c r="I42" s="38">
+        <v>0.05</v>
+      </c>
+      <c r="J42" s="38">
+        <v>55</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -39565,15 +39868,18 @@
 
 <file path=xl/worksheets/sheet263.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74D6C426-89EE-49AA-9C90-5B5D8351FDF2}">
-  <dimension ref="A1:E63"/>
+  <sheetPr>
+    <tabColor theme="7"/>
+  </sheetPr>
+  <dimension ref="A1:E64"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50"/>
+    <sheetView topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A64" sqref="A64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.88671875" customWidth="1"/>
     <col min="3" max="3" width="18.109375" customWidth="1"/>
     <col min="4" max="4" width="16.6640625" customWidth="1"/>
@@ -40651,6 +40957,23 @@
         <v>1411803.68</v>
       </c>
     </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" s="38" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B64" s="38">
+        <v>110031.29</v>
+      </c>
+      <c r="C64" s="38">
+        <v>157187.56</v>
+      </c>
+      <c r="D64" s="38">
+        <v>235781.34</v>
+      </c>
+      <c r="E64" s="38">
+        <v>392968.9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -40659,15 +40982,18 @@
 
 <file path=xl/worksheets/sheet264.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB50D737-0212-40DC-B856-D8A5EC742BF6}">
-  <dimension ref="A1:F63"/>
+  <sheetPr>
+    <tabColor theme="7"/>
+  </sheetPr>
+  <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A64" sqref="A64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.88671875" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
     <col min="4" max="5" width="10.6640625" customWidth="1"/>
@@ -41934,6 +42260,26 @@
         <v>9.7467999999999999E-2</v>
       </c>
     </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64" s="38" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B64" s="38">
+        <v>1.2939000000000001E-2</v>
+      </c>
+      <c r="C64" s="38">
+        <v>1.4855999999999999E-2</v>
+      </c>
+      <c r="D64" s="38">
+        <v>3.4062000000000002E-2</v>
+      </c>
+      <c r="E64" s="38">
+        <v>5.5164999999999999E-2</v>
+      </c>
+      <c r="F64" s="38">
+        <v>9.7467999999999999E-2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -41941,10 +42287,13 @@
 
 <file path=xl/worksheets/sheet265.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{317B802B-6900-474F-B2EC-A070196B70EF}">
-  <dimension ref="A1:G249"/>
+  <sheetPr>
+    <tabColor theme="7"/>
+  </sheetPr>
+  <dimension ref="A1:G253"/>
   <sheetViews>
-    <sheetView topLeftCell="A164" workbookViewId="0">
-      <selection activeCell="A197" sqref="A197"/>
+    <sheetView topLeftCell="A241" workbookViewId="0">
+      <selection activeCell="A253" sqref="A253"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -47680,6 +48029,98 @@
         <v>137606</v>
       </c>
     </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A250" s="38" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B250" s="38" t="s">
+        <v>165</v>
+      </c>
+      <c r="C250" s="38">
+        <v>1424</v>
+      </c>
+      <c r="D250" s="38">
+        <v>1635</v>
+      </c>
+      <c r="E250" s="38">
+        <v>3748</v>
+      </c>
+      <c r="F250" s="38">
+        <v>6070</v>
+      </c>
+      <c r="G250" s="38">
+        <v>10725</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A251" s="38" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B251" s="38" t="s">
+        <v>167</v>
+      </c>
+      <c r="C251" s="38">
+        <v>2034</v>
+      </c>
+      <c r="D251" s="38">
+        <v>2335</v>
+      </c>
+      <c r="E251" s="38">
+        <v>5354</v>
+      </c>
+      <c r="F251" s="38">
+        <v>8671</v>
+      </c>
+      <c r="G251" s="38">
+        <v>15321</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A252" s="38" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B252" s="38" t="s">
+        <v>168</v>
+      </c>
+      <c r="C252" s="38">
+        <v>3051</v>
+      </c>
+      <c r="D252" s="38">
+        <v>3503</v>
+      </c>
+      <c r="E252" s="38">
+        <v>8031</v>
+      </c>
+      <c r="F252" s="38">
+        <v>13007</v>
+      </c>
+      <c r="G252" s="38">
+        <v>22981</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A253" s="38" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B253" s="38" t="s">
+        <v>169</v>
+      </c>
+      <c r="C253" s="38">
+        <v>5085</v>
+      </c>
+      <c r="D253" s="38">
+        <v>5838</v>
+      </c>
+      <c r="E253" s="38">
+        <v>13385</v>
+      </c>
+      <c r="F253" s="38">
+        <v>21678</v>
+      </c>
+      <c r="G253" s="38">
+        <v>38302</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -47687,10 +48128,13 @@
 
 <file path=xl/worksheets/sheet266.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F99DD3C9-B330-4E74-8D65-7C1404034804}">
-  <dimension ref="A1:C63"/>
+  <sheetPr>
+    <tabColor theme="7"/>
+  </sheetPr>
+  <dimension ref="A1:E64"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A64" sqref="A64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -47698,9 +48142,10 @@
     <col min="1" max="1" width="37.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="73.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>1</v>
       </c>
@@ -47711,7 +48156,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -47722,7 +48167,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -47730,7 +48175,7 @@
         <v>3.9964920000000001E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -47738,7 +48183,7 @@
         <v>3.9964920000000001E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -47746,7 +48191,7 @@
         <v>3.9964920000000001E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -47754,7 +48199,7 @@
         <v>3.9964920000000001E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -47762,7 +48207,7 @@
         <v>3.9964920000000001E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -47770,7 +48215,7 @@
         <v>4.3598100000000001E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -47778,7 +48223,7 @@
         <v>3.9964920000000001E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -47788,8 +48233,9 @@
       <c r="C10" t="s">
         <v>996</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E10" s="55"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -47800,7 +48246,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>51</v>
       </c>
@@ -47808,7 +48254,7 @@
         <v>3.9964920000000001E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -47816,7 +48262,7 @@
         <v>4.3598100000000001E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -47824,7 +48270,7 @@
         <v>4.3598100000000001E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -47832,7 +48278,7 @@
         <v>4.3598100000000001E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -48269,6 +48715,15 @@
       <c r="C63" t="s">
         <v>1000</v>
       </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" s="38" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B64" s="38">
+        <v>0.11989476363991854</v>
+      </c>
+      <c r="C64" s="38"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -48277,10 +48732,13 @@
 
 <file path=xl/worksheets/sheet267.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1590256-6A55-46CA-A90D-5C856B0A45CE}">
-  <dimension ref="A1:F63"/>
+  <sheetPr>
+    <tabColor theme="7"/>
+  </sheetPr>
+  <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A64" sqref="A64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -49553,6 +50011,26 @@
         <v>4.7271000000000001</v>
       </c>
     </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64" s="38" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B64" s="38">
+        <v>0.25109999999999999</v>
+      </c>
+      <c r="C64" s="38">
+        <v>0.90749999999999997</v>
+      </c>
+      <c r="D64" s="38">
+        <v>1.8915</v>
+      </c>
+      <c r="E64" s="38">
+        <v>3.1021000000000001</v>
+      </c>
+      <c r="F64" s="38">
+        <v>4.7271000000000001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -49560,10 +50038,13 @@
 
 <file path=xl/worksheets/sheet268.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59BC7345-7AB9-4B72-8350-23628CD4A363}">
-  <dimension ref="A1:G249"/>
+  <sheetPr>
+    <tabColor theme="7"/>
+  </sheetPr>
+  <dimension ref="A1:G253"/>
   <sheetViews>
-    <sheetView topLeftCell="A172" workbookViewId="0">
-      <selection activeCell="A194" sqref="A194:A197"/>
+    <sheetView tabSelected="1" topLeftCell="A232" workbookViewId="0">
+      <selection activeCell="A250" sqref="A250:A253"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -55302,6 +55783,98 @@
       </c>
       <c r="G249">
         <v>6673737</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A250" s="38" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B250" s="38" t="s">
+        <v>165</v>
+      </c>
+      <c r="C250" s="38">
+        <v>27629</v>
+      </c>
+      <c r="D250" s="38">
+        <v>99853</v>
+      </c>
+      <c r="E250" s="38">
+        <v>208124</v>
+      </c>
+      <c r="F250" s="38">
+        <v>341328</v>
+      </c>
+      <c r="G250" s="38">
+        <v>520129</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A251" s="38" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B251" s="38" t="s">
+        <v>167</v>
+      </c>
+      <c r="C251" s="38">
+        <v>39470</v>
+      </c>
+      <c r="D251" s="38">
+        <v>142648</v>
+      </c>
+      <c r="E251" s="38">
+        <v>297320</v>
+      </c>
+      <c r="F251" s="38">
+        <v>487612</v>
+      </c>
+      <c r="G251" s="38">
+        <v>743041</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A252" s="38" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B252" s="38" t="s">
+        <v>168</v>
+      </c>
+      <c r="C252" s="38">
+        <v>59205</v>
+      </c>
+      <c r="D252" s="38">
+        <v>213972</v>
+      </c>
+      <c r="E252" s="38">
+        <v>445980</v>
+      </c>
+      <c r="F252" s="38">
+        <v>731417</v>
+      </c>
+      <c r="G252" s="38">
+        <v>1114562</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A253" s="38" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B253" s="38" t="s">
+        <v>169</v>
+      </c>
+      <c r="C253" s="38">
+        <v>98674</v>
+      </c>
+      <c r="D253" s="38">
+        <v>356619</v>
+      </c>
+      <c r="E253" s="38">
+        <v>743301</v>
+      </c>
+      <c r="F253" s="38">
+        <v>1219029</v>
+      </c>
+      <c r="G253" s="38">
+        <v>1857603</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/excel-spreadsheets/table_data.xlsx
+++ b/data-raw/excel-spreadsheets/table_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\CNAIM\data-raw\excel-spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99FEB926-2A1E-444C-9ACF-2778A1C30013}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBAEB59E-19F8-430D-88DC-E26F46EDAB16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="870" firstSheet="244" activeTab="267" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="870" firstSheet="83" activeTab="83" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -302,7 +302,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6779" uniqueCount="1215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6819" uniqueCount="1217">
   <si>
     <t>Health Index Asset Category</t>
   </si>
@@ -4016,6 +4016,12 @@
   <si>
     <t>CMR equivalent</t>
   </si>
+  <si>
+    <t>Estado como nuevo</t>
+  </si>
+  <si>
+    <t>Ligeramente deteriorado</t>
+  </si>
 </sst>
 </file>
 
@@ -4026,7 +4032,7 @@
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="0.00000000"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -4132,6 +4138,13 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="7">
@@ -4331,10 +4344,10 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -18677,10 +18690,13 @@
 
 <file path=xl/worksheets/sheet188.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-AC00-000000000000}">
-  <dimension ref="A1:E6"/>
+  <sheetPr>
+    <tabColor theme="7"/>
+  </sheetPr>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection sqref="A1:E6"/>
+      <selection activeCell="A7" sqref="A7:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18795,6 +18811,91 @@
         <v>0.5</v>
       </c>
     </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="48" t="s">
+        <v>428</v>
+      </c>
+      <c r="B7" s="48" t="s">
+        <v>586</v>
+      </c>
+      <c r="C7" s="48">
+        <v>1</v>
+      </c>
+      <c r="D7" s="48">
+        <v>10</v>
+      </c>
+      <c r="E7" s="48">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="48" t="s">
+        <v>561</v>
+      </c>
+      <c r="B8" s="48" t="s">
+        <v>583</v>
+      </c>
+      <c r="C8" s="48">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D8" s="48">
+        <v>10</v>
+      </c>
+      <c r="E8" s="48">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="48" t="s">
+        <v>563</v>
+      </c>
+      <c r="B9" s="48" t="s">
+        <v>584</v>
+      </c>
+      <c r="C9" s="48">
+        <v>1.3</v>
+      </c>
+      <c r="D9" s="48">
+        <v>10</v>
+      </c>
+      <c r="E9" s="48">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="48" t="s">
+        <v>565</v>
+      </c>
+      <c r="B10" s="48" t="s">
+        <v>585</v>
+      </c>
+      <c r="C10" s="48">
+        <v>1.5</v>
+      </c>
+      <c r="D10" s="48">
+        <v>10</v>
+      </c>
+      <c r="E10" s="48">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="48" t="s">
+        <v>400</v>
+      </c>
+      <c r="B11" s="48" t="s">
+        <v>456</v>
+      </c>
+      <c r="C11" s="48">
+        <v>1</v>
+      </c>
+      <c r="D11" s="48">
+        <v>10</v>
+      </c>
+      <c r="E11" s="48">
+        <v>0.5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -18803,10 +18904,13 @@
 
 <file path=xl/worksheets/sheet189.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-AD00-000000000000}">
-  <dimension ref="A1:E5"/>
+  <sheetPr>
+    <tabColor theme="7"/>
+  </sheetPr>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection sqref="A1:E5"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18901,6 +19005,74 @@
         <v>10</v>
       </c>
       <c r="E5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="48" t="s">
+        <v>594</v>
+      </c>
+      <c r="B6" s="48" t="s">
+        <v>595</v>
+      </c>
+      <c r="C6" s="48">
+        <v>1</v>
+      </c>
+      <c r="D6" s="48">
+        <v>10</v>
+      </c>
+      <c r="E6" s="48">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="48" t="s">
+        <v>596</v>
+      </c>
+      <c r="B7" s="48" t="s">
+        <v>597</v>
+      </c>
+      <c r="C7" s="48">
+        <v>1.2</v>
+      </c>
+      <c r="D7" s="48">
+        <v>10</v>
+      </c>
+      <c r="E7" s="48">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="48" t="s">
+        <v>598</v>
+      </c>
+      <c r="B8" s="48" t="s">
+        <v>599</v>
+      </c>
+      <c r="C8" s="48">
+        <v>1.4</v>
+      </c>
+      <c r="D8" s="48">
+        <v>10</v>
+      </c>
+      <c r="E8" s="48">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="48" t="s">
+        <v>400</v>
+      </c>
+      <c r="B9" s="48" t="s">
+        <v>456</v>
+      </c>
+      <c r="C9" s="48">
+        <v>1</v>
+      </c>
+      <c r="D9" s="48">
+        <v>10</v>
+      </c>
+      <c r="E9" s="48">
         <v>0.5</v>
       </c>
     </row>
@@ -25910,13 +26082,13 @@
       <c r="B2" s="50" t="s">
         <v>1166</v>
       </c>
-      <c r="C2" s="52">
+      <c r="C2" s="54">
         <v>1</v>
       </c>
-      <c r="D2" s="52">
-        <v>10</v>
-      </c>
-      <c r="E2" s="52">
+      <c r="D2" s="54">
+        <v>10</v>
+      </c>
+      <c r="E2" s="54">
         <v>0.5</v>
       </c>
     </row>
@@ -25927,13 +26099,13 @@
       <c r="B3" s="38" t="s">
         <v>1192</v>
       </c>
-      <c r="C3" s="53">
+      <c r="C3" s="55">
         <v>1.1000000000000001</v>
       </c>
-      <c r="D3" s="53">
-        <v>10</v>
-      </c>
-      <c r="E3" s="53">
+      <c r="D3" s="55">
+        <v>10</v>
+      </c>
+      <c r="E3" s="55">
         <v>0.5</v>
       </c>
     </row>
@@ -25944,13 +26116,13 @@
       <c r="B4" s="50" t="s">
         <v>1167</v>
       </c>
-      <c r="C4" s="52">
+      <c r="C4" s="54">
         <v>1.3</v>
       </c>
-      <c r="D4" s="52">
-        <v>10</v>
-      </c>
-      <c r="E4" s="52">
+      <c r="D4" s="54">
+        <v>10</v>
+      </c>
+      <c r="E4" s="54">
         <v>0.5</v>
       </c>
     </row>
@@ -25961,13 +26133,13 @@
       <c r="B5" s="50" t="s">
         <v>1168</v>
       </c>
-      <c r="C5" s="52">
+      <c r="C5" s="54">
         <v>1.5</v>
       </c>
-      <c r="D5" s="52">
-        <v>10</v>
-      </c>
-      <c r="E5" s="52">
+      <c r="D5" s="54">
+        <v>10</v>
+      </c>
+      <c r="E5" s="54">
         <v>5.5</v>
       </c>
     </row>
@@ -25978,13 +26150,13 @@
       <c r="B6" s="50" t="s">
         <v>1169</v>
       </c>
-      <c r="C6" s="52">
+      <c r="C6" s="54">
         <v>1.6</v>
       </c>
-      <c r="D6" s="52">
-        <v>10</v>
-      </c>
-      <c r="E6" s="52">
+      <c r="D6" s="54">
+        <v>10</v>
+      </c>
+      <c r="E6" s="54">
         <v>8</v>
       </c>
     </row>
@@ -25995,13 +26167,13 @@
       <c r="B7" s="47" t="s">
         <v>1114</v>
       </c>
-      <c r="C7" s="52">
+      <c r="C7" s="54">
         <v>1</v>
       </c>
-      <c r="D7" s="52">
-        <v>10</v>
-      </c>
-      <c r="E7" s="52">
+      <c r="D7" s="54">
+        <v>10</v>
+      </c>
+      <c r="E7" s="54">
         <v>0.5</v>
       </c>
     </row>
@@ -26054,13 +26226,13 @@
       <c r="B2" s="51" t="s">
         <v>1202</v>
       </c>
-      <c r="C2" s="52">
+      <c r="C2" s="54">
         <v>1</v>
       </c>
-      <c r="D2" s="52">
-        <v>10</v>
-      </c>
-      <c r="E2" s="52">
+      <c r="D2" s="54">
+        <v>10</v>
+      </c>
+      <c r="E2" s="54">
         <v>0.5</v>
       </c>
     </row>
@@ -26071,13 +26243,13 @@
       <c r="B3" s="51" t="s">
         <v>1193</v>
       </c>
-      <c r="C3" s="53">
+      <c r="C3" s="55">
         <v>1.1000000000000001</v>
       </c>
-      <c r="D3" s="53">
-        <v>10</v>
-      </c>
-      <c r="E3" s="53">
+      <c r="D3" s="55">
+        <v>10</v>
+      </c>
+      <c r="E3" s="55">
         <v>0.5</v>
       </c>
     </row>
@@ -26088,13 +26260,13 @@
       <c r="B4" s="51" t="s">
         <v>1170</v>
       </c>
-      <c r="C4" s="52">
+      <c r="C4" s="54">
         <v>1.3</v>
       </c>
-      <c r="D4" s="52">
-        <v>10</v>
-      </c>
-      <c r="E4" s="52">
+      <c r="D4" s="54">
+        <v>10</v>
+      </c>
+      <c r="E4" s="54">
         <v>0.5</v>
       </c>
     </row>
@@ -26105,13 +26277,13 @@
       <c r="B5" s="51" t="s">
         <v>1171</v>
       </c>
-      <c r="C5" s="52">
+      <c r="C5" s="54">
         <v>1.5</v>
       </c>
-      <c r="D5" s="52">
-        <v>10</v>
-      </c>
-      <c r="E5" s="52">
+      <c r="D5" s="54">
+        <v>10</v>
+      </c>
+      <c r="E5" s="54">
         <v>5.5</v>
       </c>
     </row>
@@ -26122,13 +26294,13 @@
       <c r="B6" s="51" t="s">
         <v>1172</v>
       </c>
-      <c r="C6" s="52">
+      <c r="C6" s="54">
         <v>1.6</v>
       </c>
-      <c r="D6" s="52">
-        <v>10</v>
-      </c>
-      <c r="E6" s="52">
+      <c r="D6" s="54">
+        <v>10</v>
+      </c>
+      <c r="E6" s="54">
         <v>8</v>
       </c>
     </row>
@@ -26139,13 +26311,13 @@
       <c r="B7" s="51" t="s">
         <v>1114</v>
       </c>
-      <c r="C7" s="52">
+      <c r="C7" s="54">
         <v>1</v>
       </c>
-      <c r="D7" s="52">
-        <v>10</v>
-      </c>
-      <c r="E7" s="52">
+      <c r="D7" s="54">
+        <v>10</v>
+      </c>
+      <c r="E7" s="54">
         <v>0.5</v>
       </c>
     </row>
@@ -26198,13 +26370,13 @@
       <c r="B2" s="50" t="s">
         <v>1173</v>
       </c>
-      <c r="C2" s="52">
+      <c r="C2" s="54">
         <v>1</v>
       </c>
-      <c r="D2" s="52">
-        <v>10</v>
-      </c>
-      <c r="E2" s="52">
+      <c r="D2" s="54">
+        <v>10</v>
+      </c>
+      <c r="E2" s="54">
         <v>0.5</v>
       </c>
     </row>
@@ -26215,13 +26387,13 @@
       <c r="B3" s="50" t="s">
         <v>1174</v>
       </c>
-      <c r="C3" s="52">
+      <c r="C3" s="54">
         <v>1.1000000000000001</v>
       </c>
-      <c r="D3" s="52">
-        <v>10</v>
-      </c>
-      <c r="E3" s="52">
+      <c r="D3" s="54">
+        <v>10</v>
+      </c>
+      <c r="E3" s="54">
         <v>0.5</v>
       </c>
     </row>
@@ -26232,13 +26404,13 @@
       <c r="B4" s="50" t="s">
         <v>1175</v>
       </c>
-      <c r="C4" s="52">
+      <c r="C4" s="54">
         <v>1.3</v>
       </c>
-      <c r="D4" s="52">
-        <v>10</v>
-      </c>
-      <c r="E4" s="52">
+      <c r="D4" s="54">
+        <v>10</v>
+      </c>
+      <c r="E4" s="54">
         <v>5.5</v>
       </c>
     </row>
@@ -26249,13 +26421,13 @@
       <c r="B5" s="50" t="s">
         <v>1176</v>
       </c>
-      <c r="C5" s="52">
+      <c r="C5" s="54">
         <v>1.5</v>
       </c>
-      <c r="D5" s="52">
-        <v>10</v>
-      </c>
-      <c r="E5" s="52">
+      <c r="D5" s="54">
+        <v>10</v>
+      </c>
+      <c r="E5" s="54">
         <v>8</v>
       </c>
     </row>
@@ -26266,13 +26438,13 @@
       <c r="B6" s="47" t="s">
         <v>1177</v>
       </c>
-      <c r="C6" s="52">
+      <c r="C6" s="54">
         <v>1</v>
       </c>
-      <c r="D6" s="52">
-        <v>10</v>
-      </c>
-      <c r="E6" s="52">
+      <c r="D6" s="54">
+        <v>10</v>
+      </c>
+      <c r="E6" s="54">
         <v>0.5</v>
       </c>
     </row>
@@ -26325,13 +26497,13 @@
       <c r="B2" s="51" t="s">
         <v>1203</v>
       </c>
-      <c r="C2" s="52">
+      <c r="C2" s="54">
         <v>1</v>
       </c>
-      <c r="D2" s="52">
-        <v>10</v>
-      </c>
-      <c r="E2" s="52">
+      <c r="D2" s="54">
+        <v>10</v>
+      </c>
+      <c r="E2" s="54">
         <v>0.5</v>
       </c>
     </row>
@@ -26342,13 +26514,13 @@
       <c r="B3" s="51" t="s">
         <v>1204</v>
       </c>
-      <c r="C3" s="53">
+      <c r="C3" s="55">
         <v>1.1000000000000001</v>
       </c>
-      <c r="D3" s="53">
-        <v>10</v>
-      </c>
-      <c r="E3" s="53">
+      <c r="D3" s="55">
+        <v>10</v>
+      </c>
+      <c r="E3" s="55">
         <v>0.5</v>
       </c>
     </row>
@@ -26359,13 +26531,13 @@
       <c r="B4" s="51" t="s">
         <v>1178</v>
       </c>
-      <c r="C4" s="52">
+      <c r="C4" s="54">
         <v>1.3</v>
       </c>
-      <c r="D4" s="52">
-        <v>10</v>
-      </c>
-      <c r="E4" s="52">
+      <c r="D4" s="54">
+        <v>10</v>
+      </c>
+      <c r="E4" s="54">
         <v>0.5</v>
       </c>
     </row>
@@ -26376,13 +26548,13 @@
       <c r="B5" s="51" t="s">
         <v>1179</v>
       </c>
-      <c r="C5" s="52">
+      <c r="C5" s="54">
         <v>1.5</v>
       </c>
-      <c r="D5" s="52">
-        <v>10</v>
-      </c>
-      <c r="E5" s="52">
+      <c r="D5" s="54">
+        <v>10</v>
+      </c>
+      <c r="E5" s="54">
         <v>5.5</v>
       </c>
     </row>
@@ -26393,13 +26565,13 @@
       <c r="B6" s="51" t="s">
         <v>1180</v>
       </c>
-      <c r="C6" s="52">
+      <c r="C6" s="54">
         <v>1.6</v>
       </c>
-      <c r="D6" s="52">
-        <v>10</v>
-      </c>
-      <c r="E6" s="52">
+      <c r="D6" s="54">
+        <v>10</v>
+      </c>
+      <c r="E6" s="54">
         <v>8</v>
       </c>
     </row>
@@ -26410,13 +26582,13 @@
       <c r="B7" s="51" t="s">
         <v>1181</v>
       </c>
-      <c r="C7" s="52">
+      <c r="C7" s="54">
         <v>1</v>
       </c>
-      <c r="D7" s="52">
-        <v>10</v>
-      </c>
-      <c r="E7" s="52">
+      <c r="D7" s="54">
+        <v>10</v>
+      </c>
+      <c r="E7" s="54">
         <v>0.5</v>
       </c>
     </row>
@@ -26469,13 +26641,13 @@
       <c r="B2" s="51" t="s">
         <v>1206</v>
       </c>
-      <c r="C2" s="52">
+      <c r="C2" s="54">
         <v>1</v>
       </c>
-      <c r="D2" s="52">
-        <v>10</v>
-      </c>
-      <c r="E2" s="52">
+      <c r="D2" s="54">
+        <v>10</v>
+      </c>
+      <c r="E2" s="54">
         <v>0.5</v>
       </c>
     </row>
@@ -26486,13 +26658,13 @@
       <c r="B3" s="51" t="s">
         <v>1207</v>
       </c>
-      <c r="C3" s="53">
+      <c r="C3" s="55">
         <v>1.1000000000000001</v>
       </c>
-      <c r="D3" s="53">
-        <v>10</v>
-      </c>
-      <c r="E3" s="53">
+      <c r="D3" s="55">
+        <v>10</v>
+      </c>
+      <c r="E3" s="55">
         <v>0.5</v>
       </c>
     </row>
@@ -26503,13 +26675,13 @@
       <c r="B4" s="51" t="s">
         <v>1182</v>
       </c>
-      <c r="C4" s="52">
+      <c r="C4" s="54">
         <v>1.3</v>
       </c>
-      <c r="D4" s="52">
-        <v>10</v>
-      </c>
-      <c r="E4" s="52">
+      <c r="D4" s="54">
+        <v>10</v>
+      </c>
+      <c r="E4" s="54">
         <v>0.5</v>
       </c>
     </row>
@@ -26520,13 +26692,13 @@
       <c r="B5" s="51" t="s">
         <v>1183</v>
       </c>
-      <c r="C5" s="52">
+      <c r="C5" s="54">
         <v>1.5</v>
       </c>
-      <c r="D5" s="52">
-        <v>10</v>
-      </c>
-      <c r="E5" s="52">
+      <c r="D5" s="54">
+        <v>10</v>
+      </c>
+      <c r="E5" s="54">
         <v>5.5</v>
       </c>
     </row>
@@ -26537,13 +26709,13 @@
       <c r="B6" s="51" t="s">
         <v>1184</v>
       </c>
-      <c r="C6" s="52">
+      <c r="C6" s="54">
         <v>1.6</v>
       </c>
-      <c r="D6" s="52">
-        <v>10</v>
-      </c>
-      <c r="E6" s="52">
+      <c r="D6" s="54">
+        <v>10</v>
+      </c>
+      <c r="E6" s="54">
         <v>8</v>
       </c>
     </row>
@@ -26554,13 +26726,13 @@
       <c r="B7" s="51" t="s">
         <v>1185</v>
       </c>
-      <c r="C7" s="52">
+      <c r="C7" s="54">
         <v>1</v>
       </c>
-      <c r="D7" s="52">
-        <v>10</v>
-      </c>
-      <c r="E7" s="52">
+      <c r="D7" s="54">
+        <v>10</v>
+      </c>
+      <c r="E7" s="54">
         <v>0.5</v>
       </c>
     </row>
@@ -26613,13 +26785,13 @@
       <c r="B2" s="51" t="s">
         <v>1208</v>
       </c>
-      <c r="C2" s="52">
+      <c r="C2" s="54">
         <v>1</v>
       </c>
-      <c r="D2" s="52">
-        <v>10</v>
-      </c>
-      <c r="E2" s="52">
+      <c r="D2" s="54">
+        <v>10</v>
+      </c>
+      <c r="E2" s="54">
         <v>0.5</v>
       </c>
     </row>
@@ -26630,13 +26802,13 @@
       <c r="B3" s="51" t="s">
         <v>1211</v>
       </c>
-      <c r="C3" s="53">
+      <c r="C3" s="55">
         <v>1.1000000000000001</v>
       </c>
-      <c r="D3" s="53">
-        <v>10</v>
-      </c>
-      <c r="E3" s="53">
+      <c r="D3" s="55">
+        <v>10</v>
+      </c>
+      <c r="E3" s="55">
         <v>0.5</v>
       </c>
     </row>
@@ -26647,13 +26819,13 @@
       <c r="B4" s="51" t="s">
         <v>1212</v>
       </c>
-      <c r="C4" s="52">
+      <c r="C4" s="54">
         <v>1.3</v>
       </c>
-      <c r="D4" s="52">
-        <v>10</v>
-      </c>
-      <c r="E4" s="52">
+      <c r="D4" s="54">
+        <v>10</v>
+      </c>
+      <c r="E4" s="54">
         <v>0.5</v>
       </c>
     </row>
@@ -26664,13 +26836,13 @@
       <c r="B5" s="51" t="s">
         <v>1209</v>
       </c>
-      <c r="C5" s="52">
+      <c r="C5" s="54">
         <v>1.5</v>
       </c>
-      <c r="D5" s="52">
-        <v>10</v>
-      </c>
-      <c r="E5" s="52">
+      <c r="D5" s="54">
+        <v>10</v>
+      </c>
+      <c r="E5" s="54">
         <v>5.5</v>
       </c>
     </row>
@@ -26681,13 +26853,13 @@
       <c r="B6" s="51" t="s">
         <v>1210</v>
       </c>
-      <c r="C6" s="52">
+      <c r="C6" s="54">
         <v>1.6</v>
       </c>
-      <c r="D6" s="52">
-        <v>10</v>
-      </c>
-      <c r="E6" s="52">
+      <c r="D6" s="54">
+        <v>10</v>
+      </c>
+      <c r="E6" s="54">
         <v>8</v>
       </c>
     </row>
@@ -26698,13 +26870,13 @@
       <c r="B7" s="51" t="s">
         <v>1186</v>
       </c>
-      <c r="C7" s="52">
+      <c r="C7" s="54">
         <v>1</v>
       </c>
-      <c r="D7" s="52">
-        <v>10</v>
-      </c>
-      <c r="E7" s="52">
+      <c r="D7" s="54">
+        <v>10</v>
+      </c>
+      <c r="E7" s="54">
         <v>0.5</v>
       </c>
     </row>
@@ -30432,8 +30604,8 @@
   </sheetPr>
   <dimension ref="A1:H63"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A63" sqref="A63"/>
+    <sheetView topLeftCell="A49" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -36602,7 +36774,7 @@
       <c r="P27" s="38">
         <v>10</v>
       </c>
-      <c r="Q27" s="54">
+      <c r="Q27" s="52">
         <v>17048</v>
       </c>
     </row>
@@ -48233,7 +48405,7 @@
       <c r="C10" t="s">
         <v>996</v>
       </c>
-      <c r="E10" s="55"/>
+      <c r="E10" s="53"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -50043,7 +50215,7 @@
   </sheetPr>
   <dimension ref="A1:G253"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A232" workbookViewId="0">
+    <sheetView topLeftCell="A241" workbookViewId="0">
       <selection activeCell="A250" sqref="A250:A253"/>
     </sheetView>
   </sheetViews>
@@ -63665,10 +63837,13 @@
 
 <file path=xl/worksheets/sheet84.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-5200-000000000000}">
-  <dimension ref="A1:E7"/>
+  <sheetPr>
+    <tabColor theme="7"/>
+  </sheetPr>
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -63800,6 +63975,108 @@
         <v>0.5</v>
       </c>
     </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="48" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B8" s="48" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C8" s="48">
+        <v>0.9</v>
+      </c>
+      <c r="D8" s="48">
+        <v>10</v>
+      </c>
+      <c r="E8" s="48">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="48" t="s">
+        <v>869</v>
+      </c>
+      <c r="B9" s="48" t="s">
+        <v>921</v>
+      </c>
+      <c r="C9" s="48">
+        <v>1</v>
+      </c>
+      <c r="D9" s="48">
+        <v>10</v>
+      </c>
+      <c r="E9" s="48">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="48" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B10" s="48" t="s">
+        <v>922</v>
+      </c>
+      <c r="C10" s="48">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D10" s="48">
+        <v>10</v>
+      </c>
+      <c r="E10" s="48">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="48" t="s">
+        <v>452</v>
+      </c>
+      <c r="B11" s="48" t="s">
+        <v>923</v>
+      </c>
+      <c r="C11" s="48">
+        <v>1.25</v>
+      </c>
+      <c r="D11" s="48">
+        <v>10</v>
+      </c>
+      <c r="E11" s="48">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="48" t="s">
+        <v>454</v>
+      </c>
+      <c r="B12" s="48" t="s">
+        <v>924</v>
+      </c>
+      <c r="C12" s="48">
+        <v>1.4</v>
+      </c>
+      <c r="D12" s="48">
+        <v>10</v>
+      </c>
+      <c r="E12" s="48">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="48" t="s">
+        <v>400</v>
+      </c>
+      <c r="B13" s="48" t="s">
+        <v>456</v>
+      </c>
+      <c r="C13" s="48">
+        <v>1</v>
+      </c>
+      <c r="D13" s="48">
+        <v>10</v>
+      </c>
+      <c r="E13" s="48">
+        <v>0.5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -63808,10 +64085,13 @@
 
 <file path=xl/worksheets/sheet85.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-5300-000000000000}">
-  <dimension ref="A1:E6"/>
+  <sheetPr>
+    <tabColor theme="7"/>
+  </sheetPr>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection sqref="A1:E6"/>
+      <selection activeCell="A7" sqref="A7:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -63923,6 +64203,91 @@
         <v>10</v>
       </c>
       <c r="E6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="48" t="s">
+        <v>896</v>
+      </c>
+      <c r="B7" s="48" t="s">
+        <v>919</v>
+      </c>
+      <c r="C7" s="48">
+        <v>1</v>
+      </c>
+      <c r="D7" s="48">
+        <v>10</v>
+      </c>
+      <c r="E7" s="48">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="48" t="s">
+        <v>897</v>
+      </c>
+      <c r="B8" s="48" t="s">
+        <v>914</v>
+      </c>
+      <c r="C8" s="48">
+        <v>1</v>
+      </c>
+      <c r="D8" s="48">
+        <v>10</v>
+      </c>
+      <c r="E8" s="48">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="48" t="s">
+        <v>452</v>
+      </c>
+      <c r="B9" s="48" t="s">
+        <v>900</v>
+      </c>
+      <c r="C9" s="48">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D9" s="48">
+        <v>10</v>
+      </c>
+      <c r="E9" s="48">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="48" t="s">
+        <v>454</v>
+      </c>
+      <c r="B10" s="48" t="s">
+        <v>901</v>
+      </c>
+      <c r="C10" s="48">
+        <v>1.3</v>
+      </c>
+      <c r="D10" s="48">
+        <v>10</v>
+      </c>
+      <c r="E10" s="48">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="48" t="s">
+        <v>400</v>
+      </c>
+      <c r="B11" s="48" t="s">
+        <v>456</v>
+      </c>
+      <c r="C11" s="48">
+        <v>1</v>
+      </c>
+      <c r="D11" s="48">
+        <v>10</v>
+      </c>
+      <c r="E11" s="48">
         <v>0.5</v>
       </c>
     </row>

--- a/data-raw/excel-spreadsheets/table_data.xlsx
+++ b/data-raw/excel-spreadsheets/table_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\CNAIM\data-raw\excel-spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBAEB59E-19F8-430D-88DC-E26F46EDAB16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D710000E-7358-44C9-B4D0-EF0EEA813F5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="870" firstSheet="83" activeTab="83" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="870" firstSheet="233" activeTab="244" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -302,7 +302,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6819" uniqueCount="1217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6822" uniqueCount="1217">
   <si>
     <t>Health Index Asset Category</t>
   </si>
@@ -4014,13 +4014,13 @@
     <t>Muy baja</t>
   </si>
   <si>
-    <t>CMR equivalent</t>
-  </si>
-  <si>
     <t>Estado como nuevo</t>
   </si>
   <si>
     <t>Ligeramente deteriorado</t>
+  </si>
+  <si>
+    <t>13.8kV</t>
   </si>
 </sst>
 </file>
@@ -30604,8 +30604,8 @@
   </sheetPr>
   <dimension ref="A1:H63"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A63" sqref="A63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -32256,7 +32256,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -32267,8 +32267,8 @@
   </sheetPr>
   <dimension ref="A1:F75"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A73" sqref="A73"/>
+    <sheetView topLeftCell="A16" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B73" sqref="B73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -33338,7 +33338,7 @@
         <v>1064</v>
       </c>
       <c r="B73" s="38" t="s">
-        <v>1214</v>
+        <v>1216</v>
       </c>
       <c r="C73" s="38">
         <v>0</v>
@@ -33358,7 +33358,7 @@
         <v>1064</v>
       </c>
       <c r="B74" s="38" t="s">
-        <v>1214</v>
+        <v>1216</v>
       </c>
       <c r="C74" s="38">
         <v>10</v>
@@ -33378,7 +33378,7 @@
         <v>1064</v>
       </c>
       <c r="B75" s="38" t="s">
-        <v>1214</v>
+        <v>1216</v>
       </c>
       <c r="C75" s="38">
         <v>20</v>
@@ -36897,8 +36897,8 @@
   </sheetPr>
   <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45"/>
+    <sheetView topLeftCell="A31" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -37631,7 +37631,9 @@
       <c r="A43" s="38" t="s">
         <v>1064</v>
       </c>
-      <c r="B43" s="38"/>
+      <c r="B43" s="38" t="s">
+        <v>1216</v>
+      </c>
       <c r="C43" s="38">
         <v>0</v>
       </c>
@@ -37649,7 +37651,9 @@
       <c r="A44" s="38" t="s">
         <v>1064</v>
       </c>
-      <c r="B44" s="38"/>
+      <c r="B44" s="38" t="s">
+        <v>1216</v>
+      </c>
       <c r="C44" s="38">
         <v>10</v>
       </c>
@@ -37667,7 +37671,9 @@
       <c r="A45" s="38" t="s">
         <v>1064</v>
       </c>
-      <c r="B45" s="38"/>
+      <c r="B45" s="38" t="s">
+        <v>1216</v>
+      </c>
       <c r="C45" s="38">
         <v>20</v>
       </c>
@@ -63842,7 +63848,7 @@
   </sheetPr>
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="A8" sqref="A8:E13"/>
     </sheetView>
   </sheetViews>
@@ -63980,7 +63986,7 @@
         <v>1048</v>
       </c>
       <c r="B8" s="48" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="C8" s="48">
         <v>0.9</v>
@@ -64011,7 +64017,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="B10" s="48" t="s">
         <v>922</v>

--- a/data-raw/excel-spreadsheets/table_data.xlsx
+++ b/data-raw/excel-spreadsheets/table_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\CNAIM\data-raw\excel-spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D710000E-7358-44C9-B4D0-EF0EEA813F5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA844A6E-01F5-4022-A7A0-15C57E872C82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="870" firstSheet="233" activeTab="244" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="870" firstSheet="233" activeTab="252" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -265,22 +265,23 @@
     <sheet name="223" sheetId="215" r:id="rId250"/>
     <sheet name="224" sheetId="213" r:id="rId251"/>
     <sheet name="225" sheetId="216" r:id="rId252"/>
-    <sheet name="226" sheetId="217" r:id="rId253"/>
-    <sheet name="227" sheetId="248" r:id="rId254"/>
-    <sheet name="228" sheetId="218" r:id="rId255"/>
-    <sheet name="229" sheetId="219" r:id="rId256"/>
-    <sheet name="230" sheetId="220" r:id="rId257"/>
-    <sheet name="231" sheetId="221" r:id="rId258"/>
-    <sheet name="232" sheetId="222" r:id="rId259"/>
-    <sheet name="233" sheetId="223" r:id="rId260"/>
-    <sheet name="234" sheetId="224" r:id="rId261"/>
-    <sheet name="235" sheetId="225" r:id="rId262"/>
-    <sheet name="236" sheetId="249" r:id="rId263"/>
-    <sheet name="237" sheetId="250" r:id="rId264"/>
-    <sheet name="238" sheetId="251" r:id="rId265"/>
-    <sheet name="239" sheetId="252" r:id="rId266"/>
-    <sheet name="240" sheetId="253" r:id="rId267"/>
-    <sheet name="241" sheetId="254" r:id="rId268"/>
+    <sheet name="225A" sheetId="280" r:id="rId253"/>
+    <sheet name="226" sheetId="217" r:id="rId254"/>
+    <sheet name="227" sheetId="248" r:id="rId255"/>
+    <sheet name="228" sheetId="218" r:id="rId256"/>
+    <sheet name="229" sheetId="219" r:id="rId257"/>
+    <sheet name="230" sheetId="220" r:id="rId258"/>
+    <sheet name="231" sheetId="221" r:id="rId259"/>
+    <sheet name="232" sheetId="222" r:id="rId260"/>
+    <sheet name="233" sheetId="223" r:id="rId261"/>
+    <sheet name="234" sheetId="224" r:id="rId262"/>
+    <sheet name="235" sheetId="225" r:id="rId263"/>
+    <sheet name="236" sheetId="249" r:id="rId264"/>
+    <sheet name="237" sheetId="250" r:id="rId265"/>
+    <sheet name="238" sheetId="251" r:id="rId266"/>
+    <sheet name="239" sheetId="252" r:id="rId267"/>
+    <sheet name="240" sheetId="253" r:id="rId268"/>
+    <sheet name="241" sheetId="254" r:id="rId269"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -302,7 +303,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6822" uniqueCount="1217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6833" uniqueCount="1225">
   <si>
     <t>Health Index Asset Category</t>
   </si>
@@ -4021,6 +4022,30 @@
   </si>
   <si>
     <t>13.8kV</t>
+  </si>
+  <si>
+    <t>Factor de consecuencia de seguridad - Generadores</t>
+  </si>
+  <si>
+    <t>CALIFICACIÓN DE RIESGO DE UBICACIÓN</t>
+  </si>
+  <si>
+    <t>Bajo</t>
+  </si>
+  <si>
+    <t>Alto</t>
+  </si>
+  <si>
+    <t>Medio (Default)</t>
+  </si>
+  <si>
+    <t>CALIFICACIÓN DE RIESGO DE TIPO: Bajo</t>
+  </si>
+  <si>
+    <t>CALIFICACIÓN DE RIESGO DE TIPO: Medio (Default)</t>
+  </si>
+  <si>
+    <t>CALIFICACIÓN DE RIESGO DE TIPO: Alto</t>
   </si>
 </sst>
 </file>
@@ -30604,7 +30629,7 @@
   </sheetPr>
   <dimension ref="A1:H63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView topLeftCell="A49" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="A63" sqref="A63"/>
     </sheetView>
   </sheetViews>
@@ -35143,9 +35168,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-D700-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -35232,6 +35255,101 @@
 </file>
 
 <file path=xl/worksheets/sheet253.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EA55BD2-31C1-4539-94DB-4CE4A51B9489}">
+  <sheetPr>
+    <tabColor theme="5"/>
+  </sheetPr>
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="34.88671875" customWidth="1"/>
+    <col min="3" max="3" width="21" customWidth="1"/>
+    <col min="4" max="4" width="33" customWidth="1"/>
+    <col min="5" max="5" width="21.44140625" customWidth="1"/>
+    <col min="6" max="6" width="4.6640625" customWidth="1"/>
+    <col min="7" max="1025" width="8.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="43" t="s">
+        <v>1217</v>
+      </c>
+      <c r="B1" s="43" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C1" s="43" t="s">
+        <v>1222</v>
+      </c>
+      <c r="D1" s="43" t="s">
+        <v>1223</v>
+      </c>
+      <c r="E1" s="43" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="43" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B2" s="43" t="s">
+        <v>1219</v>
+      </c>
+      <c r="C2" s="43">
+        <v>0.7</v>
+      </c>
+      <c r="D2" s="43">
+        <v>0.9</v>
+      </c>
+      <c r="E2" s="43">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="43" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B3" s="43" t="s">
+        <v>1221</v>
+      </c>
+      <c r="C3" s="43">
+        <v>0.9</v>
+      </c>
+      <c r="D3" s="43">
+        <v>1</v>
+      </c>
+      <c r="E3" s="43">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="43" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B4" s="43" t="s">
+        <v>1220</v>
+      </c>
+      <c r="C4" s="43">
+        <v>1.2</v>
+      </c>
+      <c r="D4" s="43">
+        <v>1.4</v>
+      </c>
+      <c r="E4" s="43">
+        <v>1.6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet254.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-D800-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -35276,7 +35394,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet254.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet255.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6958CC5-9DF2-4A0E-9B47-F65C1C375716}">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -35324,7 +35442,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet255.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet256.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-D900-000000000000}">
   <sheetPr>
     <tabColor theme="7"/>
@@ -36784,7 +36902,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet256.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet257.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-DA00-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
@@ -36890,7 +37008,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet257.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet258.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-DB00-000000000000}">
   <sheetPr>
     <tabColor theme="7"/>
@@ -37691,7 +37809,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet258.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet259.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-DC00-000000000000}">
   <sheetPr>
     <tabColor theme="7"/>
@@ -37962,51 +38080,6 @@
       </c>
       <c r="G11" s="38">
         <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet259.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-DD00-000000000000}">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="L37" sqref="L37"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="18.109375" customWidth="1"/>
-    <col min="3" max="1025" width="8.88671875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>833</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>965</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>834</v>
-      </c>
-      <c r="B2">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>835</v>
-      </c>
-      <c r="B3">
-        <v>18.55</v>
       </c>
     </row>
   </sheetData>
@@ -38119,6 +38192,51 @@
 </file>
 
 <file path=xl/worksheets/sheet260.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-DD00-000000000000}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="L37" sqref="L37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="18.109375" customWidth="1"/>
+    <col min="3" max="1025" width="8.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>834</v>
+      </c>
+      <c r="B2">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>835</v>
+      </c>
+      <c r="B3">
+        <v>18.55</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet261.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-DE00-000000000000}">
   <dimension ref="A1:H11"/>
   <sheetViews>
@@ -38431,7 +38549,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet261.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet262.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-DF00-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
@@ -38550,7 +38668,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet262.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet263.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-E000-000000000000}">
   <sheetPr>
     <tabColor theme="7"/>
@@ -40044,7 +40162,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet263.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet264.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74D6C426-89EE-49AA-9C90-5B5D8351FDF2}">
   <sheetPr>
     <tabColor theme="7"/>
@@ -41158,7 +41276,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet264.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet265.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB50D737-0212-40DC-B856-D8A5EC742BF6}">
   <sheetPr>
     <tabColor theme="7"/>
@@ -42463,7 +42581,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet265.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet266.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{317B802B-6900-474F-B2EC-A070196B70EF}">
   <sheetPr>
     <tabColor theme="7"/>
@@ -48304,7 +48422,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet266.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet267.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F99DD3C9-B330-4E74-8D65-7C1404034804}">
   <sheetPr>
     <tabColor theme="7"/>
@@ -48908,7 +49026,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet267.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet268.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1590256-6A55-46CA-A90D-5C856B0A45CE}">
   <sheetPr>
     <tabColor theme="7"/>
@@ -50214,7 +50332,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet268.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet269.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59BC7345-7AB9-4B72-8350-23628CD4A363}">
   <sheetPr>
     <tabColor theme="7"/>

--- a/data-raw/excel-spreadsheets/table_data.xlsx
+++ b/data-raw/excel-spreadsheets/table_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\CNAIM\data-raw\excel-spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C70D5098-0F85-4BC0-BEAE-08F393A58477}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF9CFFFA-3C3B-48DC-B2FC-F7FB6AC2A72C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="870" firstSheet="246" activeTab="268" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="870" firstSheet="164" activeTab="188" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -303,7 +303,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6867" uniqueCount="1248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6867" uniqueCount="1245">
   <si>
     <t>Health Index Asset Category</t>
   </si>
@@ -4048,9 +4048,6 @@
     <t>CALIFICACIÓN DE RIESGO DE TIPO: Alto</t>
   </si>
   <si>
-    <t>Deterioro especifico/menor</t>
-  </si>
-  <si>
     <t>El transformador puede presentar signos de envejecimiento o marcas (por ejemplo, rayaduras superficiales, musgo o líquenes que pueden eliminarse con un cepillado). Esto no tiene un impacto significativo en la probabilidad de falla del equipo</t>
   </si>
   <si>
@@ -4087,34 +4084,28 @@
     <t>Se registran niveles moderados de descargas parciales (por ejemplo, resultado “ámbar” en un dispositivo de medición TEV o valores entre el 10 % y el 30 % de lo recomendado por el fabricante).</t>
   </si>
   <si>
-    <t>Alta (no confirmada)</t>
-  </si>
-  <si>
     <t>Niveles elevados de descargas parciales que indican la posible presencia de un defecto en la planta o el equipo, lo cual requiere una investigación más detallada (por ejemplo, resultado “rojo” en un dispositivo de medición TEV o valores por encima de lo recomendado por el fabricante).</t>
   </si>
   <si>
-    <t>Alta (Confirmida)</t>
-  </si>
-  <si>
     <t>Descargas parciales elevadas. Se ha confirmado que la fuente de descarga parcial constituye una posible causa de falla.</t>
   </si>
   <si>
     <t>Temperatura normalmente esperada para la carga del transformador.</t>
   </si>
   <si>
-    <t>Moderamente elevada</t>
-  </si>
-  <si>
     <t>Temperatura ligeramente superior a la normalmente esperada para la carga del transformador.</t>
   </si>
   <si>
-    <t>Severamente elevada</t>
-  </si>
-  <si>
     <t>Temperatura significativamente superior a la normalmente esperada para la carga del transformador.</t>
   </si>
   <si>
     <t>Transformador 13.2 kV</t>
+  </si>
+  <si>
+    <t>Moderamente Alta</t>
+  </si>
+  <si>
+    <t>Muy Alta</t>
   </si>
 </sst>
 </file>
@@ -18801,9 +18792,7 @@
   </sheetPr>
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:E11"/>
-    </sheetView>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -18922,7 +18911,7 @@
         <v>1021</v>
       </c>
       <c r="B7" s="57" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="C7" s="56">
         <v>1</v>
@@ -18939,7 +18928,7 @@
         <v>1022</v>
       </c>
       <c r="B8" s="57" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="C8" s="56">
         <v>1.1000000000000001</v>
@@ -18953,10 +18942,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="56" t="s">
-        <v>1238</v>
+        <v>1023</v>
       </c>
       <c r="B9" s="57" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="C9" s="56">
         <v>1.3</v>
@@ -18970,10 +18959,10 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="56" t="s">
-        <v>1240</v>
+        <v>1024</v>
       </c>
       <c r="B10" s="56" t="s">
-        <v>1241</v>
+        <v>1238</v>
       </c>
       <c r="C10" s="56">
         <v>1.5</v>
@@ -19015,8 +19004,8 @@
   </sheetPr>
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:E9"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19119,7 +19108,7 @@
         <v>594</v>
       </c>
       <c r="B6" s="48" t="s">
-        <v>1242</v>
+        <v>1239</v>
       </c>
       <c r="C6" s="48">
         <v>1</v>
@@ -19136,7 +19125,7 @@
         <v>1243</v>
       </c>
       <c r="B7" s="48" t="s">
-        <v>1244</v>
+        <v>1240</v>
       </c>
       <c r="C7" s="48">
         <v>1.2</v>
@@ -19150,10 +19139,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="48" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="B8" s="48" t="s">
-        <v>1246</v>
+        <v>1241</v>
       </c>
       <c r="C8" s="48">
         <v>1.4</v>
@@ -35217,7 +35206,7 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="48" t="s">
-        <v>1247</v>
+        <v>1242</v>
       </c>
       <c r="B58" s="59">
         <v>2.6027400000000001E-5</v>
@@ -50724,7 +50713,7 @@
   </sheetPr>
   <dimension ref="A1:G257"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -64591,10 +64580,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="56" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B9" s="56" t="s">
         <v>1225</v>
-      </c>
-      <c r="B9" s="56" t="s">
-        <v>1226</v>
       </c>
       <c r="C9" s="56">
         <v>1</v>
@@ -64611,7 +64600,7 @@
         <v>1215</v>
       </c>
       <c r="B10" s="57" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="C10" s="56">
         <v>1.1000000000000001</v>
@@ -64628,7 +64617,7 @@
         <v>1034</v>
       </c>
       <c r="B11" s="57" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="C11" s="56">
         <v>1.25</v>
@@ -64645,7 +64634,7 @@
         <v>1035</v>
       </c>
       <c r="B12" s="57" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="C12" s="56">
         <v>1.4</v>
@@ -64676,7 +64665,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -64803,10 +64792,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="56" t="s">
+        <v>1229</v>
+      </c>
+      <c r="B7" s="56" t="s">
         <v>1230</v>
-      </c>
-      <c r="B7" s="56" t="s">
-        <v>1231</v>
       </c>
       <c r="C7" s="56">
         <v>1</v>
@@ -64820,10 +64809,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="56" t="s">
+        <v>1231</v>
+      </c>
+      <c r="B8" s="57" t="s">
         <v>1232</v>
-      </c>
-      <c r="B8" s="57" t="s">
-        <v>1233</v>
       </c>
       <c r="C8" s="56">
         <v>1</v>
@@ -64840,7 +64829,7 @@
         <v>1034</v>
       </c>
       <c r="B9" s="57" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="C9" s="56">
         <v>1.1000000000000001</v>
@@ -64857,7 +64846,7 @@
         <v>1035</v>
       </c>
       <c r="B10" s="57" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="C10" s="56">
         <v>1.3</v>

--- a/data-raw/excel-spreadsheets/table_data.xlsx
+++ b/data-raw/excel-spreadsheets/table_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\CNAIM\data-raw\excel-spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF9CFFFA-3C3B-48DC-B2FC-F7FB6AC2A72C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E6BA514-A39E-49A1-86F9-DD1B6B24785E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="870" firstSheet="164" activeTab="188" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="870" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -303,7 +303,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6867" uniqueCount="1245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6867" uniqueCount="1244">
   <si>
     <t>Health Index Asset Category</t>
   </si>
@@ -3599,9 +3599,6 @@
   </si>
   <si>
     <t>Max % Utilisation under normal operating conditions (Generador)</t>
-  </si>
-  <si>
-    <t>Transformador 13.2kV (GM)</t>
   </si>
   <si>
     <t>1. Cubierta, 2. Aislamiento, 3. Cables y de la caja de terminales, 4. Rotor, 5. Estator</t>
@@ -4832,7 +4829,7 @@
   </sheetPr>
   <dimension ref="A1:B65"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="A65" sqref="A65"/>
     </sheetView>
   </sheetViews>
@@ -5016,7 +5013,7 @@
         <v>26</v>
       </c>
       <c r="B22" s="48" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -8778,7 +8775,7 @@
         <v>177</v>
       </c>
       <c r="C11" s="48" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -9053,7 +9050,7 @@
         <v>1067</v>
       </c>
       <c r="C36" s="38" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
@@ -9064,7 +9061,7 @@
         <v>1068</v>
       </c>
       <c r="C37" s="38" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
     </row>
   </sheetData>
@@ -10225,7 +10222,7 @@
   </sheetPr>
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
@@ -11775,29 +11772,29 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="43" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="B1" s="43" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C1" s="43" t="s">
         <v>1081</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="D1" s="43" t="s">
         <v>1082</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="E1" s="43" t="s">
         <v>1083</v>
-      </c>
-      <c r="E1" s="43" t="s">
-        <v>1084</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="38" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="B2" s="38" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="C2" s="38">
         <v>1</v>
@@ -11814,7 +11811,7 @@
         <v>1034</v>
       </c>
       <c r="B3" s="38" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="C3" s="38">
         <v>1.4</v>
@@ -11831,7 +11828,7 @@
         <v>1035</v>
       </c>
       <c r="B4" s="38" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="C4" s="38">
         <v>1.8</v>
@@ -11848,7 +11845,7 @@
         <v>400</v>
       </c>
       <c r="B5" s="38" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="C5" s="38">
         <v>1</v>
@@ -11889,29 +11886,29 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="43" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="B1" s="43" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C1" s="43" t="s">
         <v>1081</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="D1" s="43" t="s">
         <v>1082</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="E1" s="43" t="s">
         <v>1083</v>
-      </c>
-      <c r="E1" s="43" t="s">
-        <v>1084</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="38" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="B2" s="38" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="C2" s="38">
         <v>1</v>
@@ -11928,7 +11925,7 @@
         <v>1034</v>
       </c>
       <c r="B3" s="38" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="C3" s="38">
         <v>1.2</v>
@@ -11945,7 +11942,7 @@
         <v>1035</v>
       </c>
       <c r="B4" s="38" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="C4" s="38">
         <v>1.8</v>
@@ -11962,7 +11959,7 @@
         <v>400</v>
       </c>
       <c r="B5" s="38" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="C5" s="38">
         <v>1</v>
@@ -12003,29 +12000,29 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="43" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="B1" s="43" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C1" s="43" t="s">
         <v>1081</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="D1" s="43" t="s">
         <v>1082</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="E1" s="43" t="s">
         <v>1083</v>
-      </c>
-      <c r="E1" s="43" t="s">
-        <v>1084</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="38" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="B2" s="38" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="C2" s="38">
         <v>1</v>
@@ -12042,7 +12039,7 @@
         <v>1034</v>
       </c>
       <c r="B3" s="38" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="C3" s="38">
         <v>1.2</v>
@@ -12059,7 +12056,7 @@
         <v>1035</v>
       </c>
       <c r="B4" s="38" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="C4" s="38">
         <v>1.4</v>
@@ -12076,7 +12073,7 @@
         <v>400</v>
       </c>
       <c r="B5" s="38" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="C5" s="38">
         <v>1</v>
@@ -12231,7 +12228,7 @@
         <v>177</v>
       </c>
       <c r="C11" s="48" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -12506,7 +12503,7 @@
         <v>1067</v>
       </c>
       <c r="C36" s="38" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
@@ -12517,7 +12514,7 @@
         <v>1068</v>
       </c>
       <c r="C37" s="38" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
     </row>
   </sheetData>
@@ -12549,29 +12546,29 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="43" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="B1" s="43" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C1" s="43" t="s">
         <v>1081</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="D1" s="43" t="s">
         <v>1082</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="E1" s="43" t="s">
         <v>1083</v>
-      </c>
-      <c r="E1" s="43" t="s">
-        <v>1084</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="38" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="B2" s="38" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="C2" s="38">
         <v>1</v>
@@ -12588,7 +12585,7 @@
         <v>1034</v>
       </c>
       <c r="B3" s="38" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="C3" s="38">
         <v>1.2</v>
@@ -12605,7 +12602,7 @@
         <v>1035</v>
       </c>
       <c r="B4" s="38" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="C4" s="38">
         <v>1.4</v>
@@ -12622,7 +12619,7 @@
         <v>400</v>
       </c>
       <c r="B5" s="38" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="C5" s="38">
         <v>1</v>
@@ -12663,29 +12660,29 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="43" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="B1" s="43" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C1" s="43" t="s">
         <v>1081</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="D1" s="43" t="s">
         <v>1082</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="E1" s="43" t="s">
         <v>1083</v>
-      </c>
-      <c r="E1" s="43" t="s">
-        <v>1084</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="38" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="B2" s="38" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="C2" s="38">
         <v>1</v>
@@ -12702,7 +12699,7 @@
         <v>1034</v>
       </c>
       <c r="B3" s="38" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="C3" s="38">
         <v>1.2</v>
@@ -12719,7 +12716,7 @@
         <v>1035</v>
       </c>
       <c r="B4" s="38" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="C4" s="38">
         <v>1.4</v>
@@ -12736,7 +12733,7 @@
         <v>400</v>
       </c>
       <c r="B5" s="38" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="C5" s="38">
         <v>1</v>
@@ -12777,29 +12774,29 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="43" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="B1" s="43" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C1" s="43" t="s">
         <v>1081</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="D1" s="43" t="s">
         <v>1082</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="E1" s="43" t="s">
         <v>1083</v>
-      </c>
-      <c r="E1" s="43" t="s">
-        <v>1084</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="38" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="B2" s="38" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="C2" s="38">
         <v>1</v>
@@ -12816,7 +12813,7 @@
         <v>1034</v>
       </c>
       <c r="B3" s="38" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="C3" s="38">
         <v>1.2</v>
@@ -12833,7 +12830,7 @@
         <v>1035</v>
       </c>
       <c r="B4" s="38" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="C4" s="38">
         <v>1.4</v>
@@ -12850,7 +12847,7 @@
         <v>400</v>
       </c>
       <c r="B5" s="38" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="C5" s="38">
         <v>1</v>
@@ -12891,29 +12888,29 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="43" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="B1" s="43" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C1" s="43" t="s">
         <v>1081</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="D1" s="43" t="s">
         <v>1082</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="E1" s="43" t="s">
         <v>1083</v>
-      </c>
-      <c r="E1" s="43" t="s">
-        <v>1084</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="38" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="B2" s="38" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="C2" s="38">
         <v>1</v>
@@ -12930,7 +12927,7 @@
         <v>1034</v>
       </c>
       <c r="B3" s="38" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="C3" s="38">
         <v>1.2</v>
@@ -12947,7 +12944,7 @@
         <v>1035</v>
       </c>
       <c r="B4" s="38" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="C4" s="38">
         <v>1.4</v>
@@ -12964,7 +12961,7 @@
         <v>400</v>
       </c>
       <c r="B5" s="38" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="C5" s="38">
         <v>1</v>
@@ -13005,29 +13002,29 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="43" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="B1" s="43" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C1" s="43" t="s">
         <v>1081</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="D1" s="43" t="s">
         <v>1082</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="E1" s="43" t="s">
         <v>1083</v>
-      </c>
-      <c r="E1" s="43" t="s">
-        <v>1084</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="38" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="B2" s="38" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="C2" s="38">
         <v>1</v>
@@ -13044,7 +13041,7 @@
         <v>1034</v>
       </c>
       <c r="B3" s="38" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="C3" s="38">
         <v>1.2</v>
@@ -13061,7 +13058,7 @@
         <v>1035</v>
       </c>
       <c r="B4" s="38" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="C4" s="38">
         <v>1.4</v>
@@ -13078,7 +13075,7 @@
         <v>400</v>
       </c>
       <c r="B5" s="38" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="C5" s="38">
         <v>1</v>
@@ -13119,29 +13116,29 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="43" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="B1" s="43" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C1" s="43" t="s">
         <v>1081</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="D1" s="43" t="s">
         <v>1082</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="E1" s="43" t="s">
         <v>1083</v>
-      </c>
-      <c r="E1" s="43" t="s">
-        <v>1084</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="38" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="B2" s="38" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="C2" s="38">
         <v>1</v>
@@ -13158,7 +13155,7 @@
         <v>1034</v>
       </c>
       <c r="B3" s="38" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="C3" s="38">
         <v>1.2</v>
@@ -13175,7 +13172,7 @@
         <v>1035</v>
       </c>
       <c r="B4" s="38" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="C4" s="38">
         <v>1.4</v>
@@ -13192,7 +13189,7 @@
         <v>400</v>
       </c>
       <c r="B5" s="38" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="C5" s="38">
         <v>1</v>
@@ -13233,29 +13230,29 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="43" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="B1" s="43" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C1" s="43" t="s">
         <v>1081</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="D1" s="43" t="s">
         <v>1082</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="E1" s="43" t="s">
         <v>1083</v>
-      </c>
-      <c r="E1" s="43" t="s">
-        <v>1084</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="38" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="B2" s="38" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="C2" s="38">
         <v>1</v>
@@ -13272,7 +13269,7 @@
         <v>1034</v>
       </c>
       <c r="B3" s="38" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="C3" s="38">
         <v>1.2</v>
@@ -13289,7 +13286,7 @@
         <v>1035</v>
       </c>
       <c r="B4" s="38" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="C4" s="38">
         <v>1.4</v>
@@ -13306,7 +13303,7 @@
         <v>400</v>
       </c>
       <c r="B5" s="38" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="C5" s="38">
         <v>1</v>
@@ -13347,29 +13344,29 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="43" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="B1" s="43" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C1" s="43" t="s">
         <v>1081</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="D1" s="43" t="s">
         <v>1082</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="E1" s="43" t="s">
         <v>1083</v>
-      </c>
-      <c r="E1" s="43" t="s">
-        <v>1084</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="38" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="B2" s="38" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="C2" s="38">
         <v>1</v>
@@ -13386,7 +13383,7 @@
         <v>1034</v>
       </c>
       <c r="B3" s="38" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="C3" s="38">
         <v>1.2</v>
@@ -13403,7 +13400,7 @@
         <v>1035</v>
       </c>
       <c r="B4" s="38" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="C4" s="38">
         <v>1.4</v>
@@ -13420,7 +13417,7 @@
         <v>400</v>
       </c>
       <c r="B5" s="38" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="C5" s="38">
         <v>1</v>
@@ -13461,29 +13458,29 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="43" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="B1" s="43" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C1" s="43" t="s">
         <v>1081</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="D1" s="43" t="s">
         <v>1082</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="E1" s="43" t="s">
         <v>1083</v>
-      </c>
-      <c r="E1" s="43" t="s">
-        <v>1084</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="38" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="B2" s="38" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="C2" s="38">
         <v>1</v>
@@ -13500,7 +13497,7 @@
         <v>1034</v>
       </c>
       <c r="B3" s="38" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="C3" s="38">
         <v>1.2</v>
@@ -13517,7 +13514,7 @@
         <v>1035</v>
       </c>
       <c r="B4" s="38" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="C4" s="38">
         <v>1.4</v>
@@ -13534,7 +13531,7 @@
         <v>400</v>
       </c>
       <c r="B5" s="38" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="C5" s="38">
         <v>1</v>
@@ -13575,29 +13572,29 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="43" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="B1" s="43" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C1" s="43" t="s">
         <v>1081</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="D1" s="43" t="s">
         <v>1082</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="E1" s="43" t="s">
         <v>1083</v>
-      </c>
-      <c r="E1" s="43" t="s">
-        <v>1084</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="38" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="B2" s="38" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="C2" s="38">
         <v>1</v>
@@ -13614,7 +13611,7 @@
         <v>1034</v>
       </c>
       <c r="B3" s="38" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="C3" s="38">
         <v>1.2</v>
@@ -13631,7 +13628,7 @@
         <v>1035</v>
       </c>
       <c r="B4" s="38" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="C4" s="38">
         <v>1.4</v>
@@ -13648,7 +13645,7 @@
         <v>400</v>
       </c>
       <c r="B5" s="38" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="C5" s="38">
         <v>1</v>
@@ -14327,29 +14324,29 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="43" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="B1" s="43" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C1" s="43" t="s">
         <v>1081</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="D1" s="43" t="s">
         <v>1082</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="E1" s="43" t="s">
         <v>1083</v>
-      </c>
-      <c r="E1" s="43" t="s">
-        <v>1084</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="38" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="B2" s="38" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="C2" s="38">
         <v>1</v>
@@ -14366,7 +14363,7 @@
         <v>1034</v>
       </c>
       <c r="B3" s="38" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="C3" s="38">
         <v>1.2</v>
@@ -14383,7 +14380,7 @@
         <v>1035</v>
       </c>
       <c r="B4" s="38" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="C4" s="38">
         <v>1.4</v>
@@ -14400,7 +14397,7 @@
         <v>400</v>
       </c>
       <c r="B5" s="38" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="C5" s="38">
         <v>1</v>
@@ -16615,7 +16612,7 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="48" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="B59" s="48">
         <v>9297</v>
@@ -18911,7 +18908,7 @@
         <v>1021</v>
       </c>
       <c r="B7" s="57" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="C7" s="56">
         <v>1</v>
@@ -18928,7 +18925,7 @@
         <v>1022</v>
       </c>
       <c r="B8" s="57" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="C8" s="56">
         <v>1.1000000000000001</v>
@@ -18945,7 +18942,7 @@
         <v>1023</v>
       </c>
       <c r="B9" s="57" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="C9" s="56">
         <v>1.3</v>
@@ -18962,7 +18959,7 @@
         <v>1024</v>
       </c>
       <c r="B10" s="56" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="C10" s="56">
         <v>1.5</v>
@@ -18979,7 +18976,7 @@
         <v>400</v>
       </c>
       <c r="B11" s="56" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="C11" s="56">
         <v>1</v>
@@ -19004,7 +19001,7 @@
   </sheetPr>
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
@@ -19108,7 +19105,7 @@
         <v>594</v>
       </c>
       <c r="B6" s="48" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="C6" s="48">
         <v>1</v>
@@ -19122,10 +19119,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="48" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="B7" s="48" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="C7" s="48">
         <v>1.2</v>
@@ -19139,10 +19136,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="48" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="B8" s="48" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="C8" s="48">
         <v>1.4</v>
@@ -19159,7 +19156,7 @@
         <v>400</v>
       </c>
       <c r="B9" s="48" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="C9" s="48">
         <v>1</v>
@@ -20681,7 +20678,7 @@
   </sheetPr>
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
@@ -22706,8 +22703,8 @@
   </sheetPr>
   <dimension ref="A1:C148"/>
   <sheetViews>
-    <sheetView topLeftCell="A136" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E120" sqref="E120"/>
+    <sheetView topLeftCell="A25" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -23040,7 +23037,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="48" t="s">
-        <v>1076</v>
+        <v>1109</v>
       </c>
       <c r="B35" s="48"/>
       <c r="C35" s="48">
@@ -25715,27 +25712,27 @@
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="46" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="B1" s="46" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C1" s="46" t="s">
         <v>1081</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="D1" s="46" t="s">
         <v>1082</v>
       </c>
-      <c r="D1" s="46" t="s">
+      <c r="E1" s="46" t="s">
         <v>1083</v>
-      </c>
-      <c r="E1" s="46" t="s">
-        <v>1084</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="47" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="B2" s="47" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="C2" s="47">
         <v>1</v>
@@ -25749,10 +25746,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="47" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="B3" s="47" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="C3" s="47">
         <v>1.3</v>
@@ -25766,10 +25763,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="47" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="B4" s="47" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="C4" s="47">
         <v>1.6</v>
@@ -25786,7 +25783,7 @@
         <v>400</v>
       </c>
       <c r="B5" s="47" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="C5" s="47">
         <v>1</v>
@@ -25825,27 +25822,27 @@
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="46" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="B1" s="46" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C1" s="46" t="s">
         <v>1081</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="D1" s="46" t="s">
         <v>1082</v>
       </c>
-      <c r="D1" s="46" t="s">
+      <c r="E1" s="46" t="s">
         <v>1083</v>
-      </c>
-      <c r="E1" s="46" t="s">
-        <v>1084</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="47" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="B2" s="47" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="C2" s="47">
         <v>1</v>
@@ -25859,10 +25856,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="47" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="B3" s="47" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="C3" s="47">
         <v>1.3</v>
@@ -25876,10 +25873,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="47" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="B4" s="47" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="C4" s="47">
         <v>1.6</v>
@@ -25896,7 +25893,7 @@
         <v>400</v>
       </c>
       <c r="B5" s="47" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="C5" s="47">
         <v>1</v>
@@ -25935,27 +25932,27 @@
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="46" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="B1" s="46" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C1" s="46" t="s">
         <v>1081</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="D1" s="46" t="s">
         <v>1082</v>
       </c>
-      <c r="D1" s="46" t="s">
+      <c r="E1" s="46" t="s">
         <v>1083</v>
-      </c>
-      <c r="E1" s="46" t="s">
-        <v>1084</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="47" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="B2" s="47" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="C2" s="47">
         <v>1</v>
@@ -25969,10 +25966,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="47" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="B3" s="47" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="C3" s="47">
         <v>1.1000000000000001</v>
@@ -25986,10 +25983,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="47" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="B4" s="47" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="C4" s="47">
         <v>1.5</v>
@@ -26006,7 +26003,7 @@
         <v>400</v>
       </c>
       <c r="B5" s="47" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="C5" s="47">
         <v>1</v>
@@ -26045,27 +26042,27 @@
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="46" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="B1" s="46" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C1" s="46" t="s">
         <v>1081</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="D1" s="46" t="s">
         <v>1082</v>
       </c>
-      <c r="D1" s="46" t="s">
+      <c r="E1" s="46" t="s">
         <v>1083</v>
-      </c>
-      <c r="E1" s="46" t="s">
-        <v>1084</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="47" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="B2" s="47" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="C2" s="47">
         <v>1</v>
@@ -26079,10 +26076,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="47" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="B3" s="47" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C3" s="47">
         <v>1.3</v>
@@ -26096,10 +26093,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="47" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="B4" s="47" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="C4" s="47">
         <v>1.6</v>
@@ -26116,7 +26113,7 @@
         <v>400</v>
       </c>
       <c r="B5" s="47" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="C5" s="47">
         <v>1</v>
@@ -26155,27 +26152,27 @@
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="46" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="B1" s="46" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C1" s="46" t="s">
         <v>1081</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="D1" s="46" t="s">
         <v>1082</v>
       </c>
-      <c r="D1" s="46" t="s">
+      <c r="E1" s="46" t="s">
         <v>1083</v>
-      </c>
-      <c r="E1" s="46" t="s">
-        <v>1084</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="47" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="B2" s="50" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="C2" s="54">
         <v>1</v>
@@ -26189,10 +26186,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="47" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="B3" s="38" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="C3" s="55">
         <v>1.1000000000000001</v>
@@ -26206,10 +26203,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="47" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="B4" s="50" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="C4" s="54">
         <v>1.3</v>
@@ -26223,10 +26220,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="47" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="B5" s="50" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="C5" s="54">
         <v>1.5</v>
@@ -26240,10 +26237,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="47" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="B6" s="50" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="C6" s="54">
         <v>1.6</v>
@@ -26260,7 +26257,7 @@
         <v>400</v>
       </c>
       <c r="B7" s="47" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="C7" s="54">
         <v>1</v>
@@ -26299,27 +26296,27 @@
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="46" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="B1" s="46" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C1" s="46" t="s">
         <v>1081</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="D1" s="46" t="s">
         <v>1082</v>
       </c>
-      <c r="D1" s="46" t="s">
+      <c r="E1" s="46" t="s">
         <v>1083</v>
-      </c>
-      <c r="E1" s="46" t="s">
-        <v>1084</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="47" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="B2" s="51" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="C2" s="54">
         <v>1</v>
@@ -26333,10 +26330,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="47" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="B3" s="51" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="C3" s="55">
         <v>1.1000000000000001</v>
@@ -26350,10 +26347,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="47" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="B4" s="51" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="C4" s="54">
         <v>1.3</v>
@@ -26367,10 +26364,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="47" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="B5" s="51" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="C5" s="54">
         <v>1.5</v>
@@ -26384,10 +26381,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="47" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="B6" s="51" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="C6" s="54">
         <v>1.6</v>
@@ -26404,7 +26401,7 @@
         <v>400</v>
       </c>
       <c r="B7" s="51" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="C7" s="54">
         <v>1</v>
@@ -26443,27 +26440,27 @@
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="46" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="B1" s="46" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C1" s="46" t="s">
         <v>1081</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="D1" s="46" t="s">
         <v>1082</v>
       </c>
-      <c r="D1" s="46" t="s">
+      <c r="E1" s="46" t="s">
         <v>1083</v>
-      </c>
-      <c r="E1" s="46" t="s">
-        <v>1084</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="47" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="B2" s="50" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="C2" s="54">
         <v>1</v>
@@ -26477,10 +26474,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="47" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="B3" s="50" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="C3" s="54">
         <v>1.1000000000000001</v>
@@ -26494,10 +26491,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="47" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="B4" s="50" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="C4" s="54">
         <v>1.3</v>
@@ -26511,10 +26508,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="47" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="B5" s="50" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="C5" s="54">
         <v>1.5</v>
@@ -26531,7 +26528,7 @@
         <v>400</v>
       </c>
       <c r="B6" s="47" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="C6" s="54">
         <v>1</v>
@@ -26570,27 +26567,27 @@
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="46" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="B1" s="46" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C1" s="46" t="s">
         <v>1081</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="D1" s="46" t="s">
         <v>1082</v>
       </c>
-      <c r="D1" s="46" t="s">
+      <c r="E1" s="46" t="s">
         <v>1083</v>
-      </c>
-      <c r="E1" s="46" t="s">
-        <v>1084</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="47" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="B2" s="51" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="C2" s="54">
         <v>1</v>
@@ -26604,10 +26601,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="47" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="B3" s="51" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="C3" s="55">
         <v>1.1000000000000001</v>
@@ -26621,10 +26618,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="47" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="B4" s="51" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="C4" s="54">
         <v>1.3</v>
@@ -26638,10 +26635,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="47" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="B5" s="51" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="C5" s="54">
         <v>1.5</v>
@@ -26655,10 +26652,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="47" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="B6" s="51" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="C6" s="54">
         <v>1.6</v>
@@ -26675,7 +26672,7 @@
         <v>400</v>
       </c>
       <c r="B7" s="51" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="C7" s="54">
         <v>1</v>
@@ -26714,27 +26711,27 @@
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="46" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="B1" s="46" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C1" s="46" t="s">
         <v>1081</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="D1" s="46" t="s">
         <v>1082</v>
       </c>
-      <c r="D1" s="46" t="s">
+      <c r="E1" s="46" t="s">
         <v>1083</v>
-      </c>
-      <c r="E1" s="46" t="s">
-        <v>1084</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="47" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="B2" s="51" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="C2" s="54">
         <v>1</v>
@@ -26748,10 +26745,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="47" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="B3" s="51" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="C3" s="55">
         <v>1.1000000000000001</v>
@@ -26765,10 +26762,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="47" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="B4" s="51" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="C4" s="54">
         <v>1.3</v>
@@ -26782,10 +26779,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="47" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="B5" s="51" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="C5" s="54">
         <v>1.5</v>
@@ -26799,10 +26796,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="47" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="B6" s="51" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="C6" s="54">
         <v>1.6</v>
@@ -26819,7 +26816,7 @@
         <v>400</v>
       </c>
       <c r="B7" s="51" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="C7" s="54">
         <v>1</v>
@@ -26858,27 +26855,27 @@
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="46" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="B1" s="46" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C1" s="46" t="s">
         <v>1081</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="D1" s="46" t="s">
         <v>1082</v>
       </c>
-      <c r="D1" s="46" t="s">
+      <c r="E1" s="46" t="s">
         <v>1083</v>
-      </c>
-      <c r="E1" s="46" t="s">
-        <v>1084</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="47" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="B2" s="51" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="C2" s="54">
         <v>1</v>
@@ -26895,7 +26892,7 @@
         <v>1021</v>
       </c>
       <c r="B3" s="51" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="C3" s="55">
         <v>1.1000000000000001</v>
@@ -26912,7 +26909,7 @@
         <v>1022</v>
       </c>
       <c r="B4" s="51" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="C4" s="54">
         <v>1.3</v>
@@ -26926,10 +26923,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="47" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="B5" s="51" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="C5" s="54">
         <v>1.5</v>
@@ -26946,7 +26943,7 @@
         <v>1031</v>
       </c>
       <c r="B6" s="51" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="C6" s="54">
         <v>1.6</v>
@@ -26963,7 +26960,7 @@
         <v>400</v>
       </c>
       <c r="B7" s="51" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="C7" s="54">
         <v>1</v>
@@ -32195,7 +32192,7 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="48" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="B58" s="48">
         <v>15</v>
@@ -32847,7 +32844,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="48" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="B39" s="48"/>
       <c r="C39" s="58">
@@ -32865,7 +32862,7 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="48" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="B40" s="48"/>
       <c r="C40" s="48">
@@ -32883,7 +32880,7 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="48" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="B41" s="48"/>
       <c r="C41" s="48">
@@ -33511,7 +33508,7 @@
         <v>1064</v>
       </c>
       <c r="B76" s="38" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="C76" s="38">
         <v>0</v>
@@ -33531,7 +33528,7 @@
         <v>1064</v>
       </c>
       <c r="B77" s="38" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="C77" s="38">
         <v>10</v>
@@ -33551,7 +33548,7 @@
         <v>1064</v>
       </c>
       <c r="B78" s="38" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="C78" s="38">
         <v>20</v>
@@ -35206,7 +35203,7 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="48" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="B58" s="59">
         <v>2.6027400000000001E-5</v>
@@ -35442,27 +35439,27 @@
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="43" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="B1" s="43" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="C1" s="43" t="s">
+        <v>1221</v>
+      </c>
+      <c r="D1" s="43" t="s">
         <v>1222</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="E1" s="43" t="s">
         <v>1223</v>
-      </c>
-      <c r="E1" s="43" t="s">
-        <v>1224</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="43" t="s">
+        <v>1217</v>
+      </c>
+      <c r="B2" s="43" t="s">
         <v>1218</v>
-      </c>
-      <c r="B2" s="43" t="s">
-        <v>1219</v>
       </c>
       <c r="C2" s="43">
         <v>0.7</v>
@@ -35476,10 +35473,10 @@
     </row>
     <row r="3" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="43" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="B3" s="43" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="C3" s="43">
         <v>0.9</v>
@@ -35493,10 +35490,10 @@
     </row>
     <row r="4" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="43" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="B4" s="43" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="C4" s="43">
         <v>1.2</v>
@@ -37265,7 +37262,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="48" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="B5" s="48"/>
       <c r="C5" s="58">
@@ -37283,7 +37280,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="48" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="B6" s="48"/>
       <c r="C6" s="48">
@@ -37301,7 +37298,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="48" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="B7" s="48"/>
       <c r="C7" s="48">
@@ -37967,7 +37964,7 @@
         <v>1064</v>
       </c>
       <c r="B46" s="38" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="C46" s="38">
         <v>0</v>
@@ -37987,7 +37984,7 @@
         <v>1064</v>
       </c>
       <c r="B47" s="38" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="C47" s="38">
         <v>10</v>
@@ -38007,7 +38004,7 @@
         <v>1064</v>
       </c>
       <c r="B48" s="38" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="C48" s="38">
         <v>20</v>
@@ -40775,7 +40772,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="48" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="B23" s="48">
         <v>15589.91</v>
@@ -41972,7 +41969,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="48" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="B23" s="48">
         <v>2.2230000000000001E-3</v>
@@ -44809,7 +44806,7 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" s="48" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="B86" s="48" t="s">
         <v>165</v>
@@ -44832,7 +44829,7 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" s="48" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="B87" s="48" t="s">
         <v>167</v>
@@ -44855,7 +44852,7 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" s="48" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="B88" s="48" t="s">
         <v>168</v>
@@ -44878,7 +44875,7 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" s="48" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="B89" s="48" t="s">
         <v>169</v>
@@ -48978,7 +48975,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="48" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="B23" s="48">
         <v>3.9964920000000001E-2</v>
@@ -49843,7 +49840,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="48" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="B23" s="48">
         <v>4.3099999999999999E-2</v>
@@ -52683,7 +52680,7 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" s="48" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="B86" s="48" t="s">
         <v>165</v>
@@ -52706,7 +52703,7 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" s="48" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="B87" s="48" t="s">
         <v>167</v>
@@ -52729,7 +52726,7 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" s="48" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="B88" s="48" t="s">
         <v>168</v>
@@ -52752,7 +52749,7 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" s="48" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="B89" s="48" t="s">
         <v>169</v>
@@ -56649,7 +56646,7 @@
   </sheetPr>
   <dimension ref="A1:C65"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
@@ -56838,7 +56835,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="48" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="B23" s="49" t="s">
         <v>406</v>
@@ -64566,7 +64563,7 @@
         <v>1048</v>
       </c>
       <c r="B8" s="56" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="C8" s="56">
         <v>0.9</v>
@@ -64580,10 +64577,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="56" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="B9" s="56" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="C9" s="56">
         <v>1</v>
@@ -64597,10 +64594,10 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="56" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="B10" s="57" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="C10" s="56">
         <v>1.1000000000000001</v>
@@ -64617,7 +64614,7 @@
         <v>1034</v>
       </c>
       <c r="B11" s="57" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="C11" s="56">
         <v>1.25</v>
@@ -64634,7 +64631,7 @@
         <v>1035</v>
       </c>
       <c r="B12" s="57" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="C12" s="56">
         <v>1.4</v>
@@ -64651,7 +64648,7 @@
         <v>400</v>
       </c>
       <c r="B13" s="56" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="C13" s="56">
         <v>1</v>
@@ -64792,10 +64789,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="56" t="s">
+        <v>1228</v>
+      </c>
+      <c r="B7" s="56" t="s">
         <v>1229</v>
-      </c>
-      <c r="B7" s="56" t="s">
-        <v>1230</v>
       </c>
       <c r="C7" s="56">
         <v>1</v>
@@ -64809,10 +64806,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="56" t="s">
+        <v>1230</v>
+      </c>
+      <c r="B8" s="57" t="s">
         <v>1231</v>
-      </c>
-      <c r="B8" s="57" t="s">
-        <v>1232</v>
       </c>
       <c r="C8" s="56">
         <v>1</v>
@@ -64829,7 +64826,7 @@
         <v>1034</v>
       </c>
       <c r="B9" s="57" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="C9" s="56">
         <v>1.1000000000000001</v>
@@ -64846,7 +64843,7 @@
         <v>1035</v>
       </c>
       <c r="B10" s="57" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="C10" s="56">
         <v>1.3</v>
@@ -64863,7 +64860,7 @@
         <v>400</v>
       </c>
       <c r="B11" s="56" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="C11" s="56">
         <v>1</v>
